--- a/cordexp/models/mohc-hadrem3-ga7-05/cordexp_eur_11_mohc_hadrem3_ga7_05_toplevel.xlsx
+++ b/cordexp/models/mohc-hadrem3-ga7-05/cordexp_eur_11_mohc_hadrem3_ga7_05_toplevel.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erasmo.buonomo\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D52D3DC-8986-498D-8422-FA3143CB4439}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1420" yWindow="0" windowWidth="17090" windowHeight="9910" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -12,20 +18,31 @@
     <sheet name="1. Key Properties" sheetId="3" r:id="rId3"/>
     <sheet name="2. Radiative Forcings" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="527">
-  <si>
-    <t>ES-DOC CORDEX Model Documentation</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="560">
+  <si>
+    <t>ES-DOC CORDEXP Model Documentation</t>
   </si>
   <si>
     <t>MIP Era</t>
   </si>
   <si>
-    <t>CORDEX</t>
+    <t>CORDEXP</t>
   </si>
   <si>
     <t>Institute</t>
@@ -37,7 +54,7 @@
     <t>Model</t>
   </si>
   <si>
-    <t>MOHC-HADREM3-GA7-05</t>
+    <t>MOHC-HadREM3-GA7-05</t>
   </si>
   <si>
     <t>Realm / Topic</t>
@@ -64,7 +81,7 @@
     <t>Further Info</t>
   </si>
   <si>
-    <t>https://es-doc.org/cordex</t>
+    <t>https://es-doc.org/cordexp</t>
   </si>
   <si>
     <t>Specialization Version</t>
@@ -139,7 +156,10 @@
     <t>Name of coupled model</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.name</t>
+    <t>cordexp.toplevel.key_properties.name</t>
+  </si>
+  <si>
+    <t>HadREM3-GA7-05</t>
   </si>
   <si>
     <t>1.1.1.2 *</t>
@@ -151,12 +171,15 @@
     <t>Keywords associated with coupled model</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.keywords</t>
+    <t>cordexp.toplevel.key_properties.keywords</t>
   </si>
   <si>
     <t>NOTE: Please enter a comma seperated list</t>
   </si>
   <si>
+    <t>HadREM3-GA7-05;GA7 UM;Hadley Centre;Met Office UK</t>
+  </si>
+  <si>
     <t>1.1.1.3 *</t>
   </si>
   <si>
@@ -166,12 +189,15 @@
     <t>Top level overview of coupled model</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.overview</t>
+    <t>cordexp.toplevel.key_properties.overview</t>
   </si>
   <si>
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
+    <t>HadREM3-GA7-05 is the regional climate model based on the Met Office Unified Model Global Atmosphere 7.0 and Jules Global Land configuration7.0  (Walters et al, 2019), also used for the HadGEM3-GC3 model on which the MetOffice contribution to CMIP6 is based, and for the Climate Projections for the UK, 2018 (UKCP18), based on perturbed physic models. The model is based on the non-hydrostatic dynamical scheme  ENDGAME (Wood et al, 2014), in a configuration which uses a maximum of 63 hybrid-height terrain following levels with a top of the atmophere level at ~40km. The regional model uses prescribed aerosol optical properties and cloud condensation nuclei concentration. Anthropogenic forcings come from the MACv2-SP data for the historical period (Stevens et al, 2017) and for the RCP scenarios (Fiedler et al, 2019).</t>
+  </si>
+  <si>
     <t>1.2.1</t>
   </si>
   <si>
@@ -190,7 +216,7 @@
     <t>ENUM</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.model_type.model_family</t>
+    <t>cordexp.toplevel.key_properties.model_type.model_family</t>
   </si>
   <si>
     <t>Regional Atmospheric Climate Model</t>
@@ -214,7 +240,7 @@
     <t>Provide additional details on type of the Regional Climate Model</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.model_type.details</t>
+    <t>cordexp.toplevel.key_properties.model_type.details</t>
   </si>
   <si>
     <t>1.3.1</t>
@@ -235,7 +261,7 @@
     <t>Year the model was released</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.genealogy.year_released</t>
+    <t>cordexp.toplevel.key_properties.genealogy.year_released</t>
   </si>
   <si>
     <t xml:space="preserve">1.3.1.2 </t>
@@ -244,10 +270,10 @@
     <t>Previous Name</t>
   </si>
   <si>
-    <t>Previously known as</t>
-  </si>
-  <si>
-    <t>cordex.toplevel.key_properties.genealogy.previous_name</t>
+    <t>cordexp.toplevel.key_properties.genealogy.previous_name</t>
+  </si>
+  <si>
+    <t>HadGEM3-RA</t>
   </si>
   <si>
     <t xml:space="preserve">1.3.1.3 </t>
@@ -259,7 +285,10 @@
     <t>Briefly summarize the differences between this model and its previous version, if applicable</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.genealogy.difference_to_previous</t>
+    <t>cordexp.toplevel.key_properties.genealogy.difference_to_previous</t>
+  </si>
+  <si>
+    <t>HadGEM3-RA was based on the MetOffice Unified Model Global Atmospere and Jules Global Land version 3 (Walters et al,2011), changes include a new dynamical core and major updates in parametrised schemes.</t>
   </si>
   <si>
     <t>1.4.1</t>
@@ -277,7 +306,7 @@
     <t>Domain</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.cordex_domain.domain</t>
+    <t>cordexp.toplevel.key_properties.cordex_domain.domain</t>
   </si>
   <si>
     <t>EUR-11</t>
@@ -301,7 +330,7 @@
     <t>What calender is uded by the model</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.model_calendar.calendar</t>
+    <t>cordexp.toplevel.key_properties.model_calendar.calendar</t>
   </si>
   <si>
     <t>GCM-based</t>
@@ -325,7 +354,10 @@
     <t>Describe details if any spin-up is used</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.spinup.details</t>
+    <t>cordexp.toplevel.key_properties.spinup.details</t>
+  </si>
+  <si>
+    <t>One year spin up for all runs (1981 for the evaluation run, 1950 for the historical runs)</t>
   </si>
   <si>
     <t>1.7.1</t>
@@ -343,7 +375,7 @@
     <t>Describe details if spectral nudging is used (variables, levels, etc.)</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.nudging.details</t>
+    <t>cordexp.toplevel.key_properties.nudging.details</t>
   </si>
   <si>
     <t>1.8.1</t>
@@ -364,7 +396,7 @@
     <t>Location of code for this component.</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.software_properties.repository</t>
+    <t>cordexp.toplevel.key_properties.software_properties.repository</t>
   </si>
   <si>
     <t xml:space="preserve">1.8.1.2 </t>
@@ -376,7 +408,10 @@
     <t>Code version identifier.</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.software_properties.code_version</t>
+    <t>cordexp.toplevel.key_properties.software_properties.code_version</t>
+  </si>
+  <si>
+    <t>UM10.9</t>
   </si>
   <si>
     <t xml:space="preserve">1.8.1.3 </t>
@@ -388,7 +423,10 @@
     <t>Code language(s).</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.software_properties.code_languages</t>
+    <t>cordexp.toplevel.key_properties.software_properties.code_languages</t>
+  </si>
+  <si>
+    <t>Fortran90,C</t>
   </si>
   <si>
     <t xml:space="preserve">1.8.1.4 </t>
@@ -400,7 +438,7 @@
     <t>Describe how model realms are structured into independent software components (coupled via a coupler) and internal software components.</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.software_properties.components_structure</t>
+    <t>cordexp.toplevel.key_properties.software_properties.components_structure</t>
   </si>
   <si>
     <t xml:space="preserve">1.8.1.5 </t>
@@ -412,7 +450,7 @@
     <t>Overarching coupling framework for the model.</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.software_properties.coupler</t>
+    <t>cordexp.toplevel.key_properties.software_properties.coupler</t>
   </si>
   <si>
     <t>OASIS: The OASIS coupler - prior to OASIS-MCT</t>
@@ -451,7 +489,7 @@
     <t>Describe if/how flux corrections are applied in the model</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.flux_correction.details</t>
+    <t>cordexp.toplevel.key_properties.flux_correction.details</t>
   </si>
   <si>
     <t>1.10.1</t>
@@ -469,7 +507,10 @@
     <t>Provide the latest reference describing the model</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.reference.details</t>
+    <t>cordexp.toplevel.key_properties.reference.details</t>
+  </si>
+  <si>
+    <t>Walters D., Baran A., Boutle I., Brooks M., Earnshaw P., Edwards J., Furtado K., Hill P., Lock A., Manners J., Morcrette C., Mulcahy J., Sanchez C., Smith C., Stratton R., Tennant W., Tomassini L., Van Weverberg K., Vosper S., Willett M., Browse J., Bushell A., Dalvi M., Essery R., Gedney N., Hardiman S., Johnson B., Johnson C., Jones A., Mann G., Milton S., Rumbold H., Sellar A., Ujiie M., Whitall M., Williams K., and Zerroukat M. (2017) The Met Office Unified Model Global Atmosphere 7.0/7.1 and JULES Global Land 7.0 configurations, Geosci. Model Dev., 12, 1909–1963, 2019, https://doi.org/10.5194/gmd-12-1909-2019                                       Tucker S., Kendon, E.J. Bellouin, N. Buonomo, E. Johnson, B.T., and Murphy, J.M. Evaluation of a new 12km regional perturbed parameter ensemble over Europe, 2021, Clim. Dyn. (submitted)</t>
   </si>
   <si>
     <t>1.11.1</t>
@@ -490,7 +531,7 @@
     <t>Is the atmosphere passing a double flux to the ocean and sea ice (as opposed to a single one)?</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.coupling.atmosphere_double_flux</t>
+    <t>cordexp.toplevel.key_properties.coupling.atmosphere_double_flux</t>
   </si>
   <si>
     <t xml:space="preserve">1.11.1.2 </t>
@@ -502,7 +543,7 @@
     <t>Where are the air-sea fluxes calculated</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.coupling.atmosphere_fluxes_calculation_grid</t>
+    <t>cordexp.toplevel.key_properties.coupling.atmosphere_fluxes_calculation_grid</t>
   </si>
   <si>
     <t>Atmosphere grid</t>
@@ -523,7 +564,7 @@
     <t>Are relative or absolute winds used to compute the flux? I.e. do ocean surface currents enter the wind stress calculation?</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.coupling.atmosphere_relative_winds</t>
+    <t>cordexp.toplevel.key_properties.coupling.atmosphere_relative_winds</t>
   </si>
   <si>
     <t>1.12.1</t>
@@ -544,7 +585,7 @@
     <t>General overview description of tuning: explain and motivate the main targets and metrics/diagnostics retained. Document the relative weight given to climate performance metrics/diagnostics versus process oriented metrics/diagnostics, and on the possible conflicts with parameterization level tuning. In particular describe any struggle with a parameter value that required pushing it to its limits to solve a particular model deficiency.</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.tuning_applied.description</t>
+    <t>cordexp.toplevel.key_properties.tuning_applied.description</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.1.2 </t>
@@ -556,7 +597,7 @@
     <t>List of regional metrics/diagnostics of mean state (e.g THC, AABW, regional means etc) used in tuning model/component</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.tuning_applied.regional_metrics_used</t>
+    <t>cordexp.toplevel.key_properties.tuning_applied.regional_metrics_used</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.1.3 </t>
@@ -568,7 +609,7 @@
     <t>List observed trend metrics/diagnostics used in tuning model/component (such as 20th century)</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.tuning_applied.trend_metrics_used</t>
+    <t>cordexp.toplevel.key_properties.tuning_applied.trend_metrics_used</t>
   </si>
   <si>
     <t>1.12.1.4 *</t>
@@ -580,7 +621,7 @@
     <t>Describe how energy balance was obtained in the full system: in the various components independently or at the components coupling stage?</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.tuning_applied.energy_balance</t>
+    <t>cordexp.toplevel.key_properties.tuning_applied.energy_balance</t>
   </si>
   <si>
     <t>1.12.1.5 *</t>
@@ -592,7 +633,7 @@
     <t>Describe how fresh_water balance was obtained in the full system: in the various components independently or at the components coupling stage?</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.tuning_applied.fresh_water_balance</t>
+    <t>cordexp.toplevel.key_properties.tuning_applied.fresh_water_balance</t>
   </si>
   <si>
     <t>1.12.2</t>
@@ -613,7 +654,10 @@
     <t>What atmospheric variables are used to drive the regional model</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.gcm_forcing.atmos_lbc_eval.atmos_lbc_eval_variables</t>
+    <t>cordexp.toplevel.key_properties.gcm_forcing.atmos_lbc_eval.atmos_lbc_eval_variables</t>
+  </si>
+  <si>
+    <t>Temperature, specific humidity, zonal and meridional winds and surface pressure (ta, hus, ua, va, ps)</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.2.2 </t>
@@ -625,7 +669,10 @@
     <t>At what frequency</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.gcm_forcing.atmos_lbc_eval.atmos_lbc_eval_frequency</t>
+    <t>cordexp.toplevel.key_properties.gcm_forcing.atmos_lbc_eval.atmos_lbc_eval_frequency</t>
+  </si>
+  <si>
+    <t>6hr</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.2.3 </t>
@@ -637,7 +684,10 @@
     <t>Top boundary conditions</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.gcm_forcing.atmos_lbc_eval.atmos_lbc_eval_top</t>
+    <t>cordexp.toplevel.key_properties.gcm_forcing.atmos_lbc_eval.atmos_lbc_eval_top</t>
+  </si>
+  <si>
+    <t>40km</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.2.4 </t>
@@ -649,7 +699,7 @@
     <t>Additional information relating to the implementation of the Atmospheric Lateral Boundary Conditions for the evaluation experiment (e.g. citations, use of non-standard datasets, etc.).</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.gcm_forcing.atmos_lbc_eval.additional_information</t>
+    <t>cordexp.toplevel.key_properties.gcm_forcing.atmos_lbc_eval.additional_information</t>
   </si>
   <si>
     <t>1.12.3</t>
@@ -667,7 +717,7 @@
     <t>Atmos Lbc Scn Variables</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.gcm_forcing.atmos_lbc_scn.atmos_lbc_scn_variables</t>
+    <t>cordexp.toplevel.key_properties.gcm_forcing.atmos_lbc_scn.atmos_lbc_scn_variables</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.3.2 </t>
@@ -676,7 +726,7 @@
     <t>Atmos Lbc Scn Frequency</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.gcm_forcing.atmos_lbc_scn.atmos_lbc_scn_frequency</t>
+    <t>cordexp.toplevel.key_properties.gcm_forcing.atmos_lbc_scn.atmos_lbc_scn_frequency</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.3.3 </t>
@@ -685,7 +735,10 @@
     <t>Atmos Lbc Scn Top</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.gcm_forcing.atmos_lbc_scn.atmos_lbc_scn_top</t>
+    <t>cordexp.toplevel.key_properties.gcm_forcing.atmos_lbc_scn.atmos_lbc_scn_top</t>
+  </si>
+  <si>
+    <t>Dependent on the atmosperic thickness of the driving boundary conditions, vertical levels removed from the top to match driving model depth of the atmosphere</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.3.4 </t>
@@ -694,7 +747,7 @@
     <t>Additional information relating to the implementation of the Atmospheric Lateral Boundary Conditions for the historical and scenario experiments (e.g. citations, use of non-standard datasets, etc.).</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.gcm_forcing.atmos_lbc_scn.additional_information</t>
+    <t>cordexp.toplevel.key_properties.gcm_forcing.atmos_lbc_scn.additional_information</t>
   </si>
   <si>
     <t>1.12.4</t>
@@ -715,7 +768,10 @@
     <t>What sea surface temperature is used to drive the regional model (driving reanalysis or observations)</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.gcm_forcing.ocean_lbc_eval.sst_lbc_eval_variable</t>
+    <t>cordexp.toplevel.key_properties.gcm_forcing.ocean_lbc_eval.sst_lbc_eval_variable</t>
+  </si>
+  <si>
+    <t>Reynolds SST (Reynolds, R. W., T. M. Smith, C. Liu, D. B. Chelton, K. S. Casey, and M. G. Schlax, 2007:  Daily high-resolution blended analyses for sea surface temperature. J. Climate, 20, 5473-5496. )</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.4.2 </t>
@@ -724,7 +780,10 @@
     <t>Sst Lbc Eval Frequency</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.gcm_forcing.ocean_lbc_eval.sst_lbc_eval_frequency</t>
+    <t>cordexp.toplevel.key_properties.gcm_forcing.ocean_lbc_eval.sst_lbc_eval_frequency</t>
+  </si>
+  <si>
+    <t>daily</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.4.3 </t>
@@ -736,7 +795,10 @@
     <t>What sea-ice concentration is used to drive the regional model (driving reanalysis or observations)</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.gcm_forcing.ocean_lbc_eval.sic_lbc_eval_variable</t>
+    <t>cordexp.toplevel.key_properties.gcm_forcing.ocean_lbc_eval.sic_lbc_eval_variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reynolds sea ice fraction </t>
   </si>
   <si>
     <t xml:space="preserve">1.12.4.4 </t>
@@ -745,7 +807,7 @@
     <t>Sic Lbc Eval Frequency</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.gcm_forcing.ocean_lbc_eval.sic_lbc_eval_frequency</t>
+    <t>cordexp.toplevel.key_properties.gcm_forcing.ocean_lbc_eval.sic_lbc_eval_frequency</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.4.5 </t>
@@ -754,7 +816,7 @@
     <t>Additional information relating to the implementation of the Lower Boundary Conditions for the evaluation experiment (e.g. citations, use of non-standard datasets, etc.)</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.gcm_forcing.ocean_lbc_eval.additional_information</t>
+    <t>cordexp.toplevel.key_properties.gcm_forcing.ocean_lbc_eval.additional_information</t>
   </si>
   <si>
     <t>1.12.5</t>
@@ -775,7 +837,7 @@
     <t>At what frequency is sea surface temperature taken</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.gcm_forcing.ocean_lbc_scn.sst_lbc_scn_frequency</t>
+    <t>cordexp.toplevel.key_properties.gcm_forcing.ocean_lbc_scn.sst_lbc_scn_frequency</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.5.2 </t>
@@ -787,7 +849,7 @@
     <t>At what frequency is sea-ice concentration taken</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.gcm_forcing.ocean_lbc_scn.sic_lbc_scn_frequency</t>
+    <t>cordexp.toplevel.key_properties.gcm_forcing.ocean_lbc_scn.sic_lbc_scn_frequency</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.5.3 </t>
@@ -796,7 +858,7 @@
     <t>Additional information relating to the implementation of the Lower Lateral Boundary Conditions for the historical and scenario experiments (e.g. citations, use of non-standard datasets, etc.).</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.gcm_forcing.ocean_lbc_scn.additional_information</t>
+    <t>cordexp.toplevel.key_properties.gcm_forcing.ocean_lbc_scn.additional_information</t>
   </si>
   <si>
     <t>1.12.6</t>
@@ -817,7 +879,10 @@
     <t>What aerosol datasets and parameters are used to drive the regional model (driving reanalysis or observations)</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.gcm_forcing.aerosol_eval.aerosol_eval_dataset</t>
+    <t>cordexp.toplevel.key_properties.gcm_forcing.aerosol_eval.aerosol_eval_dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescribed aerosol optical properties (absorption, extinction and asymmetry) for the 6 shortwave and 9 longwave wavebands of the SOCRATES radiative transfer code (Edwards and Slingo, 1996, Manners et al., 2015) and cloud droplet number concentrations (CDNC) are combined from three source of data. Anthropogenic forcings come from the  MACv2-SP dataset (Stevens et al, 2017), a pre-industrial background is from an AMIP pre-industrial of a GA7 configuration of the MetUM with prognostic aerosol and the VolMIP stratospheric aerosol forcing dataset (Zanchettin et al, 2016). References: Edwards, J. M., &amp; Slingo, A. (1996). Studies with a flexible new radiation code. I: Choosing a configuration for a large-scale model. Quarterly Journal of the Royal Meteorological Society, 122(531), 689–719. https://doi.org/10.1002/qj.49712253107. Manners, J. and Edwards, J. M. and Hill, P. and Thelen, J.-C., 2015: SOCRATES (Suite Of Community RAdiative Transfer codes based on Edwards and Slingo) Technical Guide. Met Office, UK. Available at: https://code.metoffice.gov.uk/trac/socrates. Stevens, B., Fiedler, S., Kinne, S., Peters, K., Rast, S., Müsse, J., Smith, S. J., &amp; Mauritsen, T. (2017). MACv2-SP: a parameterization of anthropogenic aerosol optical properties and an associated Twomey effect for use in CMIP6. Geoscientific Model Development, 10(1), 433–452. https://doi.org/10.5194/gmd-10-433-2017. Fiedler, S., Stevens, B., Gidden, M., Smith, S. J., Riahi, K., and van Vuuren, D.: First forcing estimates from the future CMIP6 scenarios of anthropogenic aerosol optical properties and an associated Twomey effect, Geosci. Model Dev., 12, 989–1007, https://doi.org/10.5194/gmd-12-989-2019, 2019.  Zanchettin, D., Khodri, M., Timmreck, C., Toohey, M., Schmidt, A., Gerber, E. P., Hegerl, G., Robock, A., Pausata, F. S. R., Ball, W. T., Bauer, S. E., Bekki, S., Dhomse, S. S., LeGrande, A. N., Mann, G. W., Marshall, L., Mills, M., Marchand, M., Niemeier, U., Poulain, V., Rozanov, E., Rubino, A., Stenke, A., Tsigaridis, K., and Tummon, F.: The Model Intercomparison Project on the climatic response to Volcanic forcing (VolMIP): experimental design and forcing input data for CMIP6, Geosci. Model Dev., 9, 2701–2719, https://doi.org/10.5194/gmd-9-2701-2016, 2016. </t>
   </si>
   <si>
     <t xml:space="preserve">1.12.6.2 </t>
@@ -829,7 +894,10 @@
     <t>At what frequency (climatology, transient, etc.)</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.gcm_forcing.aerosol_eval.aerosol_eval_frequency</t>
+    <t>cordexp.toplevel.key_properties.gcm_forcing.aerosol_eval.aerosol_eval_frequency</t>
+  </si>
+  <si>
+    <t>monthly</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.6.3 </t>
@@ -838,7 +906,10 @@
     <t>Additional information relating to the implementation of aerosol for the evaluation experiment</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.gcm_forcing.aerosol_eval.additional_information</t>
+    <t>cordexp.toplevel.key_properties.gcm_forcing.aerosol_eval.additional_information</t>
+  </si>
+  <si>
+    <t>The input datasets are used via the EasyAerosol scheme. For the calculation of radiative fluxes and the representation of aerosol-radiation interactions (direct and semi-direct effects), EasyAerosol prescribes distributions of aerosol extinction, absorption and asymmetry. Those distributions are given for the shortwave and longwave spectra independently. EasyAerosol also prescribes distributions of cloud droplet number concentrations.</t>
   </si>
   <si>
     <t>1.12.7</t>
@@ -859,7 +930,10 @@
     <t>What aerosol datasets and parameters are used to drive the regional model</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.gcm_forcing.aerosol_scn.aerosol_scn_dataset</t>
+    <t>cordexp.toplevel.key_properties.gcm_forcing.aerosol_scn.aerosol_scn_dataset</t>
+  </si>
+  <si>
+    <t>Prescribed aerosol optical properties (absorption, extinction and asymmetry) for the 6 shortwave and 9 longwave wavebands of the SOCRATES radiative transfer code (Edwards and Slingo, 1996, Manners et al., 2015) and cloud droplet number concentrations (CDNC) are combined from three source of data. Anthropogenic forcings come from the  MACv2-SP dataset (Stevens et al, 2017), a pre-industrial background is from an AMIP pre-industrial of a GA7 configuration of the MetUM with prognostic aerosol and the VolMIP stratospheric aerosol forcing dataset (Zanchettin et al, 2016) (Full citation included above)</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.7.2 </t>
@@ -868,7 +942,10 @@
     <t>Aerosol Scn Frequency</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.gcm_forcing.aerosol_scn.aerosol_scn_frequency</t>
+    <t>cordexp.toplevel.key_properties.gcm_forcing.aerosol_scn.aerosol_scn_frequency</t>
+  </si>
+  <si>
+    <t>Monthly</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.7.3 </t>
@@ -877,7 +954,7 @@
     <t>Additional information relating to the implementation of aerosol for the historical and scenario experiment</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.gcm_forcing.aerosol_scn.additional_information</t>
+    <t>cordexp.toplevel.key_properties.gcm_forcing.aerosol_scn.additional_information</t>
   </si>
   <si>
     <t>1.12.8</t>
@@ -898,7 +975,10 @@
     <t>What ozone dataset is used to drive the regional model (driving reanalysis or observations)</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.gcm_forcing.ozone_eval.ozone_eval_dataset</t>
+    <t>cordexp.toplevel.key_properties.gcm_forcing.ozone_eval.ozone_eval_dataset</t>
+  </si>
+  <si>
+    <t>AC&amp;C/SPARC, Cionni, I., Eyring, V., Lamarque, J. F., Randel, W. J., Stevenson, D. S., Wu, F., Bodeker, G. E., Shepherd, T. G., Shindell, D. T., &amp; Waugh, D. W. (2011). Ozone database in support of CMIP5 simulations: results and corresponding radiative forcing. Atmospheric Chemistry and Physics Discussions, 11(4), 10875–10933. https://doi.org/10.5194/acpd-11-10875-2011</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.8.2 </t>
@@ -907,7 +987,7 @@
     <t>Ozone Eval Frequency</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.gcm_forcing.ozone_eval.ozone_eval_frequency</t>
+    <t>cordexp.toplevel.key_properties.gcm_forcing.ozone_eval.ozone_eval_frequency</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.8.3 </t>
@@ -916,7 +996,7 @@
     <t>Additional information relating to the implementation of ozone for the evaluation experiment</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.gcm_forcing.ozone_eval.additional_information</t>
+    <t>cordexp.toplevel.key_properties.gcm_forcing.ozone_eval.additional_information</t>
   </si>
   <si>
     <t>1.12.9</t>
@@ -937,7 +1017,10 @@
     <t>What ozone dataset is used to drive the regional model</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.gcm_forcing.ozone_scn.ozone_scn_dataset</t>
+    <t>cordexp.toplevel.key_properties.gcm_forcing.ozone_scn.ozone_scn_dataset</t>
+  </si>
+  <si>
+    <t>AC&amp;C/SPARC (Cionni et al, 2011)</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.9.2 </t>
@@ -946,7 +1029,7 @@
     <t>Ozone Scn Frequency</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.gcm_forcing.ozone_scn.ozone_scn_frequency</t>
+    <t>cordexp.toplevel.key_properties.gcm_forcing.ozone_scn.ozone_scn_frequency</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.9.3 </t>
@@ -955,7 +1038,7 @@
     <t>Additional information relating to the implementation of ozone for the historical and scenario experiments</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.gcm_forcing.ozone_scn.additional_information</t>
+    <t>cordexp.toplevel.key_properties.gcm_forcing.ozone_scn.additional_information</t>
   </si>
   <si>
     <t>1.12.10</t>
@@ -976,7 +1059,10 @@
     <t>What land cover dataset is used in the regional model</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.gcm_forcing.land_cover_eval.land_cover_eval_dataset</t>
+    <t>cordexp.toplevel.key_properties.gcm_forcing.land_cover_eval.land_cover_eval_dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> International Geosphere–Biosphere Programme dataset (IGBP; Loveland et al., 2000)  mapped to the nine land types used in JULES, plus land use changes from Hurtt, G.C., et al., 2011. References: Loveland, T. R., Reed, B. C., Ohlen, D. O., Brown, J. F., Zhu, Z., Yang, L., &amp; Merchant, J. W. (2000). Development of a global land cover characteristics database and IGBP DISCover from 1 km AVHRR data. International Journal of Remote Sensing, 21(6–7), 1303–1330. https://doi.org/10.1080/014311600210191, Hurtt, G. C., Chini, L. P., Frolking, S., Betts, R. A., Feddema, J., Fischer, G., Fisk, J. P., Hibbard, K., Houghton, R. A., Janetos, A., Jones, C. D., Kindermann, G., Kinoshita, T., Klein Goldewijk, K., Riahi, K., Shevliakova, E., Smith, S., Stehfest, E., Thomson, A., … Wang, Y. P. (2011). Harmonization of land-use scenarios for the period 1500-2100: 600 years of global gridded annual land-use transitions, wood harvest, and resulting secondary lands. Climatic Change, 109(1), 117–161. https://doi.org/10.1007/s10584-011-0153-2</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.10.2 </t>
@@ -985,7 +1071,10 @@
     <t>Land Cover Eval Frequency</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.gcm_forcing.land_cover_eval.land_cover_eval_frequency</t>
+    <t>cordexp.toplevel.key_properties.gcm_forcing.land_cover_eval.land_cover_eval_frequency</t>
+  </si>
+  <si>
+    <t>Annual</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.10.3 </t>
@@ -994,7 +1083,10 @@
     <t>Additional information relating to the implementation of land cover for the evaluation experiment</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.gcm_forcing.land_cover_eval.additional_information</t>
+    <t>cordexp.toplevel.key_properties.gcm_forcing.land_cover_eval.additional_information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The land use changes from Hurtt et al. (2011) are used to  represent changes in anthropogenic land use by changes in grasses (c3 and c4 grasses) at the expense/addition of clearing/planting a corresponding fraction of the combination of trees (needleleaf and broadleaf) and shrubs. The fractions of bare soil, inland water, urban and ice remain unchanged. </t>
   </si>
   <si>
     <t>1.12.11</t>
@@ -1012,7 +1104,10 @@
     <t>Land Cover Scn Dataset</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.gcm_forcing.land_cover_scn.land_cover_scn_dataset</t>
+    <t>cordexp.toplevel.key_properties.gcm_forcing.land_cover_scn.land_cover_scn_dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> International Geosphere–Biosphere Programme dataset (IGBP; Loveland et al., 2000)  mapped to the nine land types used in JULES, plus land use changes from Hurtt, G.C., et al., 2011</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.11.2 </t>
@@ -1021,7 +1116,7 @@
     <t>Land Cover Scn Frequency</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.gcm_forcing.land_cover_scn.land_cover_scn_frequency</t>
+    <t>cordexp.toplevel.key_properties.gcm_forcing.land_cover_scn.land_cover_scn_frequency</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.11.3 </t>
@@ -1030,7 +1125,7 @@
     <t>Additional information relating to the implementation of land cover for tthe historical and scenario experiments</t>
   </si>
   <si>
-    <t>cordex.toplevel.key_properties.gcm_forcing.land_cover_scn.additional_information</t>
+    <t>cordexp.toplevel.key_properties.gcm_forcing.land_cover_scn.additional_information</t>
   </si>
   <si>
     <t>2.1.1</t>
@@ -1048,7 +1143,7 @@
     <t>Commonly used name for the radiative forcings in toplevel model.</t>
   </si>
   <si>
-    <t>cordex.toplevel.radiative_forcings.name</t>
+    <t>cordexp.toplevel.radiative_forcings.name</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.1.2 </t>
@@ -1057,7 +1152,7 @@
     <t>Overview of radiative forcings of the model for historical and scenario (aka table 12.1 ipcc ar5) in toplevel model.</t>
   </si>
   <si>
-    <t>cordex.toplevel.radiative_forcings.overview</t>
+    <t>cordexp.toplevel.radiative_forcings.overview</t>
   </si>
   <si>
     <t>2.1.2</t>
@@ -1078,7 +1173,10 @@
     <t>How this forcing agent is provided (e.g. via concentrations, emission precursors, prognostically derived, etc.)</t>
   </si>
   <si>
-    <t>cordex.toplevel.radiative_forcings.greenhouse_gases.CO2.provision</t>
+    <t>cordexp.toplevel.radiative_forcings.greenhouse_gases.CO2.provision</t>
+  </si>
+  <si>
+    <t>Y: Prescribed concentrations, distributions or time series data</t>
   </si>
   <si>
     <t>N/A: Not applicable - forcing agent is not included</t>
@@ -1087,9 +1185,6 @@
     <t>M: Emissions and concentrations determined by the model state rather than externally prescribed</t>
   </si>
   <si>
-    <t>Y: Prescribed concentrations, distributions or time series data</t>
-  </si>
-  <si>
     <t>E: Concentrations calculated interactively driven by prescribed emissions or precursor emissions</t>
   </si>
   <si>
@@ -1105,7 +1200,10 @@
     <t>Additional information relating to the provision and implementation of this forcing agent (e.g. citations, use of non-standard datasets, explaining how multiple provisions are used, etc.).</t>
   </si>
   <si>
-    <t>cordex.toplevel.radiative_forcings.greenhouse_gases.CO2.additional_information</t>
+    <t>cordexp.toplevel.radiative_forcings.greenhouse_gases.CO2.additional_information</t>
+  </si>
+  <si>
+    <t>Historical and RCP scenario annual concentrations as described in  Jones, C. D., Hughes, J. K., Bellouin, N., Hardiman, S. C., Jones, G. S., Knight, J., Liddicoat, S., O'Connor, F. M., Andres, R. J., Bell, C., Boo, K.-O., Bozzo, A., Butchart, N., Cadule, P., Corbin, K. D., Doutriaux-Boucher, M., Friedlingstein, P., Gornall, J., Gray, L., Halloran, P. R., Hurtt, G., Ingram, W. J., Lamarque, J.-F., Law, R. M., Meinshausen, M., Osprey, S., Palin, E. J., Parsons Chini, L., Raddatz, T., Sanderson, M. G., Sellar, A. A., Schurer, A., Valdes, P., Wood, N., Woodward, S., Yoshioka, M., and Zerroukat, M.: The HadGEM2-ES implementation of CMIP5 centennial simulations, Geosci. Model Dev., 4, 543–570, https://doi.org/10.5194/gmd-4-543-2011, 2011.</t>
   </si>
   <si>
     <t>2.1.3</t>
@@ -1120,13 +1218,13 @@
     <t>2.1.3.1 *</t>
   </si>
   <si>
-    <t>cordex.toplevel.radiative_forcings.greenhouse_gases.CH4.provision</t>
+    <t>cordexp.toplevel.radiative_forcings.greenhouse_gases.CH4.provision</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.3.2 </t>
   </si>
   <si>
-    <t>cordex.toplevel.radiative_forcings.greenhouse_gases.CH4.additional_information</t>
+    <t>cordexp.toplevel.radiative_forcings.greenhouse_gases.CH4.additional_information</t>
   </si>
   <si>
     <t>2.1.4</t>
@@ -1141,13 +1239,13 @@
     <t>2.1.4.1 *</t>
   </si>
   <si>
-    <t>cordex.toplevel.radiative_forcings.greenhouse_gases.N2O.provision</t>
+    <t>cordexp.toplevel.radiative_forcings.greenhouse_gases.N2O.provision</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.4.2 </t>
   </si>
   <si>
-    <t>cordex.toplevel.radiative_forcings.greenhouse_gases.N2O.additional_information</t>
+    <t>cordexp.toplevel.radiative_forcings.greenhouse_gases.N2O.additional_information</t>
   </si>
   <si>
     <t>2.1.5</t>
@@ -1162,13 +1260,16 @@
     <t>2.1.5.1 *</t>
   </si>
   <si>
-    <t>cordex.toplevel.radiative_forcings.greenhouse_gases.tropospheric_O3.provision</t>
+    <t>cordexp.toplevel.radiative_forcings.greenhouse_gases.tropospheric_O3.provision</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.5.2 </t>
   </si>
   <si>
-    <t>cordex.toplevel.radiative_forcings.greenhouse_gases.tropospheric_O3.additional_information</t>
+    <t>cordexp.toplevel.radiative_forcings.greenhouse_gases.tropospheric_O3.additional_information</t>
+  </si>
+  <si>
+    <t>Monthly concentration from AC&amp;C/SPARC</t>
   </si>
   <si>
     <t>2.1.6</t>
@@ -1183,13 +1284,13 @@
     <t>2.1.6.1 *</t>
   </si>
   <si>
-    <t>cordex.toplevel.radiative_forcings.greenhouse_gases.stratospheric_O3.provision</t>
+    <t>cordexp.toplevel.radiative_forcings.greenhouse_gases.stratospheric_O3.provision</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.6.2 </t>
   </si>
   <si>
-    <t>cordex.toplevel.radiative_forcings.greenhouse_gases.stratospheric_O3.additional_information</t>
+    <t>cordexp.toplevel.radiative_forcings.greenhouse_gases.stratospheric_O3.additional_information</t>
   </si>
   <si>
     <t>2.1.7</t>
@@ -1204,7 +1305,7 @@
     <t>2.1.7.1 *</t>
   </si>
   <si>
-    <t>cordex.toplevel.radiative_forcings.greenhouse_gases.CFC.provision</t>
+    <t>cordexp.toplevel.radiative_forcings.greenhouse_gases.CFC.provision</t>
   </si>
   <si>
     <t>2.1.7.2 *</t>
@@ -1216,7 +1317,10 @@
     <t>Details of any equivalence concentrations used</t>
   </si>
   <si>
-    <t>cordex.toplevel.radiative_forcings.greenhouse_gases.CFC.equivalence_concentration</t>
+    <t>cordexp.toplevel.radiative_forcings.greenhouse_gases.CFC.equivalence_concentration</t>
+  </si>
+  <si>
+    <t>Option 3: Ozone depleting gases, including CFC-12, are provided as an equivalence concentration of CFC-12 and all other fluorinated gases are provided as an equivalence concentration of HFC-134a</t>
   </si>
   <si>
     <t>N/A: Not applicabale (CFCs not included or emissions and concentrations determined by the model state)</t>
@@ -1228,13 +1332,13 @@
     <t>Option 2: CFC-12 is provided as actual concentrations and any other gases are provided as an equivalence concentration of CFC-11</t>
   </si>
   <si>
-    <t>Option 3: Ozone depleting gases, including CFC-12, are provided as an equivalence concentration of CFC-12 and all other fluorinated gases are provided as an equivalence concentration of HFC-134a</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.1.7.3 </t>
   </si>
   <si>
-    <t>cordex.toplevel.radiative_forcings.greenhouse_gases.CFC.additional_information</t>
+    <t>cordexp.toplevel.radiative_forcings.greenhouse_gases.CFC.additional_information</t>
+  </si>
+  <si>
+    <t>Jones, C. D., Hughes, J. K., Bellouin, N., Hardiman, S. C., Jones, G. S., Knight, J., Liddicoat, S., O'Connor, F. M., Andres, R. J., Bell, C., Boo, K.-O., Bozzo, A., Butchart, N., Cadule, P., Corbin, K. D., Doutriaux-Boucher, M., Friedlingstein, P., Gornall, J., Gray, L., Halloran, P. R., Hurtt, G., Ingram, W. J., Lamarque, J.-F., Law, R. M., Meinshausen, M., Osprey, S., Palin, E. J., Parsons Chini, L., Raddatz, T., Sanderson, M. G., Sellar, A. A., Schurer, A., Valdes, P., Wood, N., Woodward, S., Yoshioka, M., and Zerroukat, M.: The HadGEM2-ES implementation of CMIP5 centennial simulations, Geosci. Model Dev., 4, 543–570, https://doi.org/10.5194/gmd-4-543-2011, 2011</t>
   </si>
   <si>
     <t>2.1.8</t>
@@ -1249,13 +1353,16 @@
     <t>2.1.8.1 *</t>
   </si>
   <si>
-    <t>cordex.toplevel.radiative_forcings.aerosols.SO4.provision</t>
+    <t>cordexp.toplevel.radiative_forcings.aerosols.SO4.provision</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.8.2 </t>
   </si>
   <si>
-    <t>cordex.toplevel.radiative_forcings.aerosols.SO4.additional_information</t>
+    <t>cordexp.toplevel.radiative_forcings.aerosols.SO4.additional_information</t>
+  </si>
+  <si>
+    <t>Aerosol optical properties and effect on the concentration of cloud condensation nuclei as described in Key Properties, Aerosol setting for the evaluation and for the scenario runs.</t>
   </si>
   <si>
     <t>2.1.9</t>
@@ -1270,13 +1377,13 @@
     <t>2.1.9.1 *</t>
   </si>
   <si>
-    <t>cordex.toplevel.radiative_forcings.aerosols.black_carbon.provision</t>
+    <t>cordexp.toplevel.radiative_forcings.aerosols.black_carbon.provision</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.9.2 </t>
   </si>
   <si>
-    <t>cordex.toplevel.radiative_forcings.aerosols.black_carbon.additional_information</t>
+    <t>cordexp.toplevel.radiative_forcings.aerosols.black_carbon.additional_information</t>
   </si>
   <si>
     <t>2.1.10</t>
@@ -1291,13 +1398,13 @@
     <t>2.1.10.1 *</t>
   </si>
   <si>
-    <t>cordex.toplevel.radiative_forcings.aerosols.organic_carbon.provision</t>
+    <t>cordexp.toplevel.radiative_forcings.aerosols.organic_carbon.provision</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.10.2 </t>
   </si>
   <si>
-    <t>cordex.toplevel.radiative_forcings.aerosols.organic_carbon.additional_information</t>
+    <t>cordexp.toplevel.radiative_forcings.aerosols.organic_carbon.additional_information</t>
   </si>
   <si>
     <t>2.1.11</t>
@@ -1312,13 +1419,13 @@
     <t>2.1.11.1 *</t>
   </si>
   <si>
-    <t>cordex.toplevel.radiative_forcings.aerosols.nitrate.provision</t>
+    <t>cordexp.toplevel.radiative_forcings.aerosols.nitrate.provision</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.11.2 </t>
   </si>
   <si>
-    <t>cordex.toplevel.radiative_forcings.aerosols.nitrate.additional_information</t>
+    <t>cordexp.toplevel.radiative_forcings.aerosols.nitrate.additional_information</t>
   </si>
   <si>
     <t>2.1.12</t>
@@ -1333,7 +1440,7 @@
     <t>2.1.12.1 *</t>
   </si>
   <si>
-    <t>cordex.toplevel.radiative_forcings.aerosols.cloud_albedo_effect.provision</t>
+    <t>cordexp.toplevel.radiative_forcings.aerosols.cloud_albedo_effect.provision</t>
   </si>
   <si>
     <t>2.1.12.2 *</t>
@@ -1345,13 +1452,13 @@
     <t>Radiative effects of aerosols on ice clouds are represented?</t>
   </si>
   <si>
-    <t>cordex.toplevel.radiative_forcings.aerosols.cloud_albedo_effect.aerosol_effect_on_ice_clouds</t>
+    <t>cordexp.toplevel.radiative_forcings.aerosols.cloud_albedo_effect.aerosol_effect_on_ice_clouds</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.12.3 </t>
   </si>
   <si>
-    <t>cordex.toplevel.radiative_forcings.aerosols.cloud_albedo_effect.additional_information</t>
+    <t>cordexp.toplevel.radiative_forcings.aerosols.cloud_albedo_effect.additional_information</t>
   </si>
   <si>
     <t>2.1.13</t>
@@ -1366,13 +1473,13 @@
     <t>2.1.13.1 *</t>
   </si>
   <si>
-    <t>cordex.toplevel.radiative_forcings.aerosols.cloud_lifetime_effect.provision</t>
+    <t>cordexp.toplevel.radiative_forcings.aerosols.cloud_lifetime_effect.provision</t>
   </si>
   <si>
     <t>2.1.13.2 *</t>
   </si>
   <si>
-    <t>cordex.toplevel.radiative_forcings.aerosols.cloud_lifetime_effect.aerosol_effect_on_ice_clouds</t>
+    <t>cordexp.toplevel.radiative_forcings.aerosols.cloud_lifetime_effect.aerosol_effect_on_ice_clouds</t>
   </si>
   <si>
     <t>2.1.13.3 *</t>
@@ -1384,13 +1491,13 @@
     <t>Radiative forcing from aerosol cloud interactions from sulfate aerosol only?</t>
   </si>
   <si>
-    <t>cordex.toplevel.radiative_forcings.aerosols.cloud_lifetime_effect.RFaci_from_sulfate_only</t>
+    <t>cordexp.toplevel.radiative_forcings.aerosols.cloud_lifetime_effect.RFaci_from_sulfate_only</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.13.4 </t>
   </si>
   <si>
-    <t>cordex.toplevel.radiative_forcings.aerosols.cloud_lifetime_effect.additional_information</t>
+    <t>cordexp.toplevel.radiative_forcings.aerosols.cloud_lifetime_effect.additional_information</t>
   </si>
   <si>
     <t>2.1.14</t>
@@ -1405,13 +1512,13 @@
     <t>2.1.14.1 *</t>
   </si>
   <si>
-    <t>cordex.toplevel.radiative_forcings.aerosols.dust.provision</t>
+    <t>cordexp.toplevel.radiative_forcings.aerosols.dust.provision</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.14.2 </t>
   </si>
   <si>
-    <t>cordex.toplevel.radiative_forcings.aerosols.dust.additional_information</t>
+    <t>cordexp.toplevel.radiative_forcings.aerosols.dust.additional_information</t>
   </si>
   <si>
     <t>2.1.15</t>
@@ -1426,7 +1533,7 @@
     <t>2.1.15.1 *</t>
   </si>
   <si>
-    <t>cordex.toplevel.radiative_forcings.aerosols.tropospheric_volcanic.provision</t>
+    <t>cordexp.toplevel.radiative_forcings.aerosols.tropospheric_volcanic.provision</t>
   </si>
   <si>
     <t>2.1.15.2 *</t>
@@ -1438,7 +1545,7 @@
     <t>How explosive volcanic aerosol is implemented in historical simulations</t>
   </si>
   <si>
-    <t>cordex.toplevel.radiative_forcings.aerosols.tropospheric_volcanic.historical_explosive_volcanic_aerosol_implementation</t>
+    <t>cordexp.toplevel.radiative_forcings.aerosols.tropospheric_volcanic.historical_explosive_volcanic_aerosol_implementation</t>
   </si>
   <si>
     <t>Type A: Explosive volcanic aerosol returns rapidly to zero (or near-zero) background.</t>
@@ -1465,13 +1572,19 @@
     <t>How explosive volcanic aerosol is implemented in future simulations</t>
   </si>
   <si>
-    <t>cordex.toplevel.radiative_forcings.aerosols.tropospheric_volcanic.future_explosive_volcanic_aerosol_implementation</t>
+    <t>cordexp.toplevel.radiative_forcings.aerosols.tropospheric_volcanic.future_explosive_volcanic_aerosol_implementation</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.15.4 </t>
   </si>
   <si>
-    <t>cordex.toplevel.radiative_forcings.aerosols.tropospheric_volcanic.additional_information</t>
+    <t>cordexp.toplevel.radiative_forcings.aerosols.tropospheric_volcanic.additional_information</t>
+  </si>
+  <si>
+    <t>Aerosol optical properties and effect on the concentration of cloud condensation nuclei as described in Key Properties, Aerosol setting for the evaluation and for the scenario runs. Volcanic forcing based on VolMIP, Zanchettin et al, 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
   <si>
     <t>2.1.16</t>
@@ -1486,25 +1599,25 @@
     <t>2.1.16.1 *</t>
   </si>
   <si>
-    <t>cordex.toplevel.radiative_forcings.aerosols.stratospheric_volcanic.provision</t>
+    <t>cordexp.toplevel.radiative_forcings.aerosols.stratospheric_volcanic.provision</t>
   </si>
   <si>
     <t>2.1.16.2 *</t>
   </si>
   <si>
-    <t>cordex.toplevel.radiative_forcings.aerosols.stratospheric_volcanic.historical_explosive_volcanic_aerosol_implementation</t>
+    <t>cordexp.toplevel.radiative_forcings.aerosols.stratospheric_volcanic.historical_explosive_volcanic_aerosol_implementation</t>
   </si>
   <si>
     <t>2.1.16.3 *</t>
   </si>
   <si>
-    <t>cordex.toplevel.radiative_forcings.aerosols.stratospheric_volcanic.future_explosive_volcanic_aerosol_implementation</t>
+    <t>cordexp.toplevel.radiative_forcings.aerosols.stratospheric_volcanic.future_explosive_volcanic_aerosol_implementation</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.16.4 </t>
   </si>
   <si>
-    <t>cordex.toplevel.radiative_forcings.aerosols.stratospheric_volcanic.additional_information</t>
+    <t>cordexp.toplevel.radiative_forcings.aerosols.stratospheric_volcanic.additional_information</t>
   </si>
   <si>
     <t>2.1.17</t>
@@ -1519,13 +1632,13 @@
     <t>2.1.17.1 *</t>
   </si>
   <si>
-    <t>cordex.toplevel.radiative_forcings.aerosols.sea_salt.provision</t>
+    <t>cordexp.toplevel.radiative_forcings.aerosols.sea_salt.provision</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.17.2 </t>
   </si>
   <si>
-    <t>cordex.toplevel.radiative_forcings.aerosols.sea_salt.additional_information</t>
+    <t>cordexp.toplevel.radiative_forcings.aerosols.sea_salt.additional_information</t>
   </si>
   <si>
     <t>2.1.18</t>
@@ -1540,7 +1653,7 @@
     <t>2.1.18.1 *</t>
   </si>
   <si>
-    <t>cordex.toplevel.radiative_forcings.other.land_use.provision</t>
+    <t>cordexp.toplevel.radiative_forcings.other.land_use.provision</t>
   </si>
   <si>
     <t>2.1.18.2 *</t>
@@ -1552,13 +1665,13 @@
     <t>Land use change represented via crop change only?</t>
   </si>
   <si>
-    <t>cordex.toplevel.radiative_forcings.other.land_use.crop_change_only</t>
+    <t>cordexp.toplevel.radiative_forcings.other.land_use.crop_change_only</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.18.3 </t>
   </si>
   <si>
-    <t>cordex.toplevel.radiative_forcings.other.land_use.additional_information</t>
+    <t>cordexp.toplevel.radiative_forcings.other.land_use.additional_information</t>
   </si>
   <si>
     <t>2.1.19</t>
@@ -1576,15 +1689,15 @@
     <t>How solar forcing is provided</t>
   </si>
   <si>
-    <t>cordex.toplevel.radiative_forcings.other.solar.provision</t>
+    <t>cordexp.toplevel.radiative_forcings.other.solar.provision</t>
+  </si>
+  <si>
+    <t>irradiance: Solar irradiance forcing</t>
   </si>
   <si>
     <t>N/A: Not applicable - solar forcing is not included</t>
   </si>
   <si>
-    <t>irradiance: Solar irradiance forcing</t>
-  </si>
-  <si>
     <t>proton: Proton pathway to solar forcing</t>
   </si>
   <si>
@@ -1597,14 +1710,17 @@
     <t xml:space="preserve">2.1.19.2 </t>
   </si>
   <si>
-    <t>cordex.toplevel.radiative_forcings.other.solar.additional_information</t>
+    <t>cordexp.toplevel.radiative_forcings.other.solar.additional_information</t>
+  </si>
+  <si>
+    <t>Lean,J.L.(2009) availableat:http://www.geo.fu-berlin.de/en/met/ag/strat/forschung/SOLARIS/Inputdata/CalculationsofSolarIrradiance.pdf for irradiance in the historical period to 2008, followed by a 12-year cycle to 2100 based on the 1992-2008 period.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1705,6 +1821,22 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Docs-Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Docs-Helvetica Neue"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1750,7 +1882,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1794,12 +1926,30 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1846,7 +1996,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1878,9 +2028,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1912,6 +2080,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2087,24 +2273,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="180.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="35.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="180.7265625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="32.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="20">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2112,7 +2300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="20">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2120,7 +2308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="20">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2128,7 +2316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="20">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -2136,7 +2324,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="20">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -2144,12 +2332,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="20">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="17.5">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -2157,7 +2345,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="17.5">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -2165,7 +2353,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" ht="17.5">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -2173,7 +2361,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="17.5">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -2181,13 +2369,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="20">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="20">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -2195,27 +2383,27 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1"/>
-    <hyperlink ref="B12" r:id="rId2"/>
+    <hyperlink ref="B11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="80.7265625" customWidth="1"/>
+    <col min="2" max="2" width="40.7265625" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="30">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -2226,7 +2414,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="18">
       <c r="A5" s="9" t="s">
         <v>24</v>
       </c>
@@ -2250,11 +2438,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="17.5">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="18">
       <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
@@ -2278,39 +2466,41 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="17.5">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Top Level,Key Properties,Radiative Forcings"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1"/>
-    <hyperlink ref="A13" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A13" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD376"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AH376"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="M386" workbookViewId="0">
+      <selection activeCell="B347" sqref="B347"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.7265625" customWidth="1"/>
+    <col min="2" max="2" width="150.7265625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1796875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
@@ -2346,14 +2536,16 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -2361,26 +2553,28 @@
         <v>38</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
-      <c r="B11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -2388,73 +2582,77 @@
         <v>38</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
-      <c r="B16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>53</v>
-      </c>
       <c r="C23" s="10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
-      <c r="B24" s="11"/>
+      <c r="B24" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="AA24" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AD24" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
@@ -2462,15 +2660,15 @@
         <v>38</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
       <c r="B28" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="178" customHeight="1">
@@ -2478,23 +2676,23 @@
     </row>
     <row r="32" spans="1:30" ht="24" customHeight="1">
       <c r="A32" s="12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="B33" s="13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
@@ -2502,43 +2700,45 @@
         <v>38</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="B37" s="11"/>
+      <c r="B37" s="11">
+        <v>2019</v>
+      </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="A40" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>75</v>
-      </c>
+      <c r="B40" s="10"/>
       <c r="C40" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="B41" s="11"/>
+      <c r="B41" s="11" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
@@ -2546,124 +2746,130 @@
         <v>38</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="B45" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="178" customHeight="1">
-      <c r="B46" s="11"/>
+      <c r="B46" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="49" spans="1:29" ht="24" customHeight="1">
       <c r="A49" s="12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:29" ht="24" customHeight="1">
       <c r="B50" s="13" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:29" ht="24" customHeight="1">
       <c r="A53" s="14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:29" ht="24" customHeight="1">
-      <c r="B54" s="11"/>
+      <c r="B54" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="AA54" s="6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AB54" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:29" ht="24" customHeight="1">
       <c r="A57" s="12" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:29" ht="24" customHeight="1">
       <c r="B58" s="13" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:29" ht="24" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:29" ht="24" customHeight="1">
       <c r="A61" s="14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:29" ht="24" customHeight="1">
-      <c r="B62" s="11"/>
+      <c r="B62" s="11" t="s">
+        <v>99</v>
+      </c>
       <c r="AA62" s="6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AB62" s="6" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="AC62" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="12" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
       <c r="B66" s="13" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
@@ -2671,39 +2877,41 @@
         <v>38</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="B70" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="178" customHeight="1">
-      <c r="B71" s="11"/>
+      <c r="B71" s="11" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="A74" s="12" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="B75" s="13" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
@@ -2711,15 +2919,15 @@
         <v>38</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="B79" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="178" customHeight="1">
@@ -2727,23 +2935,23 @@
     </row>
     <row r="83" spans="1:3" ht="24" customHeight="1">
       <c r="A83" s="12" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
       <c r="B84" s="13" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
@@ -2751,10 +2959,10 @@
         <v>38</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
@@ -2762,10 +2970,10 @@
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
       <c r="A90" s="9" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
@@ -2773,21 +2981,23 @@
         <v>38</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
-      <c r="B92" s="11"/>
+      <c r="B92" s="11" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
@@ -2795,26 +3005,28 @@
         <v>38</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
       <c r="B96" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="97" spans="1:34" ht="24" customHeight="1">
-      <c r="B97" s="11"/>
+      <c r="B97" s="11" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="99" spans="1:34" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="100" spans="1:34" ht="24" customHeight="1">
@@ -2822,10 +3034,10 @@
         <v>38</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="101" spans="1:34" ht="24" customHeight="1">
@@ -2833,69 +3045,69 @@
     </row>
     <row r="103" spans="1:34" ht="24" customHeight="1">
       <c r="A103" s="9" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="104" spans="1:34" ht="24" customHeight="1">
       <c r="A104" s="14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="105" spans="1:34" ht="24" customHeight="1">
       <c r="B105" s="11"/>
       <c r="AA105" s="6" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="AB105" s="6" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="AC105" s="6" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="AD105" s="6" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="AE105" s="6" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="AF105" s="6" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="AG105" s="6" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="AH105" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="108" spans="1:34" ht="24" customHeight="1">
       <c r="A108" s="12" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="109" spans="1:34" ht="24" customHeight="1">
       <c r="B109" s="13" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="111" spans="1:34" ht="24" customHeight="1">
       <c r="A111" s="9" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="112" spans="1:34" ht="24" customHeight="1">
@@ -2903,15 +3115,15 @@
         <v>38</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="B113" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="178" customHeight="1">
@@ -2919,23 +3131,23 @@
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="A117" s="12" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
       <c r="B118" s="13" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
       <c r="A120" s="9" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
@@ -2943,26 +3155,28 @@
         <v>38</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="24" customHeight="1">
       <c r="B122" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="178" customHeight="1">
-      <c r="B123" s="11"/>
+      <c r="B123" s="11" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
       <c r="A126" s="12" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="24" customHeight="1">
@@ -2970,21 +3184,21 @@
     </row>
     <row r="129" spans="1:30" ht="24" customHeight="1">
       <c r="A129" s="9" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="130" spans="1:30" ht="24" customHeight="1">
       <c r="A130" s="14" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="131" spans="1:30" ht="24" customHeight="1">
@@ -2992,55 +3206,55 @@
     </row>
     <row r="133" spans="1:30" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="134" spans="1:30" ht="24" customHeight="1">
       <c r="A134" s="14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="135" spans="1:30" ht="24" customHeight="1">
       <c r="B135" s="11"/>
       <c r="AA135" s="6" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="AB135" s="6" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="AC135" s="6" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="AD135" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="137" spans="1:30" ht="24" customHeight="1">
       <c r="A137" s="9" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="138" spans="1:30" ht="24" customHeight="1">
       <c r="A138" s="14" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="139" spans="1:30" ht="24" customHeight="1">
@@ -3048,23 +3262,23 @@
     </row>
     <row r="142" spans="1:30" ht="24" customHeight="1">
       <c r="A142" s="12" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="143" spans="1:30" ht="24" customHeight="1">
       <c r="B143" s="13" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="24" customHeight="1">
       <c r="A145" s="9" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="24" customHeight="1">
@@ -3072,15 +3286,15 @@
         <v>38</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="24" customHeight="1">
       <c r="B147" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="178" customHeight="1">
@@ -3088,10 +3302,10 @@
     </row>
     <row r="150" spans="1:3" ht="24" customHeight="1">
       <c r="A150" s="9" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="24" customHeight="1">
@@ -3099,15 +3313,15 @@
         <v>38</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="24" customHeight="1">
       <c r="B152" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="24" customHeight="1">
@@ -3115,10 +3329,10 @@
     </row>
     <row r="155" spans="1:3" ht="24" customHeight="1">
       <c r="A155" s="9" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
@@ -3126,15 +3340,15 @@
         <v>38</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="24" customHeight="1">
       <c r="B157" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="24" customHeight="1">
@@ -3142,10 +3356,10 @@
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
@@ -3153,10 +3367,10 @@
         <v>38</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="24" customHeight="1">
@@ -3164,10 +3378,10 @@
     </row>
     <row r="164" spans="1:3" ht="24" customHeight="1">
       <c r="A164" s="9" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
@@ -3175,10 +3389,10 @@
         <v>38</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="24" customHeight="1">
@@ -3186,23 +3400,23 @@
     </row>
     <row r="169" spans="1:3" ht="24" customHeight="1">
       <c r="A169" s="12" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="24" customHeight="1">
       <c r="B170" s="13" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">
       <c r="A172" s="9" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="24" customHeight="1">
@@ -3210,26 +3424,28 @@
         <v>38</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="24" customHeight="1">
       <c r="B174" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="178" customHeight="1">
-      <c r="B175" s="11"/>
+      <c r="B175" s="11" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="177" spans="1:3" ht="24" customHeight="1">
       <c r="A177" s="9" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="24" customHeight="1">
@@ -3237,26 +3453,28 @@
         <v>38</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="24" customHeight="1">
       <c r="B179" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="178" customHeight="1">
-      <c r="B180" s="11"/>
+      <c r="B180" s="11" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="182" spans="1:3" ht="24" customHeight="1">
       <c r="A182" s="9" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="24" customHeight="1">
@@ -3264,26 +3482,28 @@
         <v>38</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="24" customHeight="1">
       <c r="B184" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="178" customHeight="1">
-      <c r="B185" s="11"/>
+      <c r="B185" s="11" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="187" spans="1:3" ht="24" customHeight="1">
       <c r="A187" s="9" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="24" customHeight="1">
@@ -3291,15 +3511,15 @@
         <v>38</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="24" customHeight="1">
       <c r="B189" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="178" customHeight="1">
@@ -3307,23 +3527,23 @@
     </row>
     <row r="193" spans="1:3" ht="24" customHeight="1">
       <c r="A193" s="12" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="24" customHeight="1">
       <c r="B194" s="13" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="24" customHeight="1">
       <c r="A196" s="9" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="24" customHeight="1">
@@ -3331,26 +3551,28 @@
         <v>38</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="24" customHeight="1">
       <c r="B198" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="178" customHeight="1">
-      <c r="B199" s="11"/>
+      <c r="B199" s="11" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="201" spans="1:3" ht="24" customHeight="1">
       <c r="A201" s="9" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="24" customHeight="1">
@@ -3358,26 +3580,28 @@
         <v>38</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="24" customHeight="1">
       <c r="B203" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="178" customHeight="1">
-      <c r="B204" s="11"/>
+      <c r="B204" s="11" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="206" spans="1:3" ht="24" customHeight="1">
       <c r="A206" s="9" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="24" customHeight="1">
@@ -3385,26 +3609,28 @@
         <v>38</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="24" customHeight="1">
       <c r="B208" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="178" customHeight="1">
-      <c r="B209" s="11"/>
+      <c r="B209" s="11" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="211" spans="1:3" ht="24" customHeight="1">
       <c r="A211" s="9" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="24" customHeight="1">
@@ -3412,15 +3638,15 @@
         <v>38</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="24" customHeight="1">
       <c r="B213" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="178" customHeight="1">
@@ -3428,23 +3654,23 @@
     </row>
     <row r="217" spans="1:3" ht="24" customHeight="1">
       <c r="A217" s="12" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="B217" s="12" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="24" customHeight="1">
       <c r="B218" s="13" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="24" customHeight="1">
       <c r="A220" s="9" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="24" customHeight="1">
@@ -3452,26 +3678,28 @@
         <v>38</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="24" customHeight="1">
       <c r="B222" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="178" customHeight="1">
-      <c r="B223" s="11"/>
+      <c r="B223" s="11" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="225" spans="1:3" ht="24" customHeight="1">
       <c r="A225" s="9" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="24" customHeight="1">
@@ -3479,26 +3707,28 @@
         <v>38</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C226" s="10" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="24" customHeight="1">
       <c r="B227" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="178" customHeight="1">
-      <c r="B228" s="11"/>
+      <c r="B228" s="11" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="230" spans="1:3" ht="24" customHeight="1">
       <c r="A230" s="9" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="24" customHeight="1">
@@ -3506,26 +3736,28 @@
         <v>38</v>
       </c>
       <c r="B231" s="10" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="24" customHeight="1">
       <c r="B232" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="178" customHeight="1">
-      <c r="B233" s="11"/>
+      <c r="B233" s="11" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="235" spans="1:3" ht="24" customHeight="1">
       <c r="A235" s="9" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="24" customHeight="1">
@@ -3533,26 +3765,28 @@
         <v>38</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C236" s="10" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="24" customHeight="1">
       <c r="B237" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="178" customHeight="1">
-      <c r="B238" s="11"/>
+      <c r="B238" s="11" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="240" spans="1:3" ht="24" customHeight="1">
       <c r="A240" s="9" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="24" customHeight="1">
@@ -3560,15 +3794,15 @@
         <v>38</v>
       </c>
       <c r="B241" s="10" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="C241" s="10" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="24" customHeight="1">
       <c r="B242" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="178" customHeight="1">
@@ -3576,23 +3810,23 @@
     </row>
     <row r="246" spans="1:3" ht="24" customHeight="1">
       <c r="A246" s="12" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="B246" s="12" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="24" customHeight="1">
       <c r="B247" s="13" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="24" customHeight="1">
       <c r="A249" s="9" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="24" customHeight="1">
@@ -3600,26 +3834,28 @@
         <v>38</v>
       </c>
       <c r="B250" s="10" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="24" customHeight="1">
       <c r="B251" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="178" customHeight="1">
-      <c r="B252" s="11"/>
+      <c r="B252" s="11" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="254" spans="1:3" ht="24" customHeight="1">
       <c r="A254" s="9" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="B254" s="9" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="24" customHeight="1">
@@ -3627,26 +3863,28 @@
         <v>38</v>
       </c>
       <c r="B255" s="10" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="24" customHeight="1">
       <c r="B256" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="178" customHeight="1">
-      <c r="B257" s="11"/>
+      <c r="B257" s="11" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="259" spans="1:3" ht="24" customHeight="1">
       <c r="A259" s="9" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="B259" s="9" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="24" customHeight="1">
@@ -3654,15 +3892,15 @@
         <v>38</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="24" customHeight="1">
       <c r="B261" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="178" customHeight="1">
@@ -3670,23 +3908,23 @@
     </row>
     <row r="265" spans="1:3" ht="24" customHeight="1">
       <c r="A265" s="12" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="B265" s="12" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="24" customHeight="1">
       <c r="B266" s="13" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="24" customHeight="1">
       <c r="A268" s="9" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="B268" s="9" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="24" customHeight="1">
@@ -3694,26 +3932,28 @@
         <v>38</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="C269" s="10" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="24" customHeight="1">
       <c r="B270" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="178" customHeight="1">
-      <c r="B271" s="11"/>
+      <c r="B271" s="11" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="273" spans="1:3" ht="24" customHeight="1">
       <c r="A273" s="9" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="B273" s="9" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="24" customHeight="1">
@@ -3721,26 +3961,28 @@
         <v>38</v>
       </c>
       <c r="B274" s="10" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="C274" s="10" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="24" customHeight="1">
       <c r="B275" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="178" customHeight="1">
-      <c r="B276" s="11"/>
+      <c r="B276" s="11" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="278" spans="1:3" ht="24" customHeight="1">
       <c r="A278" s="9" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="24" customHeight="1">
@@ -3748,39 +3990,41 @@
         <v>38</v>
       </c>
       <c r="B279" s="10" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="C279" s="10" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="24" customHeight="1">
       <c r="B280" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="178" customHeight="1">
-      <c r="B281" s="11"/>
+      <c r="B281" s="11" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="284" spans="1:3" ht="24" customHeight="1">
       <c r="A284" s="12" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="B284" s="12" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="24" customHeight="1">
       <c r="B285" s="13" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="24" customHeight="1">
       <c r="A287" s="9" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="B287" s="9" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="24" customHeight="1">
@@ -3788,26 +4032,28 @@
         <v>38</v>
       </c>
       <c r="B288" s="10" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="C288" s="10" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="24" customHeight="1">
       <c r="B289" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="178" customHeight="1">
-      <c r="B290" s="11"/>
+      <c r="B290" s="11" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="292" spans="1:3" ht="24" customHeight="1">
       <c r="A292" s="9" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="B292" s="9" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="24" customHeight="1">
@@ -3815,26 +4061,28 @@
         <v>38</v>
       </c>
       <c r="B293" s="10" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="C293" s="10" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="24" customHeight="1">
       <c r="B294" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="178" customHeight="1">
-      <c r="B295" s="11"/>
+      <c r="B295" s="11" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="297" spans="1:3" ht="24" customHeight="1">
       <c r="A297" s="9" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="B297" s="9" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="24" customHeight="1">
@@ -3842,39 +4090,41 @@
         <v>38</v>
       </c>
       <c r="B298" s="10" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="C298" s="10" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="24" customHeight="1">
       <c r="B299" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="178" customHeight="1">
-      <c r="B300" s="11"/>
+      <c r="B300" s="11" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="303" spans="1:3" ht="24" customHeight="1">
       <c r="A303" s="12" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="B303" s="12" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="24" customHeight="1">
       <c r="B304" s="13" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="24" customHeight="1">
       <c r="A306" s="9" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="B306" s="9" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="24" customHeight="1">
@@ -3882,26 +4132,28 @@
         <v>38</v>
       </c>
       <c r="B307" s="10" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="C307" s="10" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="24" customHeight="1">
       <c r="B308" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="178" customHeight="1">
-      <c r="B309" s="11"/>
+      <c r="B309" s="11" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="311" spans="1:3" ht="24" customHeight="1">
       <c r="A311" s="9" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="B311" s="9" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="24" customHeight="1">
@@ -3909,26 +4161,28 @@
         <v>38</v>
       </c>
       <c r="B312" s="10" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="C312" s="10" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="24" customHeight="1">
       <c r="B313" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="178" customHeight="1">
-      <c r="B314" s="11"/>
+      <c r="B314" s="11" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="316" spans="1:3" ht="24" customHeight="1">
       <c r="A316" s="9" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="B316" s="9" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="24" customHeight="1">
@@ -3936,15 +4190,15 @@
         <v>38</v>
       </c>
       <c r="B317" s="10" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="C317" s="10" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="24" customHeight="1">
       <c r="B318" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="178" customHeight="1">
@@ -3952,23 +4206,23 @@
     </row>
     <row r="322" spans="1:3" ht="24" customHeight="1">
       <c r="A322" s="12" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="B322" s="12" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="24" customHeight="1">
       <c r="B323" s="13" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="24" customHeight="1">
       <c r="A325" s="9" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="B325" s="9" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="24" customHeight="1">
@@ -3976,26 +4230,28 @@
         <v>38</v>
       </c>
       <c r="B326" s="10" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="C326" s="10" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="24" customHeight="1">
       <c r="B327" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="178" customHeight="1">
-      <c r="B328" s="11"/>
+      <c r="B328" s="11" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="330" spans="1:3" ht="24" customHeight="1">
       <c r="A330" s="9" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="B330" s="9" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="24" customHeight="1">
@@ -4003,26 +4259,28 @@
         <v>38</v>
       </c>
       <c r="B331" s="10" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="C331" s="10" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="24" customHeight="1">
       <c r="B332" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="178" customHeight="1">
-      <c r="B333" s="11"/>
+      <c r="B333" s="11" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="335" spans="1:3" ht="24" customHeight="1">
       <c r="A335" s="9" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="B335" s="9" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="24" customHeight="1">
@@ -4030,15 +4288,15 @@
         <v>38</v>
       </c>
       <c r="B336" s="10" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="C336" s="10" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="24" customHeight="1">
       <c r="B337" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="178" customHeight="1">
@@ -4046,23 +4304,23 @@
     </row>
     <row r="341" spans="1:3" ht="24" customHeight="1">
       <c r="A341" s="12" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="B341" s="12" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="24" customHeight="1">
       <c r="B342" s="13" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="24" customHeight="1">
       <c r="A344" s="9" t="s">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>317</v>
+        <v>339</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="24" customHeight="1">
@@ -4070,26 +4328,28 @@
         <v>38</v>
       </c>
       <c r="B345" s="10" t="s">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="C345" s="10" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="24" customHeight="1">
       <c r="B346" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="178" customHeight="1">
-      <c r="B347" s="11"/>
+      <c r="B347" s="11" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="349" spans="1:3" ht="24" customHeight="1">
       <c r="A349" s="9" t="s">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="B349" s="9" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="24" customHeight="1">
@@ -4097,26 +4357,28 @@
         <v>38</v>
       </c>
       <c r="B350" s="10" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="C350" s="10" t="s">
-        <v>322</v>
+        <v>345</v>
       </c>
     </row>
     <row r="351" spans="1:3" ht="24" customHeight="1">
       <c r="B351" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="352" spans="1:3" ht="178" customHeight="1">
-      <c r="B352" s="11"/>
+      <c r="B352" s="11" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="354" spans="1:3" ht="24" customHeight="1">
       <c r="A354" s="9" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="B354" s="9" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="355" spans="1:3" ht="24" customHeight="1">
@@ -4124,39 +4386,41 @@
         <v>38</v>
       </c>
       <c r="B355" s="10" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="C355" s="10" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
     </row>
     <row r="356" spans="1:3" ht="24" customHeight="1">
       <c r="B356" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="178" customHeight="1">
-      <c r="B357" s="11"/>
+      <c r="B357" s="11" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="360" spans="1:3" ht="24" customHeight="1">
       <c r="A360" s="12" t="s">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="B360" s="12" t="s">
-        <v>327</v>
+        <v>352</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="24" customHeight="1">
       <c r="B361" s="13" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="24" customHeight="1">
       <c r="A363" s="9" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="B363" s="9" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="24" customHeight="1">
@@ -4164,26 +4428,28 @@
         <v>38</v>
       </c>
       <c r="B364" s="10" t="s">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="C364" s="10" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="24" customHeight="1">
       <c r="B365" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="178" customHeight="1">
-      <c r="B366" s="11"/>
+      <c r="B366" s="11" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="368" spans="1:3" ht="24" customHeight="1">
       <c r="A368" s="9" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="B368" s="9" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="24" customHeight="1">
@@ -4191,26 +4457,28 @@
         <v>38</v>
       </c>
       <c r="B369" s="10" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="C369" s="10" t="s">
-        <v>334</v>
+        <v>360</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="24" customHeight="1">
       <c r="B370" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="178" customHeight="1">
-      <c r="B371" s="11"/>
+      <c r="B371" s="11" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="373" spans="1:3" ht="24" customHeight="1">
       <c r="A373" s="9" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="B373" s="9" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="24" customHeight="1">
@@ -4218,78 +4486,77 @@
         <v>38</v>
       </c>
       <c r="B374" s="10" t="s">
-        <v>336</v>
+        <v>362</v>
       </c>
       <c r="C374" s="10" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
     </row>
     <row r="375" spans="1:3" ht="24" customHeight="1">
       <c r="B375" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="178" customHeight="1">
-      <c r="B376" s="11"/>
+      <c r="B376" s="11" t="s">
+        <v>350</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
+  <dataValidations disablePrompts="1" count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24 B135" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>AA24:AD24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>AA54:AB54</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>AA62:AC62</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B105">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B105" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>AA105:AH105</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B131">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B135">
-      <formula1>AA135:AD135</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B139">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B131 B139" xr:uid="{00000000-0002-0000-0200-000004000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD299"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AG299"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B273" workbookViewId="0">
+      <selection activeCell="B165" sqref="B165"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.7265625" customWidth="1"/>
+    <col min="2" max="2" width="150.7265625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1796875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>338</v>
+        <v>364</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>37</v>
@@ -4300,10 +4567,10 @@
         <v>38</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -4311,10 +4578,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -4322,15 +4589,15 @@
         <v>38</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>345</v>
+        <v>371</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -4338,34 +4605,34 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>347</v>
+        <v>373</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>348</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>349</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19" spans="1:33" ht="24" customHeight="1">
@@ -4374,35 +4641,37 @@
       </c>
     </row>
     <row r="20" spans="1:33" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
+      <c r="B20" s="15" t="s">
+        <v>380</v>
+      </c>
       <c r="AA20" s="6" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="AE20" s="6" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="AF20" s="6" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="AG20" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:33" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:33" ht="24" customHeight="1">
@@ -4410,50 +4679,52 @@
         <v>38</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
     </row>
     <row r="24" spans="1:33" ht="24" customHeight="1">
       <c r="B24" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:33" ht="178" customHeight="1">
-      <c r="B25" s="11"/>
+      <c r="B25" s="11" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="28" spans="1:33" ht="24" customHeight="1">
       <c r="A28" s="12" t="s">
-        <v>363</v>
+        <v>390</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>364</v>
+        <v>391</v>
       </c>
     </row>
     <row r="29" spans="1:33" ht="24" customHeight="1">
       <c r="B29" s="13" t="s">
-        <v>365</v>
+        <v>392</v>
       </c>
     </row>
     <row r="31" spans="1:33" ht="24" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
     </row>
     <row r="32" spans="1:33" ht="24" customHeight="1">
       <c r="A32" s="14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>367</v>
+        <v>394</v>
       </c>
     </row>
     <row r="33" spans="1:33" ht="24" customHeight="1">
@@ -4462,35 +4733,37 @@
       </c>
     </row>
     <row r="34" spans="1:33" ht="24" customHeight="1">
-      <c r="B34" s="11"/>
+      <c r="B34" s="11" t="s">
+        <v>380</v>
+      </c>
       <c r="AA34" s="6" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="AB34" s="6" t="s">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="AC34" s="6" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="AD34" s="6" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="AE34" s="6" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="AF34" s="6" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="AG34" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:33" ht="24" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>368</v>
+        <v>395</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:33" ht="24" customHeight="1">
@@ -4498,50 +4771,52 @@
         <v>38</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
     </row>
     <row r="38" spans="1:33" ht="24" customHeight="1">
       <c r="B38" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:33" ht="178" customHeight="1">
-      <c r="B39" s="11"/>
+      <c r="B39" s="11" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="42" spans="1:33" ht="24" customHeight="1">
       <c r="A42" s="12" t="s">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>371</v>
+        <v>398</v>
       </c>
     </row>
     <row r="43" spans="1:33" ht="24" customHeight="1">
       <c r="B43" s="13" t="s">
-        <v>372</v>
+        <v>399</v>
       </c>
     </row>
     <row r="45" spans="1:33" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>373</v>
+        <v>400</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
     </row>
     <row r="46" spans="1:33" ht="24" customHeight="1">
       <c r="A46" s="14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>374</v>
+        <v>401</v>
       </c>
     </row>
     <row r="47" spans="1:33" ht="24" customHeight="1">
@@ -4550,35 +4825,37 @@
       </c>
     </row>
     <row r="48" spans="1:33" ht="24" customHeight="1">
-      <c r="B48" s="11"/>
+      <c r="B48" s="15" t="s">
+        <v>380</v>
+      </c>
       <c r="AA48" s="6" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="AB48" s="6" t="s">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="AC48" s="6" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="AD48" s="6" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="AE48" s="6" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="AF48" s="6" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="AG48" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:33" ht="24" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>375</v>
+        <v>402</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51" spans="1:33" ht="24" customHeight="1">
@@ -4586,50 +4863,52 @@
         <v>38</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>376</v>
+        <v>403</v>
       </c>
     </row>
     <row r="52" spans="1:33" ht="24" customHeight="1">
       <c r="B52" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:33" ht="178" customHeight="1">
-      <c r="B53" s="11"/>
+      <c r="B53" s="11" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="56" spans="1:33" ht="24" customHeight="1">
       <c r="A56" s="12" t="s">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>378</v>
+        <v>405</v>
       </c>
     </row>
     <row r="57" spans="1:33" ht="24" customHeight="1">
       <c r="B57" s="13" t="s">
-        <v>379</v>
+        <v>406</v>
       </c>
     </row>
     <row r="59" spans="1:33" ht="24" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
     </row>
     <row r="60" spans="1:33" ht="24" customHeight="1">
       <c r="A60" s="14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>381</v>
+        <v>408</v>
       </c>
     </row>
     <row r="61" spans="1:33" ht="24" customHeight="1">
@@ -4638,35 +4917,37 @@
       </c>
     </row>
     <row r="62" spans="1:33" ht="24" customHeight="1">
-      <c r="B62" s="11"/>
+      <c r="B62" s="11" t="s">
+        <v>380</v>
+      </c>
       <c r="AA62" s="6" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="AB62" s="6" t="s">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="AC62" s="6" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="AD62" s="6" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="AE62" s="6" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="AF62" s="6" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="AG62" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:33" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>382</v>
+        <v>409</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="65" spans="1:33" ht="24" customHeight="1">
@@ -4674,50 +4955,52 @@
         <v>38</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>383</v>
+        <v>410</v>
       </c>
     </row>
     <row r="66" spans="1:33" ht="24" customHeight="1">
       <c r="B66" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:33" ht="178" customHeight="1">
-      <c r="B67" s="11"/>
+      <c r="B67" s="11" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="70" spans="1:33" ht="24" customHeight="1">
       <c r="A70" s="12" t="s">
-        <v>384</v>
+        <v>412</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>385</v>
+        <v>413</v>
       </c>
     </row>
     <row r="71" spans="1:33" ht="24" customHeight="1">
       <c r="B71" s="13" t="s">
-        <v>386</v>
+        <v>414</v>
       </c>
     </row>
     <row r="73" spans="1:33" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>387</v>
+        <v>415</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
     </row>
     <row r="74" spans="1:33" ht="24" customHeight="1">
       <c r="A74" s="14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>388</v>
+        <v>416</v>
       </c>
     </row>
     <row r="75" spans="1:33" ht="24" customHeight="1">
@@ -4726,35 +5009,37 @@
       </c>
     </row>
     <row r="76" spans="1:33" ht="24" customHeight="1">
-      <c r="B76" s="11"/>
+      <c r="B76" s="15" t="s">
+        <v>380</v>
+      </c>
       <c r="AA76" s="6" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="AB76" s="6" t="s">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="AC76" s="6" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="AD76" s="6" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="AE76" s="6" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="AF76" s="6" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="AG76" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:33" ht="24" customHeight="1">
       <c r="A78" s="9" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="79" spans="1:33" ht="24" customHeight="1">
@@ -4762,50 +5047,52 @@
         <v>38</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>390</v>
+        <v>418</v>
       </c>
     </row>
     <row r="80" spans="1:33" ht="24" customHeight="1">
       <c r="B80" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81" spans="1:33" ht="178" customHeight="1">
-      <c r="B81" s="11"/>
+      <c r="B81" s="11" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="84" spans="1:33" ht="24" customHeight="1">
       <c r="A84" s="12" t="s">
-        <v>391</v>
+        <v>419</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
     </row>
     <row r="85" spans="1:33" ht="24" customHeight="1">
       <c r="B85" s="13" t="s">
-        <v>393</v>
+        <v>421</v>
       </c>
     </row>
     <row r="87" spans="1:33" ht="24" customHeight="1">
       <c r="A87" s="9" t="s">
-        <v>394</v>
+        <v>422</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
     </row>
     <row r="88" spans="1:33" ht="24" customHeight="1">
       <c r="A88" s="14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>395</v>
+        <v>423</v>
       </c>
     </row>
     <row r="89" spans="1:33" ht="24" customHeight="1">
@@ -4814,72 +5101,76 @@
       </c>
     </row>
     <row r="90" spans="1:33" ht="24" customHeight="1">
-      <c r="B90" s="11"/>
+      <c r="B90" s="15" t="s">
+        <v>380</v>
+      </c>
       <c r="AA90" s="6" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="AB90" s="6" t="s">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="AC90" s="6" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="AD90" s="6" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="AE90" s="6" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="AF90" s="6" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="AG90" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="92" spans="1:33" ht="24" customHeight="1">
       <c r="A92" s="9" t="s">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>397</v>
+        <v>425</v>
       </c>
     </row>
     <row r="93" spans="1:33" ht="24" customHeight="1">
       <c r="A93" s="14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>398</v>
+        <v>426</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>399</v>
+        <v>427</v>
       </c>
     </row>
     <row r="94" spans="1:33" ht="24" customHeight="1">
-      <c r="B94" s="11"/>
+      <c r="B94" s="11" t="s">
+        <v>428</v>
+      </c>
       <c r="AA94" s="6" t="s">
-        <v>400</v>
+        <v>429</v>
       </c>
       <c r="AB94" s="6" t="s">
-        <v>401</v>
+        <v>430</v>
       </c>
       <c r="AC94" s="6" t="s">
-        <v>402</v>
+        <v>431</v>
       </c>
       <c r="AD94" s="6" t="s">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="AE94" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="96" spans="1:33" ht="24" customHeight="1">
       <c r="A96" s="9" t="s">
-        <v>404</v>
+        <v>432</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="97" spans="1:33" ht="24" customHeight="1">
@@ -4887,50 +5178,52 @@
         <v>38</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>405</v>
+        <v>433</v>
       </c>
     </row>
     <row r="98" spans="1:33" ht="24" customHeight="1">
       <c r="B98" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="99" spans="1:33" ht="178" customHeight="1">
-      <c r="B99" s="11"/>
+      <c r="B99" s="11" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="102" spans="1:33" ht="24" customHeight="1">
       <c r="A102" s="12" t="s">
-        <v>406</v>
+        <v>435</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>407</v>
+        <v>436</v>
       </c>
     </row>
     <row r="103" spans="1:33" ht="24" customHeight="1">
       <c r="B103" s="13" t="s">
-        <v>408</v>
+        <v>437</v>
       </c>
     </row>
     <row r="105" spans="1:33" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>409</v>
+        <v>438</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
     </row>
     <row r="106" spans="1:33" ht="24" customHeight="1">
       <c r="A106" s="14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>410</v>
+        <v>439</v>
       </c>
     </row>
     <row r="107" spans="1:33" ht="24" customHeight="1">
@@ -4939,35 +5232,37 @@
       </c>
     </row>
     <row r="108" spans="1:33" ht="24" customHeight="1">
-      <c r="B108" s="11"/>
+      <c r="B108" s="17" t="s">
+        <v>64</v>
+      </c>
       <c r="AA108" s="6" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="AB108" s="6" t="s">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="AC108" s="6" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="AD108" s="6" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="AE108" s="6" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="AF108" s="6" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="AG108" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="110" spans="1:33" ht="24" customHeight="1">
       <c r="A110" s="9" t="s">
-        <v>411</v>
+        <v>440</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="111" spans="1:33" ht="24" customHeight="1">
@@ -4975,50 +5270,52 @@
         <v>38</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>412</v>
+        <v>441</v>
       </c>
     </row>
     <row r="112" spans="1:33" ht="24" customHeight="1">
       <c r="B112" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="113" spans="1:33" ht="178" customHeight="1">
-      <c r="B113" s="11"/>
+      <c r="B113" s="11" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="116" spans="1:33" ht="24" customHeight="1">
       <c r="A116" s="12" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>414</v>
+        <v>444</v>
       </c>
     </row>
     <row r="117" spans="1:33" ht="24" customHeight="1">
       <c r="B117" s="13" t="s">
-        <v>415</v>
+        <v>445</v>
       </c>
     </row>
     <row r="119" spans="1:33" ht="24" customHeight="1">
       <c r="A119" s="9" t="s">
-        <v>416</v>
+        <v>446</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
     </row>
     <row r="120" spans="1:33" ht="24" customHeight="1">
       <c r="A120" s="14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>417</v>
+        <v>447</v>
       </c>
     </row>
     <row r="121" spans="1:33" ht="24" customHeight="1">
@@ -5027,35 +5324,37 @@
       </c>
     </row>
     <row r="122" spans="1:33" ht="24" customHeight="1">
-      <c r="B122" s="11"/>
+      <c r="B122" s="15" t="s">
+        <v>64</v>
+      </c>
       <c r="AA122" s="6" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="AB122" s="6" t="s">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="AC122" s="6" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="AD122" s="6" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="AE122" s="6" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="AF122" s="6" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="AG122" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="124" spans="1:33" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>418</v>
+        <v>448</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="125" spans="1:33" ht="24" customHeight="1">
@@ -5063,50 +5362,52 @@
         <v>38</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>419</v>
+        <v>449</v>
       </c>
     </row>
     <row r="126" spans="1:33" ht="24" customHeight="1">
       <c r="B126" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="127" spans="1:33" ht="178" customHeight="1">
-      <c r="B127" s="11"/>
+      <c r="B127" s="18" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="130" spans="1:33" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>421</v>
+        <v>451</v>
       </c>
     </row>
     <row r="131" spans="1:33" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>422</v>
+        <v>452</v>
       </c>
     </row>
     <row r="133" spans="1:33" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>423</v>
+        <v>453</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
     </row>
     <row r="134" spans="1:33" ht="24" customHeight="1">
       <c r="A134" s="14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>424</v>
+        <v>454</v>
       </c>
     </row>
     <row r="135" spans="1:33" ht="24" customHeight="1">
@@ -5115,35 +5416,37 @@
       </c>
     </row>
     <row r="136" spans="1:33" ht="24" customHeight="1">
-      <c r="B136" s="11"/>
+      <c r="B136" s="11" t="s">
+        <v>64</v>
+      </c>
       <c r="AA136" s="6" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="AB136" s="6" t="s">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="AC136" s="6" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="AD136" s="6" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="AE136" s="6" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="AF136" s="6" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="AG136" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="138" spans="1:33" ht="24" customHeight="1">
       <c r="A138" s="9" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="139" spans="1:33" ht="24" customHeight="1">
@@ -5151,50 +5454,52 @@
         <v>38</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>426</v>
+        <v>456</v>
       </c>
     </row>
     <row r="140" spans="1:33" ht="24" customHeight="1">
       <c r="B140" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="141" spans="1:33" ht="178" customHeight="1">
-      <c r="B141" s="11"/>
+      <c r="B141" s="11" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="144" spans="1:33" ht="24" customHeight="1">
       <c r="A144" s="12" t="s">
-        <v>427</v>
+        <v>457</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>428</v>
+        <v>458</v>
       </c>
     </row>
     <row r="145" spans="1:33" ht="24" customHeight="1">
       <c r="B145" s="13" t="s">
-        <v>429</v>
+        <v>459</v>
       </c>
     </row>
     <row r="147" spans="1:33" ht="24" customHeight="1">
       <c r="A147" s="9" t="s">
-        <v>430</v>
+        <v>460</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
     </row>
     <row r="148" spans="1:33" ht="24" customHeight="1">
       <c r="A148" s="14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>431</v>
+        <v>461</v>
       </c>
     </row>
     <row r="149" spans="1:33" ht="24" customHeight="1">
@@ -5203,35 +5508,37 @@
       </c>
     </row>
     <row r="150" spans="1:33" ht="24" customHeight="1">
-      <c r="B150" s="11"/>
+      <c r="B150" s="15" t="s">
+        <v>64</v>
+      </c>
       <c r="AA150" s="6" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="AB150" s="6" t="s">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="AC150" s="6" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="AD150" s="6" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="AE150" s="6" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="AF150" s="6" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="AG150" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="152" spans="1:33" ht="24" customHeight="1">
       <c r="A152" s="9" t="s">
-        <v>432</v>
+        <v>462</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="153" spans="1:33" ht="24" customHeight="1">
@@ -5239,50 +5546,52 @@
         <v>38</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>433</v>
+        <v>463</v>
       </c>
     </row>
     <row r="154" spans="1:33" ht="24" customHeight="1">
       <c r="B154" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="155" spans="1:33" ht="178" customHeight="1">
-      <c r="B155" s="11"/>
+      <c r="B155" s="18" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="158" spans="1:33" ht="24" customHeight="1">
       <c r="A158" s="12" t="s">
-        <v>434</v>
+        <v>464</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>435</v>
+        <v>465</v>
       </c>
     </row>
     <row r="159" spans="1:33" ht="24" customHeight="1">
       <c r="B159" s="13" t="s">
-        <v>436</v>
+        <v>466</v>
       </c>
     </row>
     <row r="161" spans="1:33" ht="24" customHeight="1">
       <c r="A161" s="9" t="s">
-        <v>437</v>
+        <v>467</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
     </row>
     <row r="162" spans="1:33" ht="24" customHeight="1">
       <c r="A162" s="14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>438</v>
+        <v>468</v>
       </c>
     </row>
     <row r="163" spans="1:33" ht="24" customHeight="1">
@@ -5291,46 +5600,48 @@
       </c>
     </row>
     <row r="164" spans="1:33" ht="24" customHeight="1">
-      <c r="B164" s="11"/>
+      <c r="B164" s="15" t="s">
+        <v>381</v>
+      </c>
       <c r="AA164" s="6" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="AB164" s="6" t="s">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="AC164" s="6" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="AD164" s="6" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="AE164" s="6" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="AF164" s="6" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="AG164" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="166" spans="1:33" ht="24" customHeight="1">
       <c r="A166" s="9" t="s">
-        <v>439</v>
+        <v>469</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>440</v>
+        <v>470</v>
       </c>
     </row>
     <row r="167" spans="1:33" ht="24" customHeight="1">
       <c r="A167" s="14" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>441</v>
+        <v>471</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>442</v>
+        <v>472</v>
       </c>
     </row>
     <row r="168" spans="1:33" ht="24" customHeight="1">
@@ -5338,10 +5649,10 @@
     </row>
     <row r="170" spans="1:33" ht="24" customHeight="1">
       <c r="A170" s="9" t="s">
-        <v>443</v>
+        <v>473</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="171" spans="1:33" ht="24" customHeight="1">
@@ -5349,15 +5660,15 @@
         <v>38</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>444</v>
+        <v>474</v>
       </c>
     </row>
     <row r="172" spans="1:33" ht="24" customHeight="1">
       <c r="B172" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="173" spans="1:33" ht="178" customHeight="1">
@@ -5365,34 +5676,34 @@
     </row>
     <row r="176" spans="1:33" ht="24" customHeight="1">
       <c r="A176" s="12" t="s">
-        <v>445</v>
+        <v>475</v>
       </c>
       <c r="B176" s="12" t="s">
-        <v>446</v>
+        <v>476</v>
       </c>
     </row>
     <row r="177" spans="1:33" ht="24" customHeight="1">
       <c r="B177" s="13" t="s">
-        <v>447</v>
+        <v>477</v>
       </c>
     </row>
     <row r="179" spans="1:33" ht="24" customHeight="1">
       <c r="A179" s="9" t="s">
-        <v>448</v>
+        <v>478</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
     </row>
     <row r="180" spans="1:33" ht="24" customHeight="1">
       <c r="A180" s="14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>449</v>
+        <v>479</v>
       </c>
     </row>
     <row r="181" spans="1:33" ht="24" customHeight="1">
@@ -5401,46 +5712,48 @@
       </c>
     </row>
     <row r="182" spans="1:33" ht="24" customHeight="1">
-      <c r="B182" s="11"/>
+      <c r="B182" s="15" t="s">
+        <v>381</v>
+      </c>
       <c r="AA182" s="6" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="AB182" s="6" t="s">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="AC182" s="6" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="AD182" s="6" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="AE182" s="6" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="AF182" s="6" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="AG182" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="184" spans="1:33" ht="24" customHeight="1">
       <c r="A184" s="9" t="s">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>440</v>
+        <v>470</v>
       </c>
     </row>
     <row r="185" spans="1:33" ht="24" customHeight="1">
       <c r="A185" s="14" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>441</v>
+        <v>471</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>451</v>
+        <v>481</v>
       </c>
     </row>
     <row r="186" spans="1:33" ht="24" customHeight="1">
@@ -5448,21 +5761,21 @@
     </row>
     <row r="188" spans="1:33" ht="24" customHeight="1">
       <c r="A188" s="9" t="s">
-        <v>452</v>
+        <v>482</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>453</v>
+        <v>483</v>
       </c>
     </row>
     <row r="189" spans="1:33" ht="24" customHeight="1">
       <c r="A189" s="14" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>454</v>
+        <v>484</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>455</v>
+        <v>485</v>
       </c>
     </row>
     <row r="190" spans="1:33" ht="24" customHeight="1">
@@ -5470,10 +5783,10 @@
     </row>
     <row r="192" spans="1:33" ht="24" customHeight="1">
       <c r="A192" s="9" t="s">
-        <v>456</v>
+        <v>486</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="193" spans="1:33" ht="24" customHeight="1">
@@ -5481,15 +5794,15 @@
         <v>38</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>457</v>
+        <v>487</v>
       </c>
     </row>
     <row r="194" spans="1:33" ht="24" customHeight="1">
       <c r="B194" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="195" spans="1:33" ht="178" customHeight="1">
@@ -5497,34 +5810,34 @@
     </row>
     <row r="198" spans="1:33" ht="24" customHeight="1">
       <c r="A198" s="12" t="s">
-        <v>458</v>
+        <v>488</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>459</v>
+        <v>489</v>
       </c>
     </row>
     <row r="199" spans="1:33" ht="24" customHeight="1">
       <c r="B199" s="13" t="s">
-        <v>460</v>
+        <v>490</v>
       </c>
     </row>
     <row r="201" spans="1:33" ht="24" customHeight="1">
       <c r="A201" s="9" t="s">
-        <v>461</v>
+        <v>491</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
     </row>
     <row r="202" spans="1:33" ht="24" customHeight="1">
       <c r="A202" s="14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>462</v>
+        <v>492</v>
       </c>
     </row>
     <row r="203" spans="1:33" ht="24" customHeight="1">
@@ -5533,35 +5846,37 @@
       </c>
     </row>
     <row r="204" spans="1:33" ht="24" customHeight="1">
-      <c r="B204" s="11"/>
+      <c r="B204" s="15" t="s">
+        <v>64</v>
+      </c>
       <c r="AA204" s="6" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="AB204" s="6" t="s">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="AC204" s="6" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="AD204" s="6" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="AE204" s="6" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="AF204" s="6" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="AG204" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="206" spans="1:33" ht="24" customHeight="1">
       <c r="A206" s="9" t="s">
-        <v>463</v>
+        <v>493</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="207" spans="1:33" ht="24" customHeight="1">
@@ -5569,50 +5884,52 @@
         <v>38</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>464</v>
+        <v>494</v>
       </c>
     </row>
     <row r="208" spans="1:33" ht="24" customHeight="1">
       <c r="B208" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="209" spans="1:33" ht="178" customHeight="1">
-      <c r="B209" s="11"/>
+      <c r="B209" s="18" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="212" spans="1:33" ht="24" customHeight="1">
       <c r="A212" s="12" t="s">
-        <v>465</v>
+        <v>495</v>
       </c>
       <c r="B212" s="12" t="s">
-        <v>466</v>
+        <v>496</v>
       </c>
     </row>
     <row r="213" spans="1:33" ht="24" customHeight="1">
       <c r="B213" s="13" t="s">
-        <v>467</v>
+        <v>497</v>
       </c>
     </row>
     <row r="215" spans="1:33" ht="24" customHeight="1">
       <c r="A215" s="9" t="s">
-        <v>468</v>
+        <v>498</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
     </row>
     <row r="216" spans="1:33" ht="24" customHeight="1">
       <c r="A216" s="14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>469</v>
+        <v>499</v>
       </c>
     </row>
     <row r="217" spans="1:33" ht="24" customHeight="1">
@@ -5621,115 +5938,121 @@
       </c>
     </row>
     <row r="218" spans="1:33" ht="24" customHeight="1">
-      <c r="B218" s="11"/>
+      <c r="B218" s="15" t="s">
+        <v>64</v>
+      </c>
       <c r="AA218" s="6" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="AB218" s="6" t="s">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="AC218" s="6" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="AD218" s="6" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="AE218" s="6" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="AF218" s="6" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="AG218" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="220" spans="1:33" ht="24" customHeight="1">
       <c r="A220" s="9" t="s">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>471</v>
+        <v>501</v>
       </c>
     </row>
     <row r="221" spans="1:33" ht="24" customHeight="1">
       <c r="A221" s="14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>472</v>
+        <v>502</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>473</v>
+        <v>503</v>
       </c>
     </row>
     <row r="222" spans="1:33" ht="24" customHeight="1">
-      <c r="B222" s="11"/>
+      <c r="B222" s="15" t="s">
+        <v>64</v>
+      </c>
       <c r="AA222" s="6" t="s">
-        <v>474</v>
+        <v>504</v>
       </c>
       <c r="AB222" s="6" t="s">
-        <v>475</v>
+        <v>505</v>
       </c>
       <c r="AC222" s="6" t="s">
-        <v>476</v>
+        <v>506</v>
       </c>
       <c r="AD222" s="6" t="s">
-        <v>477</v>
+        <v>507</v>
       </c>
       <c r="AE222" s="6" t="s">
-        <v>478</v>
+        <v>508</v>
       </c>
       <c r="AF222" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="224" spans="1:33" ht="24" customHeight="1">
       <c r="A224" s="9" t="s">
-        <v>479</v>
+        <v>509</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>480</v>
+        <v>510</v>
       </c>
     </row>
     <row r="225" spans="1:33" ht="24" customHeight="1">
       <c r="A225" s="14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>481</v>
+        <v>511</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>482</v>
+        <v>512</v>
       </c>
     </row>
     <row r="226" spans="1:33" ht="24" customHeight="1">
-      <c r="B226" s="11"/>
+      <c r="B226" s="15" t="s">
+        <v>64</v>
+      </c>
       <c r="AA226" s="6" t="s">
-        <v>474</v>
+        <v>504</v>
       </c>
       <c r="AB226" s="6" t="s">
-        <v>475</v>
+        <v>505</v>
       </c>
       <c r="AC226" s="6" t="s">
-        <v>476</v>
+        <v>506</v>
       </c>
       <c r="AD226" s="6" t="s">
-        <v>477</v>
+        <v>507</v>
       </c>
       <c r="AE226" s="6" t="s">
-        <v>478</v>
+        <v>508</v>
       </c>
       <c r="AF226" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="228" spans="1:33" ht="24" customHeight="1">
       <c r="A228" s="9" t="s">
-        <v>483</v>
+        <v>513</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="229" spans="1:33" ht="24" customHeight="1">
@@ -5737,50 +6060,57 @@
         <v>38</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="C229" s="10" t="s">
-        <v>484</v>
+        <v>514</v>
       </c>
     </row>
     <row r="230" spans="1:33" ht="24" customHeight="1">
       <c r="B230" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="231" spans="1:33" ht="178" customHeight="1">
-      <c r="B231" s="11"/>
+      <c r="B231" s="16" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="232" spans="1:33">
+      <c r="B232" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="234" spans="1:33" ht="24" customHeight="1">
       <c r="A234" s="12" t="s">
-        <v>485</v>
+        <v>517</v>
       </c>
       <c r="B234" s="12" t="s">
-        <v>486</v>
+        <v>518</v>
       </c>
     </row>
     <row r="235" spans="1:33" ht="24" customHeight="1">
       <c r="B235" s="13" t="s">
-        <v>487</v>
+        <v>519</v>
       </c>
     </row>
     <row r="237" spans="1:33" ht="24" customHeight="1">
       <c r="A237" s="9" t="s">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
     </row>
     <row r="238" spans="1:33" ht="24" customHeight="1">
       <c r="A238" s="14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="C238" s="10" t="s">
-        <v>489</v>
+        <v>521</v>
       </c>
     </row>
     <row r="239" spans="1:33" ht="24" customHeight="1">
@@ -5789,115 +6119,119 @@
       </c>
     </row>
     <row r="240" spans="1:33" ht="24" customHeight="1">
-      <c r="B240" s="11"/>
+      <c r="B240" s="15"/>
       <c r="AA240" s="6" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="AB240" s="6" t="s">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="AC240" s="6" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="AD240" s="6" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="AE240" s="6" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="AF240" s="6" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="AG240" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="242" spans="1:32" ht="24" customHeight="1">
       <c r="A242" s="9" t="s">
-        <v>490</v>
+        <v>522</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>471</v>
+        <v>501</v>
       </c>
     </row>
     <row r="243" spans="1:32" ht="24" customHeight="1">
       <c r="A243" s="14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B243" s="10" t="s">
-        <v>472</v>
+        <v>502</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>491</v>
+        <v>523</v>
       </c>
     </row>
     <row r="244" spans="1:32" ht="24" customHeight="1">
-      <c r="B244" s="11"/>
+      <c r="B244" s="15" t="s">
+        <v>64</v>
+      </c>
       <c r="AA244" s="6" t="s">
-        <v>474</v>
+        <v>504</v>
       </c>
       <c r="AB244" s="6" t="s">
-        <v>475</v>
+        <v>505</v>
       </c>
       <c r="AC244" s="6" t="s">
-        <v>476</v>
+        <v>506</v>
       </c>
       <c r="AD244" s="6" t="s">
-        <v>477</v>
+        <v>507</v>
       </c>
       <c r="AE244" s="6" t="s">
-        <v>478</v>
+        <v>508</v>
       </c>
       <c r="AF244" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="246" spans="1:32" ht="24" customHeight="1">
       <c r="A246" s="9" t="s">
-        <v>492</v>
+        <v>524</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>480</v>
+        <v>510</v>
       </c>
     </row>
     <row r="247" spans="1:32" ht="24" customHeight="1">
       <c r="A247" s="14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>481</v>
+        <v>511</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>493</v>
+        <v>525</v>
       </c>
     </row>
     <row r="248" spans="1:32" ht="24" customHeight="1">
-      <c r="B248" s="11"/>
+      <c r="B248" s="15" t="s">
+        <v>64</v>
+      </c>
       <c r="AA248" s="6" t="s">
-        <v>474</v>
+        <v>504</v>
       </c>
       <c r="AB248" s="6" t="s">
-        <v>475</v>
+        <v>505</v>
       </c>
       <c r="AC248" s="6" t="s">
-        <v>476</v>
+        <v>506</v>
       </c>
       <c r="AD248" s="6" t="s">
-        <v>477</v>
+        <v>507</v>
       </c>
       <c r="AE248" s="6" t="s">
-        <v>478</v>
+        <v>508</v>
       </c>
       <c r="AF248" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="250" spans="1:32" ht="24" customHeight="1">
       <c r="A250" s="9" t="s">
-        <v>494</v>
+        <v>526</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="251" spans="1:32" ht="24" customHeight="1">
@@ -5905,50 +6239,52 @@
         <v>38</v>
       </c>
       <c r="B251" s="10" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>495</v>
+        <v>527</v>
       </c>
     </row>
     <row r="252" spans="1:32" ht="24" customHeight="1">
       <c r="B252" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="253" spans="1:32" ht="178" customHeight="1">
-      <c r="B253" s="11"/>
+      <c r="B253" s="11" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="256" spans="1:32" ht="24" customHeight="1">
       <c r="A256" s="12" t="s">
-        <v>496</v>
+        <v>528</v>
       </c>
       <c r="B256" s="12" t="s">
-        <v>497</v>
+        <v>529</v>
       </c>
     </row>
     <row r="257" spans="1:33" ht="24" customHeight="1">
       <c r="B257" s="13" t="s">
-        <v>498</v>
+        <v>530</v>
       </c>
     </row>
     <row r="259" spans="1:33" ht="24" customHeight="1">
       <c r="A259" s="9" t="s">
-        <v>499</v>
+        <v>531</v>
       </c>
       <c r="B259" s="9" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
     </row>
     <row r="260" spans="1:33" ht="24" customHeight="1">
       <c r="A260" s="14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>500</v>
+        <v>532</v>
       </c>
     </row>
     <row r="261" spans="1:33" ht="24" customHeight="1">
@@ -5957,35 +6293,37 @@
       </c>
     </row>
     <row r="262" spans="1:33" ht="24" customHeight="1">
-      <c r="B262" s="11"/>
+      <c r="B262" s="15" t="s">
+        <v>64</v>
+      </c>
       <c r="AA262" s="6" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="AB262" s="6" t="s">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="AC262" s="6" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="AD262" s="6" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="AE262" s="6" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="AF262" s="6" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="AG262" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="264" spans="1:33" ht="24" customHeight="1">
       <c r="A264" s="9" t="s">
-        <v>501</v>
+        <v>533</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="265" spans="1:33" ht="24" customHeight="1">
@@ -5993,50 +6331,52 @@
         <v>38</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>502</v>
+        <v>534</v>
       </c>
     </row>
     <row r="266" spans="1:33" ht="24" customHeight="1">
       <c r="B266" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="267" spans="1:33" ht="178" customHeight="1">
-      <c r="B267" s="11"/>
+      <c r="B267" s="11" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="270" spans="1:33" ht="24" customHeight="1">
       <c r="A270" s="12" t="s">
-        <v>503</v>
+        <v>535</v>
       </c>
       <c r="B270" s="12" t="s">
-        <v>504</v>
+        <v>536</v>
       </c>
     </row>
     <row r="271" spans="1:33" ht="24" customHeight="1">
       <c r="B271" s="13" t="s">
-        <v>505</v>
+        <v>537</v>
       </c>
     </row>
     <row r="273" spans="1:33" ht="24" customHeight="1">
       <c r="A273" s="9" t="s">
-        <v>506</v>
+        <v>538</v>
       </c>
       <c r="B273" s="9" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
     </row>
     <row r="274" spans="1:33" ht="24" customHeight="1">
       <c r="A274" s="14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B274" s="10" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="C274" s="10" t="s">
-        <v>507</v>
+        <v>539</v>
       </c>
     </row>
     <row r="275" spans="1:33" ht="24" customHeight="1">
@@ -6045,57 +6385,61 @@
       </c>
     </row>
     <row r="276" spans="1:33" ht="24" customHeight="1">
-      <c r="B276" s="11"/>
+      <c r="B276" s="17" t="s">
+        <v>381</v>
+      </c>
       <c r="AA276" s="6" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="AB276" s="6" t="s">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="AC276" s="6" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="AD276" s="6" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="AE276" s="6" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="AF276" s="6" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="AG276" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="278" spans="1:33" ht="24" customHeight="1">
       <c r="A278" s="9" t="s">
-        <v>508</v>
+        <v>540</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>509</v>
+        <v>541</v>
       </c>
     </row>
     <row r="279" spans="1:33" ht="24" customHeight="1">
       <c r="A279" s="14" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B279" s="10" t="s">
-        <v>510</v>
+        <v>542</v>
       </c>
       <c r="C279" s="10" t="s">
-        <v>511</v>
+        <v>543</v>
       </c>
     </row>
     <row r="280" spans="1:33" ht="24" customHeight="1">
-      <c r="B280" s="11"/>
+      <c r="B280" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="282" spans="1:33" ht="24" customHeight="1">
       <c r="A282" s="9" t="s">
-        <v>512</v>
+        <v>544</v>
       </c>
       <c r="B282" s="9" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="283" spans="1:33" ht="24" customHeight="1">
@@ -6103,50 +6447,52 @@
         <v>38</v>
       </c>
       <c r="B283" s="10" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="C283" s="10" t="s">
-        <v>513</v>
+        <v>545</v>
       </c>
     </row>
     <row r="284" spans="1:33" ht="24" customHeight="1">
       <c r="B284" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="285" spans="1:33" ht="178" customHeight="1">
-      <c r="B285" s="11"/>
+      <c r="B285" s="11" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="288" spans="1:33" ht="24" customHeight="1">
       <c r="A288" s="12" t="s">
-        <v>514</v>
+        <v>546</v>
       </c>
       <c r="B288" s="12" t="s">
-        <v>515</v>
+        <v>547</v>
       </c>
     </row>
     <row r="289" spans="1:32" ht="24" customHeight="1">
       <c r="B289" s="13" t="s">
-        <v>516</v>
+        <v>548</v>
       </c>
     </row>
     <row r="291" spans="1:32" ht="24" customHeight="1">
       <c r="A291" s="9" t="s">
-        <v>517</v>
+        <v>549</v>
       </c>
       <c r="B291" s="9" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
     </row>
     <row r="292" spans="1:32" ht="24" customHeight="1">
       <c r="A292" s="14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B292" s="10" t="s">
-        <v>518</v>
+        <v>550</v>
       </c>
       <c r="C292" s="10" t="s">
-        <v>519</v>
+        <v>551</v>
       </c>
     </row>
     <row r="293" spans="1:32" ht="24" customHeight="1">
@@ -6155,32 +6501,34 @@
       </c>
     </row>
     <row r="294" spans="1:32" ht="24" customHeight="1">
-      <c r="B294" s="11"/>
+      <c r="B294" s="15" t="s">
+        <v>552</v>
+      </c>
       <c r="AA294" s="6" t="s">
-        <v>520</v>
+        <v>553</v>
       </c>
       <c r="AB294" s="6" t="s">
-        <v>521</v>
+        <v>552</v>
       </c>
       <c r="AC294" s="6" t="s">
-        <v>522</v>
+        <v>554</v>
       </c>
       <c r="AD294" s="6" t="s">
-        <v>523</v>
+        <v>555</v>
       </c>
       <c r="AE294" s="6" t="s">
-        <v>524</v>
+        <v>556</v>
       </c>
       <c r="AF294" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="296" spans="1:32" ht="24" customHeight="1">
       <c r="A296" s="9" t="s">
-        <v>525</v>
+        <v>557</v>
       </c>
       <c r="B296" s="9" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="297" spans="1:32" ht="24" customHeight="1">
@@ -6188,104 +6536,399 @@
         <v>38</v>
       </c>
       <c r="B297" s="10" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="C297" s="10" t="s">
-        <v>526</v>
+        <v>558</v>
       </c>
     </row>
     <row r="298" spans="1:32" ht="24" customHeight="1">
       <c r="B298" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="299" spans="1:32" ht="178" customHeight="1">
-      <c r="B299" s="11"/>
+      <c r="B299" s="11" t="s">
+        <v>559</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="27">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
-      <formula1>AA20:AG20</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34 B136 B62" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>AA34:AG34</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B48">
-      <formula1>AA48:AG48</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62">
-      <formula1>AA62:AG62</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76">
-      <formula1>AA76:AG76</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B90">
-      <formula1>AA90:AG90</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B94" xr:uid="{00000000-0002-0000-0300-000006000000}">
       <formula1>AA94:AE94</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B108">
-      <formula1>AA108:AG108</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B122">
-      <formula1>AA122:AG122</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B136">
-      <formula1>AA136:AG136</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B150">
-      <formula1>AA150:AG150</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B164">
-      <formula1>AA164:AG164</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B168">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B168 B280 B190 B186" xr:uid="{00000000-0002-0000-0300-00000C000000}">
       <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B182">
-      <formula1>AA182:AG182</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B186">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B190">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B204">
-      <formula1>AA204:AG204</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B218">
-      <formula1>AA218:AG218</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B222">
-      <formula1>AA222:AF222</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B226">
-      <formula1>AA226:AF226</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B240">
-      <formula1>AA240:AG240</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B244">
-      <formula1>AA244:AF244</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B248">
-      <formula1>AA248:AF248</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B262">
-      <formula1>AA262:AG262</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B276">
-      <formula1>AA276:AG276</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B280">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B294">
-      <formula1>AA294:AF294</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005BF0D4DDC815DE408FFEBFF28B4DF9EF" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74d0b5e9465d974fbb8d6747a4130f81">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5cc0f436-4a0d-428d-9f11-35fccd152cdb" xmlns:ns3="2f8ba3b5-845e-4150-9c2c-7614112f6ec9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cd9fcc5441e09a53187385d6a651350c" ns1:_="" ns2:_="" ns3:_="">
+    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
+    <xsd:import namespace="5cc0f436-4a0d-428d-9f11-35fccd152cdb"/>
+    <xsd:import namespace="2f8ba3b5-845e-4150-9c2c-7614112f6ec9"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:rhms" minOccurs="0"/>
+                <xsd:element ref="ns2:ccnn" minOccurs="0"/>
+                <xsd:element ref="ns2:dv3a" minOccurs="0"/>
+                <xsd:element ref="ns2:redm" minOccurs="0"/>
+                <xsd:element ref="ns2:Project_x0020_status" minOccurs="0"/>
+                <xsd:element ref="ns2:ProjectContact" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="16" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="17" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5cc0f436-4a0d-428d-9f11-35fccd152cdb" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="15" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="20" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="21" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="rhms" ma:index="22" nillable="true" ma:displayName="Hist/ RCP" ma:internalName="rhms">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="ccnn" ma:index="23" nillable="true" ma:displayName="Hist/ RCP" ma:internalName="ccnn">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="dv3a" ma:index="24" nillable="true" ma:displayName="Time period" ma:internalName="dv3a">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="redm" ma:index="25" nillable="true" ma:displayName="Variable" ma:internalName="redm">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Project_x0020_status" ma:index="26" nillable="true" ma:displayName="Project status" ma:default="Live" ma:format="Dropdown" ma:indexed="true" ma:internalName="Project_x0020_status">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="Live"/>
+          <xsd:enumeration value="Archive"/>
+          <xsd:enumeration value="Proposal"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="ProjectContact" ma:index="27" nillable="true" ma:displayName="Project Contact" ma:format="Dropdown" ma:list="UserInfo" ma:SharePointGroup="0" ma:internalName="ProjectContact">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="2f8ba3b5-845e-4150-9c2c-7614112f6ec9" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="13" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="14" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Project_x0020_status xmlns="5cc0f436-4a0d-428d-9f11-35fccd152cdb">Live</Project_x0020_status>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ProjectContact xmlns="5cc0f436-4a0d-428d-9f11-35fccd152cdb">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </ProjectContact>
+    <ccnn xmlns="5cc0f436-4a0d-428d-9f11-35fccd152cdb" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <rhms xmlns="5cc0f436-4a0d-428d-9f11-35fccd152cdb" xsi:nil="true"/>
+    <dv3a xmlns="5cc0f436-4a0d-428d-9f11-35fccd152cdb" xsi:nil="true"/>
+    <redm xmlns="5cc0f436-4a0d-428d-9f11-35fccd152cdb" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B0FFF26-0F29-4813-B462-B5B0DED1B76D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA1F97BF-292E-4088-AB9E-753F59DB8D8E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="5cc0f436-4a0d-428d-9f11-35fccd152cdb"/>
+    <ds:schemaRef ds:uri="2f8ba3b5-845e-4150-9c2c-7614112f6ec9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD26D56C-BF76-4752-A5C1-E4A157340847}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="2f8ba3b5-845e-4150-9c2c-7614112f6ec9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5cc0f436-4a0d-428d-9f11-35fccd152cdb"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/cordexp/models/mohc-hadrem3-ga7-05/cordexp_eur_11_mohc_hadrem3_ga7_05_toplevel.xlsx
+++ b/cordexp/models/mohc-hadrem3-ga7-05/cordexp_eur_11_mohc_hadrem3_ga7_05_toplevel.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erasmo.buonomo\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D52D3DC-8986-498D-8422-FA3143CB4439}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="0" windowWidth="17090" windowHeight="9910" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -18,31 +12,20 @@
     <sheet name="1. Key Properties" sheetId="3" r:id="rId3"/>
     <sheet name="2. Radiative Forcings" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="560">
-  <si>
-    <t>ES-DOC CORDEXP Model Documentation</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="527">
+  <si>
+    <t>ES-DOC CORDEX Model Documentation</t>
   </si>
   <si>
     <t>MIP Era</t>
   </si>
   <si>
-    <t>CORDEXP</t>
+    <t>CORDEX</t>
   </si>
   <si>
     <t>Institute</t>
@@ -54,7 +37,7 @@
     <t>Model</t>
   </si>
   <si>
-    <t>MOHC-HadREM3-GA7-05</t>
+    <t>MOHC-HADREM3-GA7-05</t>
   </si>
   <si>
     <t>Realm / Topic</t>
@@ -156,10 +139,7 @@
     <t>Name of coupled model</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.name</t>
-  </si>
-  <si>
-    <t>HadREM3-GA7-05</t>
+    <t>cordex.toplevel.key_properties.name</t>
   </si>
   <si>
     <t>1.1.1.2 *</t>
@@ -171,15 +151,12 @@
     <t>Keywords associated with coupled model</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.keywords</t>
+    <t>cordex.toplevel.key_properties.keywords</t>
   </si>
   <si>
     <t>NOTE: Please enter a comma seperated list</t>
   </si>
   <si>
-    <t>HadREM3-GA7-05;GA7 UM;Hadley Centre;Met Office UK</t>
-  </si>
-  <si>
     <t>1.1.1.3 *</t>
   </si>
   <si>
@@ -189,15 +166,12 @@
     <t>Top level overview of coupled model</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.overview</t>
+    <t>cordex.toplevel.key_properties.overview</t>
   </si>
   <si>
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
-    <t>HadREM3-GA7-05 is the regional climate model based on the Met Office Unified Model Global Atmosphere 7.0 and Jules Global Land configuration7.0  (Walters et al, 2019), also used for the HadGEM3-GC3 model on which the MetOffice contribution to CMIP6 is based, and for the Climate Projections for the UK, 2018 (UKCP18), based on perturbed physic models. The model is based on the non-hydrostatic dynamical scheme  ENDGAME (Wood et al, 2014), in a configuration which uses a maximum of 63 hybrid-height terrain following levels with a top of the atmophere level at ~40km. The regional model uses prescribed aerosol optical properties and cloud condensation nuclei concentration. Anthropogenic forcings come from the MACv2-SP data for the historical period (Stevens et al, 2017) and for the RCP scenarios (Fiedler et al, 2019).</t>
-  </si>
-  <si>
     <t>1.2.1</t>
   </si>
   <si>
@@ -216,7 +190,7 @@
     <t>ENUM</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.model_type.model_family</t>
+    <t>cordex.toplevel.key_properties.model_type.model_family</t>
   </si>
   <si>
     <t>Regional Atmospheric Climate Model</t>
@@ -240,7 +214,7 @@
     <t>Provide additional details on type of the Regional Climate Model</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.model_type.details</t>
+    <t>cordex.toplevel.key_properties.model_type.details</t>
   </si>
   <si>
     <t>1.3.1</t>
@@ -261,7 +235,7 @@
     <t>Year the model was released</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.genealogy.year_released</t>
+    <t>cordex.toplevel.key_properties.genealogy.year_released</t>
   </si>
   <si>
     <t xml:space="preserve">1.3.1.2 </t>
@@ -270,10 +244,10 @@
     <t>Previous Name</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.genealogy.previous_name</t>
-  </si>
-  <si>
-    <t>HadGEM3-RA</t>
+    <t>Previously known as</t>
+  </si>
+  <si>
+    <t>cordex.toplevel.key_properties.genealogy.previous_name</t>
   </si>
   <si>
     <t xml:space="preserve">1.3.1.3 </t>
@@ -285,10 +259,7 @@
     <t>Briefly summarize the differences between this model and its previous version, if applicable</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.genealogy.difference_to_previous</t>
-  </si>
-  <si>
-    <t>HadGEM3-RA was based on the MetOffice Unified Model Global Atmospere and Jules Global Land version 3 (Walters et al,2011), changes include a new dynamical core and major updates in parametrised schemes.</t>
+    <t>cordex.toplevel.key_properties.genealogy.difference_to_previous</t>
   </si>
   <si>
     <t>1.4.1</t>
@@ -306,7 +277,7 @@
     <t>Domain</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.cordex_domain.domain</t>
+    <t>cordex.toplevel.key_properties.cordex_domain.domain</t>
   </si>
   <si>
     <t>EUR-11</t>
@@ -330,7 +301,7 @@
     <t>What calender is uded by the model</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.model_calendar.calendar</t>
+    <t>cordex.toplevel.key_properties.model_calendar.calendar</t>
   </si>
   <si>
     <t>GCM-based</t>
@@ -354,10 +325,7 @@
     <t>Describe details if any spin-up is used</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.spinup.details</t>
-  </si>
-  <si>
-    <t>One year spin up for all runs (1981 for the evaluation run, 1950 for the historical runs)</t>
+    <t>cordex.toplevel.key_properties.spinup.details</t>
   </si>
   <si>
     <t>1.7.1</t>
@@ -375,7 +343,7 @@
     <t>Describe details if spectral nudging is used (variables, levels, etc.)</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.nudging.details</t>
+    <t>cordex.toplevel.key_properties.nudging.details</t>
   </si>
   <si>
     <t>1.8.1</t>
@@ -396,7 +364,7 @@
     <t>Location of code for this component.</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.software_properties.repository</t>
+    <t>cordex.toplevel.key_properties.software_properties.repository</t>
   </si>
   <si>
     <t xml:space="preserve">1.8.1.2 </t>
@@ -408,10 +376,7 @@
     <t>Code version identifier.</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.software_properties.code_version</t>
-  </si>
-  <si>
-    <t>UM10.9</t>
+    <t>cordex.toplevel.key_properties.software_properties.code_version</t>
   </si>
   <si>
     <t xml:space="preserve">1.8.1.3 </t>
@@ -423,10 +388,7 @@
     <t>Code language(s).</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.software_properties.code_languages</t>
-  </si>
-  <si>
-    <t>Fortran90,C</t>
+    <t>cordex.toplevel.key_properties.software_properties.code_languages</t>
   </si>
   <si>
     <t xml:space="preserve">1.8.1.4 </t>
@@ -438,7 +400,7 @@
     <t>Describe how model realms are structured into independent software components (coupled via a coupler) and internal software components.</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.software_properties.components_structure</t>
+    <t>cordex.toplevel.key_properties.software_properties.components_structure</t>
   </si>
   <si>
     <t xml:space="preserve">1.8.1.5 </t>
@@ -450,7 +412,7 @@
     <t>Overarching coupling framework for the model.</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.software_properties.coupler</t>
+    <t>cordex.toplevel.key_properties.software_properties.coupler</t>
   </si>
   <si>
     <t>OASIS: The OASIS coupler - prior to OASIS-MCT</t>
@@ -489,7 +451,7 @@
     <t>Describe if/how flux corrections are applied in the model</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.flux_correction.details</t>
+    <t>cordex.toplevel.key_properties.flux_correction.details</t>
   </si>
   <si>
     <t>1.10.1</t>
@@ -507,10 +469,7 @@
     <t>Provide the latest reference describing the model</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.reference.details</t>
-  </si>
-  <si>
-    <t>Walters D., Baran A., Boutle I., Brooks M., Earnshaw P., Edwards J., Furtado K., Hill P., Lock A., Manners J., Morcrette C., Mulcahy J., Sanchez C., Smith C., Stratton R., Tennant W., Tomassini L., Van Weverberg K., Vosper S., Willett M., Browse J., Bushell A., Dalvi M., Essery R., Gedney N., Hardiman S., Johnson B., Johnson C., Jones A., Mann G., Milton S., Rumbold H., Sellar A., Ujiie M., Whitall M., Williams K., and Zerroukat M. (2017) The Met Office Unified Model Global Atmosphere 7.0/7.1 and JULES Global Land 7.0 configurations, Geosci. Model Dev., 12, 1909–1963, 2019, https://doi.org/10.5194/gmd-12-1909-2019                                       Tucker S., Kendon, E.J. Bellouin, N. Buonomo, E. Johnson, B.T., and Murphy, J.M. Evaluation of a new 12km regional perturbed parameter ensemble over Europe, 2021, Clim. Dyn. (submitted)</t>
+    <t>cordex.toplevel.key_properties.reference.details</t>
   </si>
   <si>
     <t>1.11.1</t>
@@ -531,7 +490,7 @@
     <t>Is the atmosphere passing a double flux to the ocean and sea ice (as opposed to a single one)?</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.coupling.atmosphere_double_flux</t>
+    <t>cordex.toplevel.key_properties.coupling.atmosphere_double_flux</t>
   </si>
   <si>
     <t xml:space="preserve">1.11.1.2 </t>
@@ -543,7 +502,7 @@
     <t>Where are the air-sea fluxes calculated</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.coupling.atmosphere_fluxes_calculation_grid</t>
+    <t>cordex.toplevel.key_properties.coupling.atmosphere_fluxes_calculation_grid</t>
   </si>
   <si>
     <t>Atmosphere grid</t>
@@ -564,7 +523,7 @@
     <t>Are relative or absolute winds used to compute the flux? I.e. do ocean surface currents enter the wind stress calculation?</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.coupling.atmosphere_relative_winds</t>
+    <t>cordex.toplevel.key_properties.coupling.atmosphere_relative_winds</t>
   </si>
   <si>
     <t>1.12.1</t>
@@ -585,7 +544,7 @@
     <t>General overview description of tuning: explain and motivate the main targets and metrics/diagnostics retained. Document the relative weight given to climate performance metrics/diagnostics versus process oriented metrics/diagnostics, and on the possible conflicts with parameterization level tuning. In particular describe any struggle with a parameter value that required pushing it to its limits to solve a particular model deficiency.</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.tuning_applied.description</t>
+    <t>cordex.toplevel.key_properties.tuning_applied.description</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.1.2 </t>
@@ -597,7 +556,7 @@
     <t>List of regional metrics/diagnostics of mean state (e.g THC, AABW, regional means etc) used in tuning model/component</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.tuning_applied.regional_metrics_used</t>
+    <t>cordex.toplevel.key_properties.tuning_applied.regional_metrics_used</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.1.3 </t>
@@ -609,7 +568,7 @@
     <t>List observed trend metrics/diagnostics used in tuning model/component (such as 20th century)</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.tuning_applied.trend_metrics_used</t>
+    <t>cordex.toplevel.key_properties.tuning_applied.trend_metrics_used</t>
   </si>
   <si>
     <t>1.12.1.4 *</t>
@@ -621,7 +580,7 @@
     <t>Describe how energy balance was obtained in the full system: in the various components independently or at the components coupling stage?</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.tuning_applied.energy_balance</t>
+    <t>cordex.toplevel.key_properties.tuning_applied.energy_balance</t>
   </si>
   <si>
     <t>1.12.1.5 *</t>
@@ -633,7 +592,7 @@
     <t>Describe how fresh_water balance was obtained in the full system: in the various components independently or at the components coupling stage?</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.tuning_applied.fresh_water_balance</t>
+    <t>cordex.toplevel.key_properties.tuning_applied.fresh_water_balance</t>
   </si>
   <si>
     <t>1.12.2</t>
@@ -654,10 +613,7 @@
     <t>What atmospheric variables are used to drive the regional model</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.gcm_forcing.atmos_lbc_eval.atmos_lbc_eval_variables</t>
-  </si>
-  <si>
-    <t>Temperature, specific humidity, zonal and meridional winds and surface pressure (ta, hus, ua, va, ps)</t>
+    <t>cordex.toplevel.key_properties.gcm_forcing.atmos_lbc_eval.atmos_lbc_eval_variables</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.2.2 </t>
@@ -669,10 +625,7 @@
     <t>At what frequency</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.gcm_forcing.atmos_lbc_eval.atmos_lbc_eval_frequency</t>
-  </si>
-  <si>
-    <t>6hr</t>
+    <t>cordex.toplevel.key_properties.gcm_forcing.atmos_lbc_eval.atmos_lbc_eval_frequency</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.2.3 </t>
@@ -684,10 +637,7 @@
     <t>Top boundary conditions</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.gcm_forcing.atmos_lbc_eval.atmos_lbc_eval_top</t>
-  </si>
-  <si>
-    <t>40km</t>
+    <t>cordex.toplevel.key_properties.gcm_forcing.atmos_lbc_eval.atmos_lbc_eval_top</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.2.4 </t>
@@ -699,7 +649,7 @@
     <t>Additional information relating to the implementation of the Atmospheric Lateral Boundary Conditions for the evaluation experiment (e.g. citations, use of non-standard datasets, etc.).</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.gcm_forcing.atmos_lbc_eval.additional_information</t>
+    <t>cordex.toplevel.key_properties.gcm_forcing.atmos_lbc_eval.additional_information</t>
   </si>
   <si>
     <t>1.12.3</t>
@@ -717,7 +667,7 @@
     <t>Atmos Lbc Scn Variables</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.gcm_forcing.atmos_lbc_scn.atmos_lbc_scn_variables</t>
+    <t>cordex.toplevel.key_properties.gcm_forcing.atmos_lbc_scn.atmos_lbc_scn_variables</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.3.2 </t>
@@ -726,7 +676,7 @@
     <t>Atmos Lbc Scn Frequency</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.gcm_forcing.atmos_lbc_scn.atmos_lbc_scn_frequency</t>
+    <t>cordex.toplevel.key_properties.gcm_forcing.atmos_lbc_scn.atmos_lbc_scn_frequency</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.3.3 </t>
@@ -735,10 +685,7 @@
     <t>Atmos Lbc Scn Top</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.gcm_forcing.atmos_lbc_scn.atmos_lbc_scn_top</t>
-  </si>
-  <si>
-    <t>Dependent on the atmosperic thickness of the driving boundary conditions, vertical levels removed from the top to match driving model depth of the atmosphere</t>
+    <t>cordex.toplevel.key_properties.gcm_forcing.atmos_lbc_scn.atmos_lbc_scn_top</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.3.4 </t>
@@ -747,7 +694,7 @@
     <t>Additional information relating to the implementation of the Atmospheric Lateral Boundary Conditions for the historical and scenario experiments (e.g. citations, use of non-standard datasets, etc.).</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.gcm_forcing.atmos_lbc_scn.additional_information</t>
+    <t>cordex.toplevel.key_properties.gcm_forcing.atmos_lbc_scn.additional_information</t>
   </si>
   <si>
     <t>1.12.4</t>
@@ -768,10 +715,7 @@
     <t>What sea surface temperature is used to drive the regional model (driving reanalysis or observations)</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.gcm_forcing.ocean_lbc_eval.sst_lbc_eval_variable</t>
-  </si>
-  <si>
-    <t>Reynolds SST (Reynolds, R. W., T. M. Smith, C. Liu, D. B. Chelton, K. S. Casey, and M. G. Schlax, 2007:  Daily high-resolution blended analyses for sea surface temperature. J. Climate, 20, 5473-5496. )</t>
+    <t>cordex.toplevel.key_properties.gcm_forcing.ocean_lbc_eval.sst_lbc_eval_variable</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.4.2 </t>
@@ -780,10 +724,7 @@
     <t>Sst Lbc Eval Frequency</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.gcm_forcing.ocean_lbc_eval.sst_lbc_eval_frequency</t>
-  </si>
-  <si>
-    <t>daily</t>
+    <t>cordex.toplevel.key_properties.gcm_forcing.ocean_lbc_eval.sst_lbc_eval_frequency</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.4.3 </t>
@@ -795,10 +736,7 @@
     <t>What sea-ice concentration is used to drive the regional model (driving reanalysis or observations)</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.gcm_forcing.ocean_lbc_eval.sic_lbc_eval_variable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reynolds sea ice fraction </t>
+    <t>cordex.toplevel.key_properties.gcm_forcing.ocean_lbc_eval.sic_lbc_eval_variable</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.4.4 </t>
@@ -807,7 +745,7 @@
     <t>Sic Lbc Eval Frequency</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.gcm_forcing.ocean_lbc_eval.sic_lbc_eval_frequency</t>
+    <t>cordex.toplevel.key_properties.gcm_forcing.ocean_lbc_eval.sic_lbc_eval_frequency</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.4.5 </t>
@@ -816,7 +754,7 @@
     <t>Additional information relating to the implementation of the Lower Boundary Conditions for the evaluation experiment (e.g. citations, use of non-standard datasets, etc.)</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.gcm_forcing.ocean_lbc_eval.additional_information</t>
+    <t>cordex.toplevel.key_properties.gcm_forcing.ocean_lbc_eval.additional_information</t>
   </si>
   <si>
     <t>1.12.5</t>
@@ -837,7 +775,7 @@
     <t>At what frequency is sea surface temperature taken</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.gcm_forcing.ocean_lbc_scn.sst_lbc_scn_frequency</t>
+    <t>cordex.toplevel.key_properties.gcm_forcing.ocean_lbc_scn.sst_lbc_scn_frequency</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.5.2 </t>
@@ -849,7 +787,7 @@
     <t>At what frequency is sea-ice concentration taken</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.gcm_forcing.ocean_lbc_scn.sic_lbc_scn_frequency</t>
+    <t>cordex.toplevel.key_properties.gcm_forcing.ocean_lbc_scn.sic_lbc_scn_frequency</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.5.3 </t>
@@ -858,7 +796,7 @@
     <t>Additional information relating to the implementation of the Lower Lateral Boundary Conditions for the historical and scenario experiments (e.g. citations, use of non-standard datasets, etc.).</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.gcm_forcing.ocean_lbc_scn.additional_information</t>
+    <t>cordex.toplevel.key_properties.gcm_forcing.ocean_lbc_scn.additional_information</t>
   </si>
   <si>
     <t>1.12.6</t>
@@ -879,10 +817,7 @@
     <t>What aerosol datasets and parameters are used to drive the regional model (driving reanalysis or observations)</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.gcm_forcing.aerosol_eval.aerosol_eval_dataset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prescribed aerosol optical properties (absorption, extinction and asymmetry) for the 6 shortwave and 9 longwave wavebands of the SOCRATES radiative transfer code (Edwards and Slingo, 1996, Manners et al., 2015) and cloud droplet number concentrations (CDNC) are combined from three source of data. Anthropogenic forcings come from the  MACv2-SP dataset (Stevens et al, 2017), a pre-industrial background is from an AMIP pre-industrial of a GA7 configuration of the MetUM with prognostic aerosol and the VolMIP stratospheric aerosol forcing dataset (Zanchettin et al, 2016). References: Edwards, J. M., &amp; Slingo, A. (1996). Studies with a flexible new radiation code. I: Choosing a configuration for a large-scale model. Quarterly Journal of the Royal Meteorological Society, 122(531), 689–719. https://doi.org/10.1002/qj.49712253107. Manners, J. and Edwards, J. M. and Hill, P. and Thelen, J.-C., 2015: SOCRATES (Suite Of Community RAdiative Transfer codes based on Edwards and Slingo) Technical Guide. Met Office, UK. Available at: https://code.metoffice.gov.uk/trac/socrates. Stevens, B., Fiedler, S., Kinne, S., Peters, K., Rast, S., Müsse, J., Smith, S. J., &amp; Mauritsen, T. (2017). MACv2-SP: a parameterization of anthropogenic aerosol optical properties and an associated Twomey effect for use in CMIP6. Geoscientific Model Development, 10(1), 433–452. https://doi.org/10.5194/gmd-10-433-2017. Fiedler, S., Stevens, B., Gidden, M., Smith, S. J., Riahi, K., and van Vuuren, D.: First forcing estimates from the future CMIP6 scenarios of anthropogenic aerosol optical properties and an associated Twomey effect, Geosci. Model Dev., 12, 989–1007, https://doi.org/10.5194/gmd-12-989-2019, 2019.  Zanchettin, D., Khodri, M., Timmreck, C., Toohey, M., Schmidt, A., Gerber, E. P., Hegerl, G., Robock, A., Pausata, F. S. R., Ball, W. T., Bauer, S. E., Bekki, S., Dhomse, S. S., LeGrande, A. N., Mann, G. W., Marshall, L., Mills, M., Marchand, M., Niemeier, U., Poulain, V., Rozanov, E., Rubino, A., Stenke, A., Tsigaridis, K., and Tummon, F.: The Model Intercomparison Project on the climatic response to Volcanic forcing (VolMIP): experimental design and forcing input data for CMIP6, Geosci. Model Dev., 9, 2701–2719, https://doi.org/10.5194/gmd-9-2701-2016, 2016. </t>
+    <t>cordex.toplevel.key_properties.gcm_forcing.aerosol_eval.aerosol_eval_dataset</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.6.2 </t>
@@ -894,10 +829,7 @@
     <t>At what frequency (climatology, transient, etc.)</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.gcm_forcing.aerosol_eval.aerosol_eval_frequency</t>
-  </si>
-  <si>
-    <t>monthly</t>
+    <t>cordex.toplevel.key_properties.gcm_forcing.aerosol_eval.aerosol_eval_frequency</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.6.3 </t>
@@ -906,10 +838,7 @@
     <t>Additional information relating to the implementation of aerosol for the evaluation experiment</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.gcm_forcing.aerosol_eval.additional_information</t>
-  </si>
-  <si>
-    <t>The input datasets are used via the EasyAerosol scheme. For the calculation of radiative fluxes and the representation of aerosol-radiation interactions (direct and semi-direct effects), EasyAerosol prescribes distributions of aerosol extinction, absorption and asymmetry. Those distributions are given for the shortwave and longwave spectra independently. EasyAerosol also prescribes distributions of cloud droplet number concentrations.</t>
+    <t>cordex.toplevel.key_properties.gcm_forcing.aerosol_eval.additional_information</t>
   </si>
   <si>
     <t>1.12.7</t>
@@ -930,10 +859,7 @@
     <t>What aerosol datasets and parameters are used to drive the regional model</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.gcm_forcing.aerosol_scn.aerosol_scn_dataset</t>
-  </si>
-  <si>
-    <t>Prescribed aerosol optical properties (absorption, extinction and asymmetry) for the 6 shortwave and 9 longwave wavebands of the SOCRATES radiative transfer code (Edwards and Slingo, 1996, Manners et al., 2015) and cloud droplet number concentrations (CDNC) are combined from three source of data. Anthropogenic forcings come from the  MACv2-SP dataset (Stevens et al, 2017), a pre-industrial background is from an AMIP pre-industrial of a GA7 configuration of the MetUM with prognostic aerosol and the VolMIP stratospheric aerosol forcing dataset (Zanchettin et al, 2016) (Full citation included above)</t>
+    <t>cordex.toplevel.key_properties.gcm_forcing.aerosol_scn.aerosol_scn_dataset</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.7.2 </t>
@@ -942,10 +868,7 @@
     <t>Aerosol Scn Frequency</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.gcm_forcing.aerosol_scn.aerosol_scn_frequency</t>
-  </si>
-  <si>
-    <t>Monthly</t>
+    <t>cordex.toplevel.key_properties.gcm_forcing.aerosol_scn.aerosol_scn_frequency</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.7.3 </t>
@@ -954,7 +877,7 @@
     <t>Additional information relating to the implementation of aerosol for the historical and scenario experiment</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.gcm_forcing.aerosol_scn.additional_information</t>
+    <t>cordex.toplevel.key_properties.gcm_forcing.aerosol_scn.additional_information</t>
   </si>
   <si>
     <t>1.12.8</t>
@@ -975,10 +898,7 @@
     <t>What ozone dataset is used to drive the regional model (driving reanalysis or observations)</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.gcm_forcing.ozone_eval.ozone_eval_dataset</t>
-  </si>
-  <si>
-    <t>AC&amp;C/SPARC, Cionni, I., Eyring, V., Lamarque, J. F., Randel, W. J., Stevenson, D. S., Wu, F., Bodeker, G. E., Shepherd, T. G., Shindell, D. T., &amp; Waugh, D. W. (2011). Ozone database in support of CMIP5 simulations: results and corresponding radiative forcing. Atmospheric Chemistry and Physics Discussions, 11(4), 10875–10933. https://doi.org/10.5194/acpd-11-10875-2011</t>
+    <t>cordex.toplevel.key_properties.gcm_forcing.ozone_eval.ozone_eval_dataset</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.8.2 </t>
@@ -987,7 +907,7 @@
     <t>Ozone Eval Frequency</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.gcm_forcing.ozone_eval.ozone_eval_frequency</t>
+    <t>cordex.toplevel.key_properties.gcm_forcing.ozone_eval.ozone_eval_frequency</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.8.3 </t>
@@ -996,7 +916,7 @@
     <t>Additional information relating to the implementation of ozone for the evaluation experiment</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.gcm_forcing.ozone_eval.additional_information</t>
+    <t>cordex.toplevel.key_properties.gcm_forcing.ozone_eval.additional_information</t>
   </si>
   <si>
     <t>1.12.9</t>
@@ -1017,10 +937,7 @@
     <t>What ozone dataset is used to drive the regional model</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.gcm_forcing.ozone_scn.ozone_scn_dataset</t>
-  </si>
-  <si>
-    <t>AC&amp;C/SPARC (Cionni et al, 2011)</t>
+    <t>cordex.toplevel.key_properties.gcm_forcing.ozone_scn.ozone_scn_dataset</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.9.2 </t>
@@ -1029,7 +946,7 @@
     <t>Ozone Scn Frequency</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.gcm_forcing.ozone_scn.ozone_scn_frequency</t>
+    <t>cordex.toplevel.key_properties.gcm_forcing.ozone_scn.ozone_scn_frequency</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.9.3 </t>
@@ -1038,7 +955,7 @@
     <t>Additional information relating to the implementation of ozone for the historical and scenario experiments</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.gcm_forcing.ozone_scn.additional_information</t>
+    <t>cordex.toplevel.key_properties.gcm_forcing.ozone_scn.additional_information</t>
   </si>
   <si>
     <t>1.12.10</t>
@@ -1059,10 +976,7 @@
     <t>What land cover dataset is used in the regional model</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.gcm_forcing.land_cover_eval.land_cover_eval_dataset</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> International Geosphere–Biosphere Programme dataset (IGBP; Loveland et al., 2000)  mapped to the nine land types used in JULES, plus land use changes from Hurtt, G.C., et al., 2011. References: Loveland, T. R., Reed, B. C., Ohlen, D. O., Brown, J. F., Zhu, Z., Yang, L., &amp; Merchant, J. W. (2000). Development of a global land cover characteristics database and IGBP DISCover from 1 km AVHRR data. International Journal of Remote Sensing, 21(6–7), 1303–1330. https://doi.org/10.1080/014311600210191, Hurtt, G. C., Chini, L. P., Frolking, S., Betts, R. A., Feddema, J., Fischer, G., Fisk, J. P., Hibbard, K., Houghton, R. A., Janetos, A., Jones, C. D., Kindermann, G., Kinoshita, T., Klein Goldewijk, K., Riahi, K., Shevliakova, E., Smith, S., Stehfest, E., Thomson, A., … Wang, Y. P. (2011). Harmonization of land-use scenarios for the period 1500-2100: 600 years of global gridded annual land-use transitions, wood harvest, and resulting secondary lands. Climatic Change, 109(1), 117–161. https://doi.org/10.1007/s10584-011-0153-2</t>
+    <t>cordex.toplevel.key_properties.gcm_forcing.land_cover_eval.land_cover_eval_dataset</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.10.2 </t>
@@ -1071,10 +985,7 @@
     <t>Land Cover Eval Frequency</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.gcm_forcing.land_cover_eval.land_cover_eval_frequency</t>
-  </si>
-  <si>
-    <t>Annual</t>
+    <t>cordex.toplevel.key_properties.gcm_forcing.land_cover_eval.land_cover_eval_frequency</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.10.3 </t>
@@ -1083,10 +994,7 @@
     <t>Additional information relating to the implementation of land cover for the evaluation experiment</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.gcm_forcing.land_cover_eval.additional_information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The land use changes from Hurtt et al. (2011) are used to  represent changes in anthropogenic land use by changes in grasses (c3 and c4 grasses) at the expense/addition of clearing/planting a corresponding fraction of the combination of trees (needleleaf and broadleaf) and shrubs. The fractions of bare soil, inland water, urban and ice remain unchanged. </t>
+    <t>cordex.toplevel.key_properties.gcm_forcing.land_cover_eval.additional_information</t>
   </si>
   <si>
     <t>1.12.11</t>
@@ -1104,10 +1012,7 @@
     <t>Land Cover Scn Dataset</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.gcm_forcing.land_cover_scn.land_cover_scn_dataset</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> International Geosphere–Biosphere Programme dataset (IGBP; Loveland et al., 2000)  mapped to the nine land types used in JULES, plus land use changes from Hurtt, G.C., et al., 2011</t>
+    <t>cordex.toplevel.key_properties.gcm_forcing.land_cover_scn.land_cover_scn_dataset</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.11.2 </t>
@@ -1116,7 +1021,7 @@
     <t>Land Cover Scn Frequency</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.gcm_forcing.land_cover_scn.land_cover_scn_frequency</t>
+    <t>cordex.toplevel.key_properties.gcm_forcing.land_cover_scn.land_cover_scn_frequency</t>
   </si>
   <si>
     <t xml:space="preserve">1.12.11.3 </t>
@@ -1125,7 +1030,7 @@
     <t>Additional information relating to the implementation of land cover for tthe historical and scenario experiments</t>
   </si>
   <si>
-    <t>cordexp.toplevel.key_properties.gcm_forcing.land_cover_scn.additional_information</t>
+    <t>cordex.toplevel.key_properties.gcm_forcing.land_cover_scn.additional_information</t>
   </si>
   <si>
     <t>2.1.1</t>
@@ -1143,7 +1048,7 @@
     <t>Commonly used name for the radiative forcings in toplevel model.</t>
   </si>
   <si>
-    <t>cordexp.toplevel.radiative_forcings.name</t>
+    <t>cordex.toplevel.radiative_forcings.name</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.1.2 </t>
@@ -1152,7 +1057,7 @@
     <t>Overview of radiative forcings of the model for historical and scenario (aka table 12.1 ipcc ar5) in toplevel model.</t>
   </si>
   <si>
-    <t>cordexp.toplevel.radiative_forcings.overview</t>
+    <t>cordex.toplevel.radiative_forcings.overview</t>
   </si>
   <si>
     <t>2.1.2</t>
@@ -1173,18 +1078,18 @@
     <t>How this forcing agent is provided (e.g. via concentrations, emission precursors, prognostically derived, etc.)</t>
   </si>
   <si>
-    <t>cordexp.toplevel.radiative_forcings.greenhouse_gases.CO2.provision</t>
+    <t>cordex.toplevel.radiative_forcings.greenhouse_gases.CO2.provision</t>
+  </si>
+  <si>
+    <t>N/A: Not applicable - forcing agent is not included</t>
+  </si>
+  <si>
+    <t>M: Emissions and concentrations determined by the model state rather than externally prescribed</t>
   </si>
   <si>
     <t>Y: Prescribed concentrations, distributions or time series data</t>
   </si>
   <si>
-    <t>N/A: Not applicable - forcing agent is not included</t>
-  </si>
-  <si>
-    <t>M: Emissions and concentrations determined by the model state rather than externally prescribed</t>
-  </si>
-  <si>
     <t>E: Concentrations calculated interactively driven by prescribed emissions or precursor emissions</t>
   </si>
   <si>
@@ -1200,10 +1105,7 @@
     <t>Additional information relating to the provision and implementation of this forcing agent (e.g. citations, use of non-standard datasets, explaining how multiple provisions are used, etc.).</t>
   </si>
   <si>
-    <t>cordexp.toplevel.radiative_forcings.greenhouse_gases.CO2.additional_information</t>
-  </si>
-  <si>
-    <t>Historical and RCP scenario annual concentrations as described in  Jones, C. D., Hughes, J. K., Bellouin, N., Hardiman, S. C., Jones, G. S., Knight, J., Liddicoat, S., O'Connor, F. M., Andres, R. J., Bell, C., Boo, K.-O., Bozzo, A., Butchart, N., Cadule, P., Corbin, K. D., Doutriaux-Boucher, M., Friedlingstein, P., Gornall, J., Gray, L., Halloran, P. R., Hurtt, G., Ingram, W. J., Lamarque, J.-F., Law, R. M., Meinshausen, M., Osprey, S., Palin, E. J., Parsons Chini, L., Raddatz, T., Sanderson, M. G., Sellar, A. A., Schurer, A., Valdes, P., Wood, N., Woodward, S., Yoshioka, M., and Zerroukat, M.: The HadGEM2-ES implementation of CMIP5 centennial simulations, Geosci. Model Dev., 4, 543–570, https://doi.org/10.5194/gmd-4-543-2011, 2011.</t>
+    <t>cordex.toplevel.radiative_forcings.greenhouse_gases.CO2.additional_information</t>
   </si>
   <si>
     <t>2.1.3</t>
@@ -1218,13 +1120,13 @@
     <t>2.1.3.1 *</t>
   </si>
   <si>
-    <t>cordexp.toplevel.radiative_forcings.greenhouse_gases.CH4.provision</t>
+    <t>cordex.toplevel.radiative_forcings.greenhouse_gases.CH4.provision</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.3.2 </t>
   </si>
   <si>
-    <t>cordexp.toplevel.radiative_forcings.greenhouse_gases.CH4.additional_information</t>
+    <t>cordex.toplevel.radiative_forcings.greenhouse_gases.CH4.additional_information</t>
   </si>
   <si>
     <t>2.1.4</t>
@@ -1239,13 +1141,13 @@
     <t>2.1.4.1 *</t>
   </si>
   <si>
-    <t>cordexp.toplevel.radiative_forcings.greenhouse_gases.N2O.provision</t>
+    <t>cordex.toplevel.radiative_forcings.greenhouse_gases.N2O.provision</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.4.2 </t>
   </si>
   <si>
-    <t>cordexp.toplevel.radiative_forcings.greenhouse_gases.N2O.additional_information</t>
+    <t>cordex.toplevel.radiative_forcings.greenhouse_gases.N2O.additional_information</t>
   </si>
   <si>
     <t>2.1.5</t>
@@ -1260,16 +1162,13 @@
     <t>2.1.5.1 *</t>
   </si>
   <si>
-    <t>cordexp.toplevel.radiative_forcings.greenhouse_gases.tropospheric_O3.provision</t>
+    <t>cordex.toplevel.radiative_forcings.greenhouse_gases.tropospheric_O3.provision</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.5.2 </t>
   </si>
   <si>
-    <t>cordexp.toplevel.radiative_forcings.greenhouse_gases.tropospheric_O3.additional_information</t>
-  </si>
-  <si>
-    <t>Monthly concentration from AC&amp;C/SPARC</t>
+    <t>cordex.toplevel.radiative_forcings.greenhouse_gases.tropospheric_O3.additional_information</t>
   </si>
   <si>
     <t>2.1.6</t>
@@ -1284,13 +1183,13 @@
     <t>2.1.6.1 *</t>
   </si>
   <si>
-    <t>cordexp.toplevel.radiative_forcings.greenhouse_gases.stratospheric_O3.provision</t>
+    <t>cordex.toplevel.radiative_forcings.greenhouse_gases.stratospheric_O3.provision</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.6.2 </t>
   </si>
   <si>
-    <t>cordexp.toplevel.radiative_forcings.greenhouse_gases.stratospheric_O3.additional_information</t>
+    <t>cordex.toplevel.radiative_forcings.greenhouse_gases.stratospheric_O3.additional_information</t>
   </si>
   <si>
     <t>2.1.7</t>
@@ -1305,7 +1204,7 @@
     <t>2.1.7.1 *</t>
   </si>
   <si>
-    <t>cordexp.toplevel.radiative_forcings.greenhouse_gases.CFC.provision</t>
+    <t>cordex.toplevel.radiative_forcings.greenhouse_gases.CFC.provision</t>
   </si>
   <si>
     <t>2.1.7.2 *</t>
@@ -1317,28 +1216,25 @@
     <t>Details of any equivalence concentrations used</t>
   </si>
   <si>
-    <t>cordexp.toplevel.radiative_forcings.greenhouse_gases.CFC.equivalence_concentration</t>
+    <t>cordex.toplevel.radiative_forcings.greenhouse_gases.CFC.equivalence_concentration</t>
+  </si>
+  <si>
+    <t>N/A: Not applicabale (CFCs not included or emissions and concentrations determined by the model state)</t>
+  </si>
+  <si>
+    <t>Option 1: CFCs, including CFC-12, are provided as actual concentrations</t>
+  </si>
+  <si>
+    <t>Option 2: CFC-12 is provided as actual concentrations and any other gases are provided as an equivalence concentration of CFC-11</t>
   </si>
   <si>
     <t>Option 3: Ozone depleting gases, including CFC-12, are provided as an equivalence concentration of CFC-12 and all other fluorinated gases are provided as an equivalence concentration of HFC-134a</t>
   </si>
   <si>
-    <t>N/A: Not applicabale (CFCs not included or emissions and concentrations determined by the model state)</t>
-  </si>
-  <si>
-    <t>Option 1: CFCs, including CFC-12, are provided as actual concentrations</t>
-  </si>
-  <si>
-    <t>Option 2: CFC-12 is provided as actual concentrations and any other gases are provided as an equivalence concentration of CFC-11</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.1.7.3 </t>
   </si>
   <si>
-    <t>cordexp.toplevel.radiative_forcings.greenhouse_gases.CFC.additional_information</t>
-  </si>
-  <si>
-    <t>Jones, C. D., Hughes, J. K., Bellouin, N., Hardiman, S. C., Jones, G. S., Knight, J., Liddicoat, S., O'Connor, F. M., Andres, R. J., Bell, C., Boo, K.-O., Bozzo, A., Butchart, N., Cadule, P., Corbin, K. D., Doutriaux-Boucher, M., Friedlingstein, P., Gornall, J., Gray, L., Halloran, P. R., Hurtt, G., Ingram, W. J., Lamarque, J.-F., Law, R. M., Meinshausen, M., Osprey, S., Palin, E. J., Parsons Chini, L., Raddatz, T., Sanderson, M. G., Sellar, A. A., Schurer, A., Valdes, P., Wood, N., Woodward, S., Yoshioka, M., and Zerroukat, M.: The HadGEM2-ES implementation of CMIP5 centennial simulations, Geosci. Model Dev., 4, 543–570, https://doi.org/10.5194/gmd-4-543-2011, 2011</t>
+    <t>cordex.toplevel.radiative_forcings.greenhouse_gases.CFC.additional_information</t>
   </si>
   <si>
     <t>2.1.8</t>
@@ -1353,16 +1249,13 @@
     <t>2.1.8.1 *</t>
   </si>
   <si>
-    <t>cordexp.toplevel.radiative_forcings.aerosols.SO4.provision</t>
+    <t>cordex.toplevel.radiative_forcings.aerosols.SO4.provision</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.8.2 </t>
   </si>
   <si>
-    <t>cordexp.toplevel.radiative_forcings.aerosols.SO4.additional_information</t>
-  </si>
-  <si>
-    <t>Aerosol optical properties and effect on the concentration of cloud condensation nuclei as described in Key Properties, Aerosol setting for the evaluation and for the scenario runs.</t>
+    <t>cordex.toplevel.radiative_forcings.aerosols.SO4.additional_information</t>
   </si>
   <si>
     <t>2.1.9</t>
@@ -1377,13 +1270,13 @@
     <t>2.1.9.1 *</t>
   </si>
   <si>
-    <t>cordexp.toplevel.radiative_forcings.aerosols.black_carbon.provision</t>
+    <t>cordex.toplevel.radiative_forcings.aerosols.black_carbon.provision</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.9.2 </t>
   </si>
   <si>
-    <t>cordexp.toplevel.radiative_forcings.aerosols.black_carbon.additional_information</t>
+    <t>cordex.toplevel.radiative_forcings.aerosols.black_carbon.additional_information</t>
   </si>
   <si>
     <t>2.1.10</t>
@@ -1398,13 +1291,13 @@
     <t>2.1.10.1 *</t>
   </si>
   <si>
-    <t>cordexp.toplevel.radiative_forcings.aerosols.organic_carbon.provision</t>
+    <t>cordex.toplevel.radiative_forcings.aerosols.organic_carbon.provision</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.10.2 </t>
   </si>
   <si>
-    <t>cordexp.toplevel.radiative_forcings.aerosols.organic_carbon.additional_information</t>
+    <t>cordex.toplevel.radiative_forcings.aerosols.organic_carbon.additional_information</t>
   </si>
   <si>
     <t>2.1.11</t>
@@ -1419,13 +1312,13 @@
     <t>2.1.11.1 *</t>
   </si>
   <si>
-    <t>cordexp.toplevel.radiative_forcings.aerosols.nitrate.provision</t>
+    <t>cordex.toplevel.radiative_forcings.aerosols.nitrate.provision</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.11.2 </t>
   </si>
   <si>
-    <t>cordexp.toplevel.radiative_forcings.aerosols.nitrate.additional_information</t>
+    <t>cordex.toplevel.radiative_forcings.aerosols.nitrate.additional_information</t>
   </si>
   <si>
     <t>2.1.12</t>
@@ -1440,7 +1333,7 @@
     <t>2.1.12.1 *</t>
   </si>
   <si>
-    <t>cordexp.toplevel.radiative_forcings.aerosols.cloud_albedo_effect.provision</t>
+    <t>cordex.toplevel.radiative_forcings.aerosols.cloud_albedo_effect.provision</t>
   </si>
   <si>
     <t>2.1.12.2 *</t>
@@ -1452,13 +1345,13 @@
     <t>Radiative effects of aerosols on ice clouds are represented?</t>
   </si>
   <si>
-    <t>cordexp.toplevel.radiative_forcings.aerosols.cloud_albedo_effect.aerosol_effect_on_ice_clouds</t>
+    <t>cordex.toplevel.radiative_forcings.aerosols.cloud_albedo_effect.aerosol_effect_on_ice_clouds</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.12.3 </t>
   </si>
   <si>
-    <t>cordexp.toplevel.radiative_forcings.aerosols.cloud_albedo_effect.additional_information</t>
+    <t>cordex.toplevel.radiative_forcings.aerosols.cloud_albedo_effect.additional_information</t>
   </si>
   <si>
     <t>2.1.13</t>
@@ -1473,13 +1366,13 @@
     <t>2.1.13.1 *</t>
   </si>
   <si>
-    <t>cordexp.toplevel.radiative_forcings.aerosols.cloud_lifetime_effect.provision</t>
+    <t>cordex.toplevel.radiative_forcings.aerosols.cloud_lifetime_effect.provision</t>
   </si>
   <si>
     <t>2.1.13.2 *</t>
   </si>
   <si>
-    <t>cordexp.toplevel.radiative_forcings.aerosols.cloud_lifetime_effect.aerosol_effect_on_ice_clouds</t>
+    <t>cordex.toplevel.radiative_forcings.aerosols.cloud_lifetime_effect.aerosol_effect_on_ice_clouds</t>
   </si>
   <si>
     <t>2.1.13.3 *</t>
@@ -1491,13 +1384,13 @@
     <t>Radiative forcing from aerosol cloud interactions from sulfate aerosol only?</t>
   </si>
   <si>
-    <t>cordexp.toplevel.radiative_forcings.aerosols.cloud_lifetime_effect.RFaci_from_sulfate_only</t>
+    <t>cordex.toplevel.radiative_forcings.aerosols.cloud_lifetime_effect.RFaci_from_sulfate_only</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.13.4 </t>
   </si>
   <si>
-    <t>cordexp.toplevel.radiative_forcings.aerosols.cloud_lifetime_effect.additional_information</t>
+    <t>cordex.toplevel.radiative_forcings.aerosols.cloud_lifetime_effect.additional_information</t>
   </si>
   <si>
     <t>2.1.14</t>
@@ -1512,13 +1405,13 @@
     <t>2.1.14.1 *</t>
   </si>
   <si>
-    <t>cordexp.toplevel.radiative_forcings.aerosols.dust.provision</t>
+    <t>cordex.toplevel.radiative_forcings.aerosols.dust.provision</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.14.2 </t>
   </si>
   <si>
-    <t>cordexp.toplevel.radiative_forcings.aerosols.dust.additional_information</t>
+    <t>cordex.toplevel.radiative_forcings.aerosols.dust.additional_information</t>
   </si>
   <si>
     <t>2.1.15</t>
@@ -1533,7 +1426,7 @@
     <t>2.1.15.1 *</t>
   </si>
   <si>
-    <t>cordexp.toplevel.radiative_forcings.aerosols.tropospheric_volcanic.provision</t>
+    <t>cordex.toplevel.radiative_forcings.aerosols.tropospheric_volcanic.provision</t>
   </si>
   <si>
     <t>2.1.15.2 *</t>
@@ -1545,7 +1438,7 @@
     <t>How explosive volcanic aerosol is implemented in historical simulations</t>
   </si>
   <si>
-    <t>cordexp.toplevel.radiative_forcings.aerosols.tropospheric_volcanic.historical_explosive_volcanic_aerosol_implementation</t>
+    <t>cordex.toplevel.radiative_forcings.aerosols.tropospheric_volcanic.historical_explosive_volcanic_aerosol_implementation</t>
   </si>
   <si>
     <t>Type A: Explosive volcanic aerosol returns rapidly to zero (or near-zero) background.</t>
@@ -1572,19 +1465,13 @@
     <t>How explosive volcanic aerosol is implemented in future simulations</t>
   </si>
   <si>
-    <t>cordexp.toplevel.radiative_forcings.aerosols.tropospheric_volcanic.future_explosive_volcanic_aerosol_implementation</t>
+    <t>cordex.toplevel.radiative_forcings.aerosols.tropospheric_volcanic.future_explosive_volcanic_aerosol_implementation</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.15.4 </t>
   </si>
   <si>
-    <t>cordexp.toplevel.radiative_forcings.aerosols.tropospheric_volcanic.additional_information</t>
-  </si>
-  <si>
-    <t>Aerosol optical properties and effect on the concentration of cloud condensation nuclei as described in Key Properties, Aerosol setting for the evaluation and for the scenario runs. Volcanic forcing based on VolMIP, Zanchettin et al, 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
+    <t>cordex.toplevel.radiative_forcings.aerosols.tropospheric_volcanic.additional_information</t>
   </si>
   <si>
     <t>2.1.16</t>
@@ -1599,25 +1486,25 @@
     <t>2.1.16.1 *</t>
   </si>
   <si>
-    <t>cordexp.toplevel.radiative_forcings.aerosols.stratospheric_volcanic.provision</t>
+    <t>cordex.toplevel.radiative_forcings.aerosols.stratospheric_volcanic.provision</t>
   </si>
   <si>
     <t>2.1.16.2 *</t>
   </si>
   <si>
-    <t>cordexp.toplevel.radiative_forcings.aerosols.stratospheric_volcanic.historical_explosive_volcanic_aerosol_implementation</t>
+    <t>cordex.toplevel.radiative_forcings.aerosols.stratospheric_volcanic.historical_explosive_volcanic_aerosol_implementation</t>
   </si>
   <si>
     <t>2.1.16.3 *</t>
   </si>
   <si>
-    <t>cordexp.toplevel.radiative_forcings.aerosols.stratospheric_volcanic.future_explosive_volcanic_aerosol_implementation</t>
+    <t>cordex.toplevel.radiative_forcings.aerosols.stratospheric_volcanic.future_explosive_volcanic_aerosol_implementation</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.16.4 </t>
   </si>
   <si>
-    <t>cordexp.toplevel.radiative_forcings.aerosols.stratospheric_volcanic.additional_information</t>
+    <t>cordex.toplevel.radiative_forcings.aerosols.stratospheric_volcanic.additional_information</t>
   </si>
   <si>
     <t>2.1.17</t>
@@ -1632,13 +1519,13 @@
     <t>2.1.17.1 *</t>
   </si>
   <si>
-    <t>cordexp.toplevel.radiative_forcings.aerosols.sea_salt.provision</t>
+    <t>cordex.toplevel.radiative_forcings.aerosols.sea_salt.provision</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.17.2 </t>
   </si>
   <si>
-    <t>cordexp.toplevel.radiative_forcings.aerosols.sea_salt.additional_information</t>
+    <t>cordex.toplevel.radiative_forcings.aerosols.sea_salt.additional_information</t>
   </si>
   <si>
     <t>2.1.18</t>
@@ -1653,7 +1540,7 @@
     <t>2.1.18.1 *</t>
   </si>
   <si>
-    <t>cordexp.toplevel.radiative_forcings.other.land_use.provision</t>
+    <t>cordex.toplevel.radiative_forcings.other.land_use.provision</t>
   </si>
   <si>
     <t>2.1.18.2 *</t>
@@ -1665,13 +1552,13 @@
     <t>Land use change represented via crop change only?</t>
   </si>
   <si>
-    <t>cordexp.toplevel.radiative_forcings.other.land_use.crop_change_only</t>
+    <t>cordex.toplevel.radiative_forcings.other.land_use.crop_change_only</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.18.3 </t>
   </si>
   <si>
-    <t>cordexp.toplevel.radiative_forcings.other.land_use.additional_information</t>
+    <t>cordex.toplevel.radiative_forcings.other.land_use.additional_information</t>
   </si>
   <si>
     <t>2.1.19</t>
@@ -1689,15 +1576,15 @@
     <t>How solar forcing is provided</t>
   </si>
   <si>
-    <t>cordexp.toplevel.radiative_forcings.other.solar.provision</t>
+    <t>cordex.toplevel.radiative_forcings.other.solar.provision</t>
+  </si>
+  <si>
+    <t>N/A: Not applicable - solar forcing is not included</t>
   </si>
   <si>
     <t>irradiance: Solar irradiance forcing</t>
   </si>
   <si>
-    <t>N/A: Not applicable - solar forcing is not included</t>
-  </si>
-  <si>
     <t>proton: Proton pathway to solar forcing</t>
   </si>
   <si>
@@ -1710,17 +1597,14 @@
     <t xml:space="preserve">2.1.19.2 </t>
   </si>
   <si>
-    <t>cordexp.toplevel.radiative_forcings.other.solar.additional_information</t>
-  </si>
-  <si>
-    <t>Lean,J.L.(2009) availableat:http://www.geo.fu-berlin.de/en/met/ag/strat/forschung/SOLARIS/Inputdata/CalculationsofSolarIrradiance.pdf for irradiance in the historical period to 2008, followed by a 12-year cycle to 2100 based on the 1992-2008 period.</t>
+    <t>cordex.toplevel.radiative_forcings.other.solar.additional_information</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1821,22 +1705,6 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Docs-Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Docs-Helvetica Neue"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1882,7 +1750,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1926,30 +1794,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1996,7 +1846,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2028,27 +1878,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2080,24 +1912,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2273,26 +2087,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD17"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="180.7265625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="35.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="180.7109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="32.5">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2300,7 +2112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20">
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2308,7 +2120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="20">
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2316,7 +2128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="20">
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -2324,7 +2136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="20">
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -2332,12 +2144,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="20">
+    <row r="9" spans="1:2">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="17.5">
+    <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -2345,7 +2157,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="17.5">
+    <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -2353,7 +2165,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17.5">
+    <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -2361,7 +2173,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="17.5">
+    <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -2369,13 +2181,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="20">
+    <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2" ht="20">
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -2383,27 +2195,27 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B11" r:id="rId1"/>
+    <hyperlink ref="B12" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="80.7265625" customWidth="1"/>
-    <col min="2" max="2" width="40.7265625" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="6"/>
+    <col min="1" max="1" width="80.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30">
+    <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -2414,7 +2226,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18">
+    <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
         <v>24</v>
       </c>
@@ -2438,11 +2250,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17.5">
+    <row r="9" spans="1:2">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
     </row>
-    <row r="12" spans="1:2" ht="18">
+    <row r="12" spans="1:2">
       <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
@@ -2466,41 +2278,39 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17.5">
+    <row r="17" spans="1:2">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
       <formula1>"Top Level,Key Properties,Radiative Forcings"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A13" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A6" r:id="rId1"/>
+    <hyperlink ref="A13" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AH376"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD376"/>
   <sheetViews>
-    <sheetView topLeftCell="M386" workbookViewId="0">
-      <selection activeCell="B347" sqref="B347"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" customWidth="1"/>
-    <col min="2" max="2" width="150.7265625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
@@ -2536,16 +2346,14 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11" t="s">
-        <v>41</v>
-      </c>
+      <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -2553,28 +2361,26 @@
         <v>38</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
-      <c r="B11" s="11" t="s">
-        <v>47</v>
-      </c>
+      <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -2582,77 +2388,73 @@
         <v>38</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
-      <c r="B16" s="11" t="s">
-        <v>53</v>
-      </c>
+      <c r="B16" s="11"/>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" ht="24" customHeight="1">
+      <c r="B24" s="11"/>
+      <c r="AA24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB24" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="10" t="s">
+      <c r="AC24" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:30" ht="24" customHeight="1">
-      <c r="B24" s="11" t="s">
+      <c r="AD24" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="AA24" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB24" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC24" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD24" s="6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
@@ -2660,15 +2462,15 @@
         <v>38</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
       <c r="B28" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="178" customHeight="1">
@@ -2676,23 +2478,23 @@
     </row>
     <row r="32" spans="1:30" ht="24" customHeight="1">
       <c r="A32" s="12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="B33" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
@@ -2700,45 +2502,43 @@
         <v>38</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="B37" s="11">
-        <v>2019</v>
-      </c>
+      <c r="B37" s="11"/>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="A40" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="10"/>
+      <c r="B40" s="10" t="s">
+        <v>75</v>
+      </c>
       <c r="C40" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="B41" s="11" t="s">
-        <v>79</v>
-      </c>
+      <c r="B41" s="11"/>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
@@ -2746,130 +2546,124 @@
         <v>38</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="B45" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="178" customHeight="1">
-      <c r="B46" s="11" t="s">
-        <v>84</v>
-      </c>
+      <c r="B46" s="11"/>
     </row>
     <row r="49" spans="1:29" ht="24" customHeight="1">
       <c r="A49" s="12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:29" ht="24" customHeight="1">
       <c r="B50" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:29" ht="24" customHeight="1">
       <c r="A53" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B53" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" ht="24" customHeight="1">
+      <c r="B54" s="11"/>
+      <c r="AA54" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C53" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29" ht="24" customHeight="1">
-      <c r="B54" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA54" s="6" t="s">
-        <v>91</v>
-      </c>
       <c r="AB54" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:29" ht="24" customHeight="1">
       <c r="A57" s="12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:29" ht="24" customHeight="1">
       <c r="B58" s="13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:29" ht="24" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:29" ht="24" customHeight="1">
       <c r="A61" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:29" ht="24" customHeight="1">
-      <c r="B62" s="11" t="s">
-        <v>99</v>
-      </c>
+      <c r="B62" s="11"/>
       <c r="AA62" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AB62" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AC62" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
       <c r="B66" s="13" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
@@ -2877,41 +2671,39 @@
         <v>38</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="B70" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="178" customHeight="1">
-      <c r="B71" s="11" t="s">
-        <v>107</v>
-      </c>
+      <c r="B71" s="11"/>
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="A74" s="12" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="B75" s="13" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
@@ -2919,15 +2711,15 @@
         <v>38</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="B79" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="178" customHeight="1">
@@ -2935,23 +2727,23 @@
     </row>
     <row r="83" spans="1:3" ht="24" customHeight="1">
       <c r="A83" s="12" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
       <c r="B84" s="13" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
@@ -2959,10 +2751,10 @@
         <v>38</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
@@ -2970,10 +2762,10 @@
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
       <c r="A90" s="9" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
@@ -2981,23 +2773,21 @@
         <v>38</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
-      <c r="B92" s="11" t="s">
-        <v>125</v>
-      </c>
+      <c r="B92" s="11"/>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
@@ -3005,28 +2795,26 @@
         <v>38</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
       <c r="B96" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97" spans="1:34" ht="24" customHeight="1">
-      <c r="B97" s="11" t="s">
-        <v>130</v>
-      </c>
+      <c r="B97" s="11"/>
     </row>
     <row r="99" spans="1:34" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="100" spans="1:34" ht="24" customHeight="1">
@@ -3034,10 +2822,10 @@
         <v>38</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="101" spans="1:34" ht="24" customHeight="1">
@@ -3045,69 +2833,69 @@
     </row>
     <row r="103" spans="1:34" ht="24" customHeight="1">
       <c r="A103" s="9" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="104" spans="1:34" ht="24" customHeight="1">
       <c r="A104" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="105" spans="1:34" ht="24" customHeight="1">
       <c r="B105" s="11"/>
       <c r="AA105" s="6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="AB105" s="6" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="AC105" s="6" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="AD105" s="6" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="AE105" s="6" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="AF105" s="6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="AG105" s="6" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="AH105" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="108" spans="1:34" ht="24" customHeight="1">
       <c r="A108" s="12" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="109" spans="1:34" ht="24" customHeight="1">
       <c r="B109" s="13" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="111" spans="1:34" ht="24" customHeight="1">
       <c r="A111" s="9" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="112" spans="1:34" ht="24" customHeight="1">
@@ -3115,15 +2903,15 @@
         <v>38</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="B113" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="178" customHeight="1">
@@ -3131,23 +2919,23 @@
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="A117" s="12" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
       <c r="B118" s="13" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
       <c r="A120" s="9" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
@@ -3155,28 +2943,26 @@
         <v>38</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="24" customHeight="1">
       <c r="B122" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="178" customHeight="1">
-      <c r="B123" s="11" t="s">
-        <v>158</v>
-      </c>
+      <c r="B123" s="11"/>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
       <c r="A126" s="12" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="24" customHeight="1">
@@ -3184,21 +2970,21 @@
     </row>
     <row r="129" spans="1:30" ht="24" customHeight="1">
       <c r="A129" s="9" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="130" spans="1:30" ht="24" customHeight="1">
       <c r="A130" s="14" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="131" spans="1:30" ht="24" customHeight="1">
@@ -3206,55 +2992,55 @@
     </row>
     <row r="133" spans="1:30" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="134" spans="1:30" ht="24" customHeight="1">
       <c r="A134" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="135" spans="1:30" ht="24" customHeight="1">
       <c r="B135" s="11"/>
       <c r="AA135" s="6" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="AB135" s="6" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="AC135" s="6" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="AD135" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="137" spans="1:30" ht="24" customHeight="1">
       <c r="A137" s="9" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="138" spans="1:30" ht="24" customHeight="1">
       <c r="A138" s="14" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="139" spans="1:30" ht="24" customHeight="1">
@@ -3262,23 +3048,23 @@
     </row>
     <row r="142" spans="1:30" ht="24" customHeight="1">
       <c r="A142" s="12" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="143" spans="1:30" ht="24" customHeight="1">
       <c r="B143" s="13" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="24" customHeight="1">
       <c r="A145" s="9" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="24" customHeight="1">
@@ -3286,15 +3072,15 @@
         <v>38</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="24" customHeight="1">
       <c r="B147" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="178" customHeight="1">
@@ -3302,10 +3088,10 @@
     </row>
     <row r="150" spans="1:3" ht="24" customHeight="1">
       <c r="A150" s="9" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="24" customHeight="1">
@@ -3313,15 +3099,15 @@
         <v>38</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="24" customHeight="1">
       <c r="B152" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="24" customHeight="1">
@@ -3329,10 +3115,10 @@
     </row>
     <row r="155" spans="1:3" ht="24" customHeight="1">
       <c r="A155" s="9" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
@@ -3340,15 +3126,15 @@
         <v>38</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="24" customHeight="1">
       <c r="B157" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="24" customHeight="1">
@@ -3356,10 +3142,10 @@
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
@@ -3367,10 +3153,10 @@
         <v>38</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="24" customHeight="1">
@@ -3378,10 +3164,10 @@
     </row>
     <row r="164" spans="1:3" ht="24" customHeight="1">
       <c r="A164" s="9" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
@@ -3389,10 +3175,10 @@
         <v>38</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="24" customHeight="1">
@@ -3400,23 +3186,23 @@
     </row>
     <row r="169" spans="1:3" ht="24" customHeight="1">
       <c r="A169" s="12" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="24" customHeight="1">
       <c r="B170" s="13" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">
       <c r="A172" s="9" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="24" customHeight="1">
@@ -3424,28 +3210,26 @@
         <v>38</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="24" customHeight="1">
       <c r="B174" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="178" customHeight="1">
-      <c r="B175" s="11" t="s">
-        <v>207</v>
-      </c>
+      <c r="B175" s="11"/>
     </row>
     <row r="177" spans="1:3" ht="24" customHeight="1">
       <c r="A177" s="9" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="24" customHeight="1">
@@ -3453,28 +3237,26 @@
         <v>38</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="24" customHeight="1">
       <c r="B179" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="178" customHeight="1">
-      <c r="B180" s="11" t="s">
-        <v>212</v>
-      </c>
+      <c r="B180" s="11"/>
     </row>
     <row r="182" spans="1:3" ht="24" customHeight="1">
       <c r="A182" s="9" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="24" customHeight="1">
@@ -3482,28 +3264,26 @@
         <v>38</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="24" customHeight="1">
       <c r="B184" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="178" customHeight="1">
-      <c r="B185" s="11" t="s">
-        <v>217</v>
-      </c>
+      <c r="B185" s="11"/>
     </row>
     <row r="187" spans="1:3" ht="24" customHeight="1">
       <c r="A187" s="9" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="24" customHeight="1">
@@ -3511,15 +3291,15 @@
         <v>38</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="24" customHeight="1">
       <c r="B189" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="178" customHeight="1">
@@ -3527,23 +3307,23 @@
     </row>
     <row r="193" spans="1:3" ht="24" customHeight="1">
       <c r="A193" s="12" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="24" customHeight="1">
       <c r="B194" s="13" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="24" customHeight="1">
       <c r="A196" s="9" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="24" customHeight="1">
@@ -3551,28 +3331,26 @@
         <v>38</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="24" customHeight="1">
       <c r="B198" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="178" customHeight="1">
-      <c r="B199" s="11" t="s">
-        <v>207</v>
-      </c>
+      <c r="B199" s="11"/>
     </row>
     <row r="201" spans="1:3" ht="24" customHeight="1">
       <c r="A201" s="9" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="24" customHeight="1">
@@ -3580,28 +3358,26 @@
         <v>38</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="24" customHeight="1">
       <c r="B203" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="178" customHeight="1">
-      <c r="B204" s="11" t="s">
-        <v>212</v>
-      </c>
+      <c r="B204" s="11"/>
     </row>
     <row r="206" spans="1:3" ht="24" customHeight="1">
       <c r="A206" s="9" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="24" customHeight="1">
@@ -3609,28 +3385,26 @@
         <v>38</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="24" customHeight="1">
       <c r="B208" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="178" customHeight="1">
-      <c r="B209" s="11" t="s">
-        <v>234</v>
-      </c>
+      <c r="B209" s="11"/>
     </row>
     <row r="211" spans="1:3" ht="24" customHeight="1">
       <c r="A211" s="9" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="24" customHeight="1">
@@ -3638,15 +3412,15 @@
         <v>38</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="24" customHeight="1">
       <c r="B213" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="178" customHeight="1">
@@ -3654,23 +3428,23 @@
     </row>
     <row r="217" spans="1:3" ht="24" customHeight="1">
       <c r="A217" s="12" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B217" s="12" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="24" customHeight="1">
       <c r="B218" s="13" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="24" customHeight="1">
       <c r="A220" s="9" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="24" customHeight="1">
@@ -3678,28 +3452,26 @@
         <v>38</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="24" customHeight="1">
       <c r="B222" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="178" customHeight="1">
-      <c r="B223" s="11" t="s">
-        <v>245</v>
-      </c>
+      <c r="B223" s="11"/>
     </row>
     <row r="225" spans="1:3" ht="24" customHeight="1">
       <c r="A225" s="9" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="24" customHeight="1">
@@ -3707,28 +3479,26 @@
         <v>38</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C226" s="10" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="24" customHeight="1">
       <c r="B227" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="178" customHeight="1">
-      <c r="B228" s="11" t="s">
-        <v>249</v>
-      </c>
+      <c r="B228" s="11"/>
     </row>
     <row r="230" spans="1:3" ht="24" customHeight="1">
       <c r="A230" s="9" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="24" customHeight="1">
@@ -3736,28 +3506,26 @@
         <v>38</v>
       </c>
       <c r="B231" s="10" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="24" customHeight="1">
       <c r="B232" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="178" customHeight="1">
-      <c r="B233" s="11" t="s">
-        <v>254</v>
-      </c>
+      <c r="B233" s="11"/>
     </row>
     <row r="235" spans="1:3" ht="24" customHeight="1">
       <c r="A235" s="9" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="24" customHeight="1">
@@ -3765,28 +3533,26 @@
         <v>38</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C236" s="10" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="24" customHeight="1">
       <c r="B237" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="178" customHeight="1">
-      <c r="B238" s="11" t="s">
-        <v>249</v>
-      </c>
+      <c r="B238" s="11"/>
     </row>
     <row r="240" spans="1:3" ht="24" customHeight="1">
       <c r="A240" s="9" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="24" customHeight="1">
@@ -3794,15 +3560,15 @@
         <v>38</v>
       </c>
       <c r="B241" s="10" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="C241" s="10" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="24" customHeight="1">
       <c r="B242" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="178" customHeight="1">
@@ -3810,23 +3576,23 @@
     </row>
     <row r="246" spans="1:3" ht="24" customHeight="1">
       <c r="A246" s="12" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="B246" s="12" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="24" customHeight="1">
       <c r="B247" s="13" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="24" customHeight="1">
       <c r="A249" s="9" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="24" customHeight="1">
@@ -3834,28 +3600,26 @@
         <v>38</v>
       </c>
       <c r="B250" s="10" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="24" customHeight="1">
       <c r="B251" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="178" customHeight="1">
-      <c r="B252" s="11" t="s">
-        <v>249</v>
-      </c>
+      <c r="B252" s="11"/>
     </row>
     <row r="254" spans="1:3" ht="24" customHeight="1">
       <c r="A254" s="9" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B254" s="9" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="24" customHeight="1">
@@ -3863,28 +3627,26 @@
         <v>38</v>
       </c>
       <c r="B255" s="10" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="24" customHeight="1">
       <c r="B256" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="178" customHeight="1">
-      <c r="B257" s="11" t="s">
-        <v>249</v>
-      </c>
+      <c r="B257" s="11"/>
     </row>
     <row r="259" spans="1:3" ht="24" customHeight="1">
       <c r="A259" s="9" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="B259" s="9" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="24" customHeight="1">
@@ -3892,15 +3654,15 @@
         <v>38</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="24" customHeight="1">
       <c r="B261" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="178" customHeight="1">
@@ -3908,23 +3670,23 @@
     </row>
     <row r="265" spans="1:3" ht="24" customHeight="1">
       <c r="A265" s="12" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="B265" s="12" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="24" customHeight="1">
       <c r="B266" s="13" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="24" customHeight="1">
       <c r="A268" s="9" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="B268" s="9" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="24" customHeight="1">
@@ -3932,28 +3694,26 @@
         <v>38</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="C269" s="10" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="24" customHeight="1">
       <c r="B270" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="178" customHeight="1">
-      <c r="B271" s="11" t="s">
-        <v>282</v>
-      </c>
+      <c r="B271" s="11"/>
     </row>
     <row r="273" spans="1:3" ht="24" customHeight="1">
       <c r="A273" s="9" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="B273" s="9" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="24" customHeight="1">
@@ -3961,28 +3721,26 @@
         <v>38</v>
       </c>
       <c r="B274" s="10" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="C274" s="10" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="24" customHeight="1">
       <c r="B275" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="178" customHeight="1">
-      <c r="B276" s="11" t="s">
-        <v>287</v>
-      </c>
+      <c r="B276" s="11"/>
     </row>
     <row r="278" spans="1:3" ht="24" customHeight="1">
       <c r="A278" s="9" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="24" customHeight="1">
@@ -3990,41 +3748,39 @@
         <v>38</v>
       </c>
       <c r="B279" s="10" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="C279" s="10" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="24" customHeight="1">
       <c r="B280" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="178" customHeight="1">
-      <c r="B281" s="11" t="s">
-        <v>291</v>
-      </c>
+      <c r="B281" s="11"/>
     </row>
     <row r="284" spans="1:3" ht="24" customHeight="1">
       <c r="A284" s="12" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="B284" s="12" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="24" customHeight="1">
       <c r="B285" s="13" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="24" customHeight="1">
       <c r="A287" s="9" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="B287" s="9" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="24" customHeight="1">
@@ -4032,28 +3788,26 @@
         <v>38</v>
       </c>
       <c r="B288" s="10" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="C288" s="10" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="24" customHeight="1">
       <c r="B289" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="178" customHeight="1">
-      <c r="B290" s="11" t="s">
-        <v>299</v>
-      </c>
+      <c r="B290" s="11"/>
     </row>
     <row r="292" spans="1:3" ht="24" customHeight="1">
       <c r="A292" s="9" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="B292" s="9" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="24" customHeight="1">
@@ -4061,28 +3815,26 @@
         <v>38</v>
       </c>
       <c r="B293" s="10" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="C293" s="10" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="24" customHeight="1">
       <c r="B294" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="178" customHeight="1">
-      <c r="B295" s="11" t="s">
-        <v>303</v>
-      </c>
+      <c r="B295" s="11"/>
     </row>
     <row r="297" spans="1:3" ht="24" customHeight="1">
       <c r="A297" s="9" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="B297" s="9" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="24" customHeight="1">
@@ -4090,41 +3842,39 @@
         <v>38</v>
       </c>
       <c r="B298" s="10" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="C298" s="10" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="24" customHeight="1">
       <c r="B299" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="178" customHeight="1">
-      <c r="B300" s="11" t="s">
-        <v>291</v>
-      </c>
+      <c r="B300" s="11"/>
     </row>
     <row r="303" spans="1:3" ht="24" customHeight="1">
       <c r="A303" s="12" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="B303" s="12" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="24" customHeight="1">
       <c r="B304" s="13" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="24" customHeight="1">
       <c r="A306" s="9" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="B306" s="9" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="24" customHeight="1">
@@ -4132,28 +3882,26 @@
         <v>38</v>
       </c>
       <c r="B307" s="10" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="C307" s="10" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="24" customHeight="1">
       <c r="B308" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="178" customHeight="1">
-      <c r="B309" s="11" t="s">
-        <v>314</v>
-      </c>
+      <c r="B309" s="11"/>
     </row>
     <row r="311" spans="1:3" ht="24" customHeight="1">
       <c r="A311" s="9" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="B311" s="9" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="24" customHeight="1">
@@ -4161,28 +3909,26 @@
         <v>38</v>
       </c>
       <c r="B312" s="10" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="C312" s="10" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="24" customHeight="1">
       <c r="B313" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="178" customHeight="1">
-      <c r="B314" s="11" t="s">
-        <v>287</v>
-      </c>
+      <c r="B314" s="11"/>
     </row>
     <row r="316" spans="1:3" ht="24" customHeight="1">
       <c r="A316" s="9" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="B316" s="9" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="24" customHeight="1">
@@ -4190,15 +3936,15 @@
         <v>38</v>
       </c>
       <c r="B317" s="10" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="C317" s="10" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="24" customHeight="1">
       <c r="B318" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="178" customHeight="1">
@@ -4206,23 +3952,23 @@
     </row>
     <row r="322" spans="1:3" ht="24" customHeight="1">
       <c r="A322" s="12" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="B322" s="12" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="24" customHeight="1">
       <c r="B323" s="13" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="24" customHeight="1">
       <c r="A325" s="9" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="B325" s="9" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="24" customHeight="1">
@@ -4230,28 +3976,26 @@
         <v>38</v>
       </c>
       <c r="B326" s="10" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="C326" s="10" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="24" customHeight="1">
       <c r="B327" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="178" customHeight="1">
-      <c r="B328" s="11" t="s">
-        <v>328</v>
-      </c>
+      <c r="B328" s="11"/>
     </row>
     <row r="330" spans="1:3" ht="24" customHeight="1">
       <c r="A330" s="9" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="B330" s="9" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="24" customHeight="1">
@@ -4259,28 +4003,26 @@
         <v>38</v>
       </c>
       <c r="B331" s="10" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="C331" s="10" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="24" customHeight="1">
       <c r="B332" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="178" customHeight="1">
-      <c r="B333" s="11" t="s">
-        <v>287</v>
-      </c>
+      <c r="B333" s="11"/>
     </row>
     <row r="335" spans="1:3" ht="24" customHeight="1">
       <c r="A335" s="9" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="B335" s="9" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="24" customHeight="1">
@@ -4288,15 +4030,15 @@
         <v>38</v>
       </c>
       <c r="B336" s="10" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="C336" s="10" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="24" customHeight="1">
       <c r="B337" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="178" customHeight="1">
@@ -4304,23 +4046,23 @@
     </row>
     <row r="341" spans="1:3" ht="24" customHeight="1">
       <c r="A341" s="12" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="B341" s="12" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="24" customHeight="1">
       <c r="B342" s="13" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="24" customHeight="1">
       <c r="A344" s="9" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="24" customHeight="1">
@@ -4328,28 +4070,26 @@
         <v>38</v>
       </c>
       <c r="B345" s="10" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="C345" s="10" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="24" customHeight="1">
       <c r="B346" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="178" customHeight="1">
-      <c r="B347" s="11" t="s">
-        <v>342</v>
-      </c>
+      <c r="B347" s="11"/>
     </row>
     <row r="349" spans="1:3" ht="24" customHeight="1">
       <c r="A349" s="9" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="B349" s="9" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="24" customHeight="1">
@@ -4357,28 +4097,26 @@
         <v>38</v>
       </c>
       <c r="B350" s="10" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="C350" s="10" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
     </row>
     <row r="351" spans="1:3" ht="24" customHeight="1">
       <c r="B351" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="352" spans="1:3" ht="178" customHeight="1">
-      <c r="B352" s="11" t="s">
-        <v>346</v>
-      </c>
+      <c r="B352" s="11"/>
     </row>
     <row r="354" spans="1:3" ht="24" customHeight="1">
       <c r="A354" s="9" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="B354" s="9" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="355" spans="1:3" ht="24" customHeight="1">
@@ -4386,41 +4124,39 @@
         <v>38</v>
       </c>
       <c r="B355" s="10" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="C355" s="10" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
     </row>
     <row r="356" spans="1:3" ht="24" customHeight="1">
       <c r="B356" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="178" customHeight="1">
-      <c r="B357" s="11" t="s">
-        <v>350</v>
-      </c>
+      <c r="B357" s="11"/>
     </row>
     <row r="360" spans="1:3" ht="24" customHeight="1">
       <c r="A360" s="12" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="B360" s="12" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="24" customHeight="1">
       <c r="B361" s="13" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="24" customHeight="1">
       <c r="A363" s="9" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="B363" s="9" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="24" customHeight="1">
@@ -4428,28 +4164,26 @@
         <v>38</v>
       </c>
       <c r="B364" s="10" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="C364" s="10" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="24" customHeight="1">
       <c r="B365" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="178" customHeight="1">
-      <c r="B366" s="11" t="s">
-        <v>357</v>
-      </c>
+      <c r="B366" s="11"/>
     </row>
     <row r="368" spans="1:3" ht="24" customHeight="1">
       <c r="A368" s="9" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="B368" s="9" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="24" customHeight="1">
@@ -4457,28 +4191,26 @@
         <v>38</v>
       </c>
       <c r="B369" s="10" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="C369" s="10" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="24" customHeight="1">
       <c r="B370" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="178" customHeight="1">
-      <c r="B371" s="11" t="s">
-        <v>346</v>
-      </c>
+      <c r="B371" s="11"/>
     </row>
     <row r="373" spans="1:3" ht="24" customHeight="1">
       <c r="A373" s="9" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="B373" s="9" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="24" customHeight="1">
@@ -4486,77 +4218,78 @@
         <v>38</v>
       </c>
       <c r="B374" s="10" t="s">
-        <v>362</v>
+        <v>336</v>
       </c>
       <c r="C374" s="10" t="s">
-        <v>363</v>
+        <v>337</v>
       </c>
     </row>
     <row r="375" spans="1:3" ht="24" customHeight="1">
       <c r="B375" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="178" customHeight="1">
-      <c r="B376" s="11" t="s">
-        <v>350</v>
-      </c>
+      <c r="B376" s="11"/>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24 B135" xr:uid="{00000000-0002-0000-0200-000000000000}">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
       <formula1>AA24:AD24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54">
       <formula1>AA54:AB54</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62">
       <formula1>AA62:AC62</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B105" xr:uid="{00000000-0002-0000-0200-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B105">
       <formula1>AA105:AH105</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B131 B139" xr:uid="{00000000-0002-0000-0200-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B131">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B135">
+      <formula1>AA135:AD135</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B139">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AG299"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B273" workbookViewId="0">
-      <selection activeCell="B165" sqref="B165"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" customWidth="1"/>
-    <col min="2" max="2" width="150.7265625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>37</v>
@@ -4567,10 +4300,10 @@
         <v>38</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -4578,10 +4311,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -4589,15 +4322,15 @@
         <v>38</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>371</v>
+        <v>345</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -4605,34 +4338,34 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>374</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>375</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>379</v>
+        <v>353</v>
       </c>
     </row>
     <row r="19" spans="1:33" ht="24" customHeight="1">
@@ -4641,37 +4374,35 @@
       </c>
     </row>
     <row r="20" spans="1:33" ht="24" customHeight="1">
-      <c r="B20" s="15" t="s">
-        <v>380</v>
-      </c>
+      <c r="B20" s="11"/>
       <c r="AA20" s="6" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="AE20" s="6" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="AF20" s="6" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="AG20" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:33" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:33" ht="24" customHeight="1">
@@ -4679,52 +4410,50 @@
         <v>38</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
     </row>
     <row r="24" spans="1:33" ht="24" customHeight="1">
       <c r="B24" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:33" ht="178" customHeight="1">
-      <c r="B25" s="11" t="s">
-        <v>389</v>
-      </c>
+      <c r="B25" s="11"/>
     </row>
     <row r="28" spans="1:33" ht="24" customHeight="1">
       <c r="A28" s="12" t="s">
-        <v>390</v>
+        <v>363</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>391</v>
+        <v>364</v>
       </c>
     </row>
     <row r="29" spans="1:33" ht="24" customHeight="1">
       <c r="B29" s="13" t="s">
-        <v>392</v>
+        <v>365</v>
       </c>
     </row>
     <row r="31" spans="1:33" ht="24" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
     </row>
     <row r="32" spans="1:33" ht="24" customHeight="1">
       <c r="A32" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>394</v>
+        <v>367</v>
       </c>
     </row>
     <row r="33" spans="1:33" ht="24" customHeight="1">
@@ -4733,37 +4462,35 @@
       </c>
     </row>
     <row r="34" spans="1:33" ht="24" customHeight="1">
-      <c r="B34" s="11" t="s">
-        <v>380</v>
-      </c>
+      <c r="B34" s="11"/>
       <c r="AA34" s="6" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="AB34" s="6" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="AC34" s="6" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="AD34" s="6" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="AE34" s="6" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="AF34" s="6" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="AG34" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:33" ht="24" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>395</v>
+        <v>368</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:33" ht="24" customHeight="1">
@@ -4771,52 +4498,50 @@
         <v>38</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>396</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38" spans="1:33" ht="24" customHeight="1">
       <c r="B38" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:33" ht="178" customHeight="1">
-      <c r="B39" s="11" t="s">
-        <v>389</v>
-      </c>
+      <c r="B39" s="11"/>
     </row>
     <row r="42" spans="1:33" ht="24" customHeight="1">
       <c r="A42" s="12" t="s">
-        <v>397</v>
+        <v>370</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
     </row>
     <row r="43" spans="1:33" ht="24" customHeight="1">
       <c r="B43" s="13" t="s">
-        <v>399</v>
+        <v>372</v>
       </c>
     </row>
     <row r="45" spans="1:33" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>400</v>
+        <v>373</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
     </row>
     <row r="46" spans="1:33" ht="24" customHeight="1">
       <c r="A46" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>401</v>
+        <v>374</v>
       </c>
     </row>
     <row r="47" spans="1:33" ht="24" customHeight="1">
@@ -4825,37 +4550,35 @@
       </c>
     </row>
     <row r="48" spans="1:33" ht="24" customHeight="1">
-      <c r="B48" s="15" t="s">
-        <v>380</v>
-      </c>
+      <c r="B48" s="11"/>
       <c r="AA48" s="6" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="AB48" s="6" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="AC48" s="6" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="AD48" s="6" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="AE48" s="6" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="AF48" s="6" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="AG48" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:33" ht="24" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>402</v>
+        <v>375</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="51" spans="1:33" ht="24" customHeight="1">
@@ -4863,52 +4586,50 @@
         <v>38</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>403</v>
+        <v>376</v>
       </c>
     </row>
     <row r="52" spans="1:33" ht="24" customHeight="1">
       <c r="B52" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:33" ht="178" customHeight="1">
-      <c r="B53" s="11" t="s">
-        <v>389</v>
-      </c>
+      <c r="B53" s="11"/>
     </row>
     <row r="56" spans="1:33" ht="24" customHeight="1">
       <c r="A56" s="12" t="s">
-        <v>404</v>
+        <v>377</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>405</v>
+        <v>378</v>
       </c>
     </row>
     <row r="57" spans="1:33" ht="24" customHeight="1">
       <c r="B57" s="13" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
     </row>
     <row r="59" spans="1:33" ht="24" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
     </row>
     <row r="60" spans="1:33" ht="24" customHeight="1">
       <c r="A60" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="61" spans="1:33" ht="24" customHeight="1">
@@ -4917,37 +4638,35 @@
       </c>
     </row>
     <row r="62" spans="1:33" ht="24" customHeight="1">
-      <c r="B62" s="11" t="s">
-        <v>380</v>
-      </c>
+      <c r="B62" s="11"/>
       <c r="AA62" s="6" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="AB62" s="6" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="AC62" s="6" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="AD62" s="6" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="AE62" s="6" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="AF62" s="6" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="AG62" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:33" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="1:33" ht="24" customHeight="1">
@@ -4955,52 +4674,50 @@
         <v>38</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>410</v>
+        <v>383</v>
       </c>
     </row>
     <row r="66" spans="1:33" ht="24" customHeight="1">
       <c r="B66" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:33" ht="178" customHeight="1">
-      <c r="B67" s="11" t="s">
-        <v>411</v>
-      </c>
+      <c r="B67" s="11"/>
     </row>
     <row r="70" spans="1:33" ht="24" customHeight="1">
       <c r="A70" s="12" t="s">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>413</v>
+        <v>385</v>
       </c>
     </row>
     <row r="71" spans="1:33" ht="24" customHeight="1">
       <c r="B71" s="13" t="s">
-        <v>414</v>
+        <v>386</v>
       </c>
     </row>
     <row r="73" spans="1:33" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>415</v>
+        <v>387</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
     </row>
     <row r="74" spans="1:33" ht="24" customHeight="1">
       <c r="A74" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
     </row>
     <row r="75" spans="1:33" ht="24" customHeight="1">
@@ -5009,37 +4726,35 @@
       </c>
     </row>
     <row r="76" spans="1:33" ht="24" customHeight="1">
-      <c r="B76" s="15" t="s">
-        <v>380</v>
-      </c>
+      <c r="B76" s="11"/>
       <c r="AA76" s="6" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="AB76" s="6" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="AC76" s="6" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="AD76" s="6" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="AE76" s="6" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="AF76" s="6" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="AG76" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" spans="1:33" ht="24" customHeight="1">
       <c r="A78" s="9" t="s">
-        <v>417</v>
+        <v>389</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="79" spans="1:33" ht="24" customHeight="1">
@@ -5047,52 +4762,50 @@
         <v>38</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>418</v>
+        <v>390</v>
       </c>
     </row>
     <row r="80" spans="1:33" ht="24" customHeight="1">
       <c r="B80" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="81" spans="1:33" ht="178" customHeight="1">
-      <c r="B81" s="11" t="s">
-        <v>411</v>
-      </c>
+      <c r="B81" s="11"/>
     </row>
     <row r="84" spans="1:33" ht="24" customHeight="1">
       <c r="A84" s="12" t="s">
-        <v>419</v>
+        <v>391</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>420</v>
+        <v>392</v>
       </c>
     </row>
     <row r="85" spans="1:33" ht="24" customHeight="1">
       <c r="B85" s="13" t="s">
-        <v>421</v>
+        <v>393</v>
       </c>
     </row>
     <row r="87" spans="1:33" ht="24" customHeight="1">
       <c r="A87" s="9" t="s">
-        <v>422</v>
+        <v>394</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
     </row>
     <row r="88" spans="1:33" ht="24" customHeight="1">
       <c r="A88" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>423</v>
+        <v>395</v>
       </c>
     </row>
     <row r="89" spans="1:33" ht="24" customHeight="1">
@@ -5101,76 +4814,72 @@
       </c>
     </row>
     <row r="90" spans="1:33" ht="24" customHeight="1">
-      <c r="B90" s="15" t="s">
-        <v>380</v>
-      </c>
+      <c r="B90" s="11"/>
       <c r="AA90" s="6" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="AB90" s="6" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="AC90" s="6" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="AD90" s="6" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="AE90" s="6" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="AF90" s="6" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="AG90" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="92" spans="1:33" ht="24" customHeight="1">
       <c r="A92" s="9" t="s">
-        <v>424</v>
+        <v>396</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>425</v>
+        <v>397</v>
       </c>
     </row>
     <row r="93" spans="1:33" ht="24" customHeight="1">
       <c r="A93" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>426</v>
+        <v>398</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>427</v>
+        <v>399</v>
       </c>
     </row>
     <row r="94" spans="1:33" ht="24" customHeight="1">
-      <c r="B94" s="11" t="s">
-        <v>428</v>
-      </c>
+      <c r="B94" s="11"/>
       <c r="AA94" s="6" t="s">
-        <v>429</v>
+        <v>400</v>
       </c>
       <c r="AB94" s="6" t="s">
-        <v>430</v>
+        <v>401</v>
       </c>
       <c r="AC94" s="6" t="s">
-        <v>431</v>
+        <v>402</v>
       </c>
       <c r="AD94" s="6" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="AE94" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="96" spans="1:33" ht="24" customHeight="1">
       <c r="A96" s="9" t="s">
-        <v>432</v>
+        <v>404</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97" spans="1:33" ht="24" customHeight="1">
@@ -5178,52 +4887,50 @@
         <v>38</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>433</v>
+        <v>405</v>
       </c>
     </row>
     <row r="98" spans="1:33" ht="24" customHeight="1">
       <c r="B98" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99" spans="1:33" ht="178" customHeight="1">
-      <c r="B99" s="11" t="s">
-        <v>434</v>
-      </c>
+      <c r="B99" s="11"/>
     </row>
     <row r="102" spans="1:33" ht="24" customHeight="1">
       <c r="A102" s="12" t="s">
-        <v>435</v>
+        <v>406</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>436</v>
+        <v>407</v>
       </c>
     </row>
     <row r="103" spans="1:33" ht="24" customHeight="1">
       <c r="B103" s="13" t="s">
-        <v>437</v>
+        <v>408</v>
       </c>
     </row>
     <row r="105" spans="1:33" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>438</v>
+        <v>409</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
     </row>
     <row r="106" spans="1:33" ht="24" customHeight="1">
       <c r="A106" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>439</v>
+        <v>410</v>
       </c>
     </row>
     <row r="107" spans="1:33" ht="24" customHeight="1">
@@ -5232,37 +4939,35 @@
       </c>
     </row>
     <row r="108" spans="1:33" ht="24" customHeight="1">
-      <c r="B108" s="17" t="s">
-        <v>64</v>
-      </c>
+      <c r="B108" s="11"/>
       <c r="AA108" s="6" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="AB108" s="6" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="AC108" s="6" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="AD108" s="6" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="AE108" s="6" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="AF108" s="6" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="AG108" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="110" spans="1:33" ht="24" customHeight="1">
       <c r="A110" s="9" t="s">
-        <v>440</v>
+        <v>411</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="111" spans="1:33" ht="24" customHeight="1">
@@ -5270,52 +4975,50 @@
         <v>38</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>441</v>
+        <v>412</v>
       </c>
     </row>
     <row r="112" spans="1:33" ht="24" customHeight="1">
       <c r="B112" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113" spans="1:33" ht="178" customHeight="1">
-      <c r="B113" s="11" t="s">
-        <v>442</v>
-      </c>
+      <c r="B113" s="11"/>
     </row>
     <row r="116" spans="1:33" ht="24" customHeight="1">
       <c r="A116" s="12" t="s">
-        <v>443</v>
+        <v>413</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>444</v>
+        <v>414</v>
       </c>
     </row>
     <row r="117" spans="1:33" ht="24" customHeight="1">
       <c r="B117" s="13" t="s">
-        <v>445</v>
+        <v>415</v>
       </c>
     </row>
     <row r="119" spans="1:33" ht="24" customHeight="1">
       <c r="A119" s="9" t="s">
-        <v>446</v>
+        <v>416</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
     </row>
     <row r="120" spans="1:33" ht="24" customHeight="1">
       <c r="A120" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>447</v>
+        <v>417</v>
       </c>
     </row>
     <row r="121" spans="1:33" ht="24" customHeight="1">
@@ -5324,37 +5027,35 @@
       </c>
     </row>
     <row r="122" spans="1:33" ht="24" customHeight="1">
-      <c r="B122" s="15" t="s">
-        <v>64</v>
-      </c>
+      <c r="B122" s="11"/>
       <c r="AA122" s="6" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="AB122" s="6" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="AC122" s="6" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="AD122" s="6" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="AE122" s="6" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="AF122" s="6" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="AG122" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="124" spans="1:33" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>448</v>
+        <v>418</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="125" spans="1:33" ht="24" customHeight="1">
@@ -5362,52 +5063,50 @@
         <v>38</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>449</v>
+        <v>419</v>
       </c>
     </row>
     <row r="126" spans="1:33" ht="24" customHeight="1">
       <c r="B126" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="127" spans="1:33" ht="178" customHeight="1">
-      <c r="B127" s="18" t="s">
-        <v>442</v>
-      </c>
+      <c r="B127" s="11"/>
     </row>
     <row r="130" spans="1:33" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
     </row>
     <row r="131" spans="1:33" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>452</v>
+        <v>422</v>
       </c>
     </row>
     <row r="133" spans="1:33" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>453</v>
+        <v>423</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
     </row>
     <row r="134" spans="1:33" ht="24" customHeight="1">
       <c r="A134" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>454</v>
+        <v>424</v>
       </c>
     </row>
     <row r="135" spans="1:33" ht="24" customHeight="1">
@@ -5416,37 +5115,35 @@
       </c>
     </row>
     <row r="136" spans="1:33" ht="24" customHeight="1">
-      <c r="B136" s="11" t="s">
-        <v>64</v>
-      </c>
+      <c r="B136" s="11"/>
       <c r="AA136" s="6" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="AB136" s="6" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="AC136" s="6" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="AD136" s="6" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="AE136" s="6" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="AF136" s="6" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="AG136" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="138" spans="1:33" ht="24" customHeight="1">
       <c r="A138" s="9" t="s">
-        <v>455</v>
+        <v>425</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="139" spans="1:33" ht="24" customHeight="1">
@@ -5454,52 +5151,50 @@
         <v>38</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>456</v>
+        <v>426</v>
       </c>
     </row>
     <row r="140" spans="1:33" ht="24" customHeight="1">
       <c r="B140" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="141" spans="1:33" ht="178" customHeight="1">
-      <c r="B141" s="11" t="s">
-        <v>442</v>
-      </c>
+      <c r="B141" s="11"/>
     </row>
     <row r="144" spans="1:33" ht="24" customHeight="1">
       <c r="A144" s="12" t="s">
-        <v>457</v>
+        <v>427</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>458</v>
+        <v>428</v>
       </c>
     </row>
     <row r="145" spans="1:33" ht="24" customHeight="1">
       <c r="B145" s="13" t="s">
-        <v>459</v>
+        <v>429</v>
       </c>
     </row>
     <row r="147" spans="1:33" ht="24" customHeight="1">
       <c r="A147" s="9" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
     </row>
     <row r="148" spans="1:33" ht="24" customHeight="1">
       <c r="A148" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>461</v>
+        <v>431</v>
       </c>
     </row>
     <row r="149" spans="1:33" ht="24" customHeight="1">
@@ -5508,37 +5203,35 @@
       </c>
     </row>
     <row r="150" spans="1:33" ht="24" customHeight="1">
-      <c r="B150" s="15" t="s">
-        <v>64</v>
-      </c>
+      <c r="B150" s="11"/>
       <c r="AA150" s="6" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="AB150" s="6" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="AC150" s="6" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="AD150" s="6" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="AE150" s="6" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="AF150" s="6" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="AG150" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="152" spans="1:33" ht="24" customHeight="1">
       <c r="A152" s="9" t="s">
-        <v>462</v>
+        <v>432</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="153" spans="1:33" ht="24" customHeight="1">
@@ -5546,52 +5239,50 @@
         <v>38</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>463</v>
+        <v>433</v>
       </c>
     </row>
     <row r="154" spans="1:33" ht="24" customHeight="1">
       <c r="B154" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="155" spans="1:33" ht="178" customHeight="1">
-      <c r="B155" s="18" t="s">
-        <v>442</v>
-      </c>
+      <c r="B155" s="11"/>
     </row>
     <row r="158" spans="1:33" ht="24" customHeight="1">
       <c r="A158" s="12" t="s">
-        <v>464</v>
+        <v>434</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>465</v>
+        <v>435</v>
       </c>
     </row>
     <row r="159" spans="1:33" ht="24" customHeight="1">
       <c r="B159" s="13" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
     </row>
     <row r="161" spans="1:33" ht="24" customHeight="1">
       <c r="A161" s="9" t="s">
-        <v>467</v>
+        <v>437</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
     </row>
     <row r="162" spans="1:33" ht="24" customHeight="1">
       <c r="A162" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>468</v>
+        <v>438</v>
       </c>
     </row>
     <row r="163" spans="1:33" ht="24" customHeight="1">
@@ -5600,48 +5291,46 @@
       </c>
     </row>
     <row r="164" spans="1:33" ht="24" customHeight="1">
-      <c r="B164" s="15" t="s">
-        <v>381</v>
-      </c>
+      <c r="B164" s="11"/>
       <c r="AA164" s="6" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="AB164" s="6" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="AC164" s="6" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="AD164" s="6" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="AE164" s="6" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="AF164" s="6" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="AG164" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="166" spans="1:33" ht="24" customHeight="1">
       <c r="A166" s="9" t="s">
-        <v>469</v>
+        <v>439</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>470</v>
+        <v>440</v>
       </c>
     </row>
     <row r="167" spans="1:33" ht="24" customHeight="1">
       <c r="A167" s="14" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>471</v>
+        <v>441</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>472</v>
+        <v>442</v>
       </c>
     </row>
     <row r="168" spans="1:33" ht="24" customHeight="1">
@@ -5649,10 +5338,10 @@
     </row>
     <row r="170" spans="1:33" ht="24" customHeight="1">
       <c r="A170" s="9" t="s">
-        <v>473</v>
+        <v>443</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="171" spans="1:33" ht="24" customHeight="1">
@@ -5660,15 +5349,15 @@
         <v>38</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>474</v>
+        <v>444</v>
       </c>
     </row>
     <row r="172" spans="1:33" ht="24" customHeight="1">
       <c r="B172" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="173" spans="1:33" ht="178" customHeight="1">
@@ -5676,34 +5365,34 @@
     </row>
     <row r="176" spans="1:33" ht="24" customHeight="1">
       <c r="A176" s="12" t="s">
-        <v>475</v>
+        <v>445</v>
       </c>
       <c r="B176" s="12" t="s">
-        <v>476</v>
+        <v>446</v>
       </c>
     </row>
     <row r="177" spans="1:33" ht="24" customHeight="1">
       <c r="B177" s="13" t="s">
-        <v>477</v>
+        <v>447</v>
       </c>
     </row>
     <row r="179" spans="1:33" ht="24" customHeight="1">
       <c r="A179" s="9" t="s">
-        <v>478</v>
+        <v>448</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
     </row>
     <row r="180" spans="1:33" ht="24" customHeight="1">
       <c r="A180" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>479</v>
+        <v>449</v>
       </c>
     </row>
     <row r="181" spans="1:33" ht="24" customHeight="1">
@@ -5712,48 +5401,46 @@
       </c>
     </row>
     <row r="182" spans="1:33" ht="24" customHeight="1">
-      <c r="B182" s="15" t="s">
-        <v>381</v>
-      </c>
+      <c r="B182" s="11"/>
       <c r="AA182" s="6" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="AB182" s="6" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="AC182" s="6" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="AD182" s="6" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="AE182" s="6" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="AF182" s="6" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="AG182" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="184" spans="1:33" ht="24" customHeight="1">
       <c r="A184" s="9" t="s">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>470</v>
+        <v>440</v>
       </c>
     </row>
     <row r="185" spans="1:33" ht="24" customHeight="1">
       <c r="A185" s="14" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>471</v>
+        <v>441</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>481</v>
+        <v>451</v>
       </c>
     </row>
     <row r="186" spans="1:33" ht="24" customHeight="1">
@@ -5761,21 +5448,21 @@
     </row>
     <row r="188" spans="1:33" ht="24" customHeight="1">
       <c r="A188" s="9" t="s">
-        <v>482</v>
+        <v>452</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>483</v>
+        <v>453</v>
       </c>
     </row>
     <row r="189" spans="1:33" ht="24" customHeight="1">
       <c r="A189" s="14" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>484</v>
+        <v>454</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>485</v>
+        <v>455</v>
       </c>
     </row>
     <row r="190" spans="1:33" ht="24" customHeight="1">
@@ -5783,10 +5470,10 @@
     </row>
     <row r="192" spans="1:33" ht="24" customHeight="1">
       <c r="A192" s="9" t="s">
-        <v>486</v>
+        <v>456</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="193" spans="1:33" ht="24" customHeight="1">
@@ -5794,15 +5481,15 @@
         <v>38</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>487</v>
+        <v>457</v>
       </c>
     </row>
     <row r="194" spans="1:33" ht="24" customHeight="1">
       <c r="B194" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="195" spans="1:33" ht="178" customHeight="1">
@@ -5810,34 +5497,34 @@
     </row>
     <row r="198" spans="1:33" ht="24" customHeight="1">
       <c r="A198" s="12" t="s">
-        <v>488</v>
+        <v>458</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>489</v>
+        <v>459</v>
       </c>
     </row>
     <row r="199" spans="1:33" ht="24" customHeight="1">
       <c r="B199" s="13" t="s">
-        <v>490</v>
+        <v>460</v>
       </c>
     </row>
     <row r="201" spans="1:33" ht="24" customHeight="1">
       <c r="A201" s="9" t="s">
-        <v>491</v>
+        <v>461</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
     </row>
     <row r="202" spans="1:33" ht="24" customHeight="1">
       <c r="A202" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>492</v>
+        <v>462</v>
       </c>
     </row>
     <row r="203" spans="1:33" ht="24" customHeight="1">
@@ -5846,37 +5533,35 @@
       </c>
     </row>
     <row r="204" spans="1:33" ht="24" customHeight="1">
-      <c r="B204" s="15" t="s">
-        <v>64</v>
-      </c>
+      <c r="B204" s="11"/>
       <c r="AA204" s="6" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="AB204" s="6" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="AC204" s="6" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="AD204" s="6" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="AE204" s="6" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="AF204" s="6" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="AG204" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="206" spans="1:33" ht="24" customHeight="1">
       <c r="A206" s="9" t="s">
-        <v>493</v>
+        <v>463</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="207" spans="1:33" ht="24" customHeight="1">
@@ -5884,52 +5569,50 @@
         <v>38</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
     </row>
     <row r="208" spans="1:33" ht="24" customHeight="1">
       <c r="B208" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="209" spans="1:33" ht="178" customHeight="1">
-      <c r="B209" s="18" t="s">
-        <v>442</v>
-      </c>
+      <c r="B209" s="11"/>
     </row>
     <row r="212" spans="1:33" ht="24" customHeight="1">
       <c r="A212" s="12" t="s">
-        <v>495</v>
+        <v>465</v>
       </c>
       <c r="B212" s="12" t="s">
-        <v>496</v>
+        <v>466</v>
       </c>
     </row>
     <row r="213" spans="1:33" ht="24" customHeight="1">
       <c r="B213" s="13" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
     </row>
     <row r="215" spans="1:33" ht="24" customHeight="1">
       <c r="A215" s="9" t="s">
-        <v>498</v>
+        <v>468</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
     </row>
     <row r="216" spans="1:33" ht="24" customHeight="1">
       <c r="A216" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>499</v>
+        <v>469</v>
       </c>
     </row>
     <row r="217" spans="1:33" ht="24" customHeight="1">
@@ -5938,121 +5621,115 @@
       </c>
     </row>
     <row r="218" spans="1:33" ht="24" customHeight="1">
-      <c r="B218" s="15" t="s">
-        <v>64</v>
-      </c>
+      <c r="B218" s="11"/>
       <c r="AA218" s="6" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="AB218" s="6" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="AC218" s="6" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="AD218" s="6" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="AE218" s="6" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="AF218" s="6" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="AG218" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="220" spans="1:33" ht="24" customHeight="1">
       <c r="A220" s="9" t="s">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
     </row>
     <row r="221" spans="1:33" ht="24" customHeight="1">
       <c r="A221" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>502</v>
+        <v>472</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>503</v>
+        <v>473</v>
       </c>
     </row>
     <row r="222" spans="1:33" ht="24" customHeight="1">
-      <c r="B222" s="15" t="s">
-        <v>64</v>
-      </c>
+      <c r="B222" s="11"/>
       <c r="AA222" s="6" t="s">
-        <v>504</v>
+        <v>474</v>
       </c>
       <c r="AB222" s="6" t="s">
-        <v>505</v>
+        <v>475</v>
       </c>
       <c r="AC222" s="6" t="s">
-        <v>506</v>
+        <v>476</v>
       </c>
       <c r="AD222" s="6" t="s">
-        <v>507</v>
+        <v>477</v>
       </c>
       <c r="AE222" s="6" t="s">
-        <v>508</v>
+        <v>478</v>
       </c>
       <c r="AF222" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="224" spans="1:33" ht="24" customHeight="1">
       <c r="A224" s="9" t="s">
-        <v>509</v>
+        <v>479</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>510</v>
+        <v>480</v>
       </c>
     </row>
     <row r="225" spans="1:33" ht="24" customHeight="1">
       <c r="A225" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>511</v>
+        <v>481</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>512</v>
+        <v>482</v>
       </c>
     </row>
     <row r="226" spans="1:33" ht="24" customHeight="1">
-      <c r="B226" s="15" t="s">
-        <v>64</v>
-      </c>
+      <c r="B226" s="11"/>
       <c r="AA226" s="6" t="s">
-        <v>504</v>
+        <v>474</v>
       </c>
       <c r="AB226" s="6" t="s">
-        <v>505</v>
+        <v>475</v>
       </c>
       <c r="AC226" s="6" t="s">
-        <v>506</v>
+        <v>476</v>
       </c>
       <c r="AD226" s="6" t="s">
-        <v>507</v>
+        <v>477</v>
       </c>
       <c r="AE226" s="6" t="s">
-        <v>508</v>
+        <v>478</v>
       </c>
       <c r="AF226" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="228" spans="1:33" ht="24" customHeight="1">
       <c r="A228" s="9" t="s">
-        <v>513</v>
+        <v>483</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="229" spans="1:33" ht="24" customHeight="1">
@@ -6060,57 +5737,50 @@
         <v>38</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="C229" s="10" t="s">
-        <v>514</v>
+        <v>484</v>
       </c>
     </row>
     <row r="230" spans="1:33" ht="24" customHeight="1">
       <c r="B230" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="231" spans="1:33" ht="178" customHeight="1">
-      <c r="B231" s="16" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="232" spans="1:33">
-      <c r="B232" t="s">
-        <v>516</v>
-      </c>
+      <c r="B231" s="11"/>
     </row>
     <row r="234" spans="1:33" ht="24" customHeight="1">
       <c r="A234" s="12" t="s">
-        <v>517</v>
+        <v>485</v>
       </c>
       <c r="B234" s="12" t="s">
-        <v>518</v>
+        <v>486</v>
       </c>
     </row>
     <row r="235" spans="1:33" ht="24" customHeight="1">
       <c r="B235" s="13" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="237" spans="1:33" ht="24" customHeight="1">
       <c r="A237" s="9" t="s">
-        <v>520</v>
+        <v>488</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
     </row>
     <row r="238" spans="1:33" ht="24" customHeight="1">
       <c r="A238" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="C238" s="10" t="s">
-        <v>521</v>
+        <v>489</v>
       </c>
     </row>
     <row r="239" spans="1:33" ht="24" customHeight="1">
@@ -6119,119 +5789,115 @@
       </c>
     </row>
     <row r="240" spans="1:33" ht="24" customHeight="1">
-      <c r="B240" s="15"/>
+      <c r="B240" s="11"/>
       <c r="AA240" s="6" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="AB240" s="6" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="AC240" s="6" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="AD240" s="6" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="AE240" s="6" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="AF240" s="6" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="AG240" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="242" spans="1:32" ht="24" customHeight="1">
       <c r="A242" s="9" t="s">
-        <v>522</v>
+        <v>490</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
     </row>
     <row r="243" spans="1:32" ht="24" customHeight="1">
       <c r="A243" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B243" s="10" t="s">
-        <v>502</v>
+        <v>472</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>523</v>
+        <v>491</v>
       </c>
     </row>
     <row r="244" spans="1:32" ht="24" customHeight="1">
-      <c r="B244" s="15" t="s">
-        <v>64</v>
-      </c>
+      <c r="B244" s="11"/>
       <c r="AA244" s="6" t="s">
-        <v>504</v>
+        <v>474</v>
       </c>
       <c r="AB244" s="6" t="s">
-        <v>505</v>
+        <v>475</v>
       </c>
       <c r="AC244" s="6" t="s">
-        <v>506</v>
+        <v>476</v>
       </c>
       <c r="AD244" s="6" t="s">
-        <v>507</v>
+        <v>477</v>
       </c>
       <c r="AE244" s="6" t="s">
-        <v>508</v>
+        <v>478</v>
       </c>
       <c r="AF244" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="246" spans="1:32" ht="24" customHeight="1">
       <c r="A246" s="9" t="s">
-        <v>524</v>
+        <v>492</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>510</v>
+        <v>480</v>
       </c>
     </row>
     <row r="247" spans="1:32" ht="24" customHeight="1">
       <c r="A247" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>511</v>
+        <v>481</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>525</v>
+        <v>493</v>
       </c>
     </row>
     <row r="248" spans="1:32" ht="24" customHeight="1">
-      <c r="B248" s="15" t="s">
-        <v>64</v>
-      </c>
+      <c r="B248" s="11"/>
       <c r="AA248" s="6" t="s">
-        <v>504</v>
+        <v>474</v>
       </c>
       <c r="AB248" s="6" t="s">
-        <v>505</v>
+        <v>475</v>
       </c>
       <c r="AC248" s="6" t="s">
-        <v>506</v>
+        <v>476</v>
       </c>
       <c r="AD248" s="6" t="s">
-        <v>507</v>
+        <v>477</v>
       </c>
       <c r="AE248" s="6" t="s">
-        <v>508</v>
+        <v>478</v>
       </c>
       <c r="AF248" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="250" spans="1:32" ht="24" customHeight="1">
       <c r="A250" s="9" t="s">
-        <v>526</v>
+        <v>494</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="251" spans="1:32" ht="24" customHeight="1">
@@ -6239,52 +5905,50 @@
         <v>38</v>
       </c>
       <c r="B251" s="10" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>527</v>
+        <v>495</v>
       </c>
     </row>
     <row r="252" spans="1:32" ht="24" customHeight="1">
       <c r="B252" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="253" spans="1:32" ht="178" customHeight="1">
-      <c r="B253" s="11" t="s">
-        <v>515</v>
-      </c>
+      <c r="B253" s="11"/>
     </row>
     <row r="256" spans="1:32" ht="24" customHeight="1">
       <c r="A256" s="12" t="s">
-        <v>528</v>
+        <v>496</v>
       </c>
       <c r="B256" s="12" t="s">
-        <v>529</v>
+        <v>497</v>
       </c>
     </row>
     <row r="257" spans="1:33" ht="24" customHeight="1">
       <c r="B257" s="13" t="s">
-        <v>530</v>
+        <v>498</v>
       </c>
     </row>
     <row r="259" spans="1:33" ht="24" customHeight="1">
       <c r="A259" s="9" t="s">
-        <v>531</v>
+        <v>499</v>
       </c>
       <c r="B259" s="9" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
     </row>
     <row r="260" spans="1:33" ht="24" customHeight="1">
       <c r="A260" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>532</v>
+        <v>500</v>
       </c>
     </row>
     <row r="261" spans="1:33" ht="24" customHeight="1">
@@ -6293,37 +5957,35 @@
       </c>
     </row>
     <row r="262" spans="1:33" ht="24" customHeight="1">
-      <c r="B262" s="15" t="s">
-        <v>64</v>
-      </c>
+      <c r="B262" s="11"/>
       <c r="AA262" s="6" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="AB262" s="6" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="AC262" s="6" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="AD262" s="6" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="AE262" s="6" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="AF262" s="6" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="AG262" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="264" spans="1:33" ht="24" customHeight="1">
       <c r="A264" s="9" t="s">
-        <v>533</v>
+        <v>501</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="265" spans="1:33" ht="24" customHeight="1">
@@ -6331,52 +5993,50 @@
         <v>38</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>534</v>
+        <v>502</v>
       </c>
     </row>
     <row r="266" spans="1:33" ht="24" customHeight="1">
       <c r="B266" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="267" spans="1:33" ht="178" customHeight="1">
-      <c r="B267" s="11" t="s">
-        <v>442</v>
-      </c>
+      <c r="B267" s="11"/>
     </row>
     <row r="270" spans="1:33" ht="24" customHeight="1">
       <c r="A270" s="12" t="s">
-        <v>535</v>
+        <v>503</v>
       </c>
       <c r="B270" s="12" t="s">
-        <v>536</v>
+        <v>504</v>
       </c>
     </row>
     <row r="271" spans="1:33" ht="24" customHeight="1">
       <c r="B271" s="13" t="s">
-        <v>537</v>
+        <v>505</v>
       </c>
     </row>
     <row r="273" spans="1:33" ht="24" customHeight="1">
       <c r="A273" s="9" t="s">
-        <v>538</v>
+        <v>506</v>
       </c>
       <c r="B273" s="9" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
     </row>
     <row r="274" spans="1:33" ht="24" customHeight="1">
       <c r="A274" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B274" s="10" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="C274" s="10" t="s">
-        <v>539</v>
+        <v>507</v>
       </c>
     </row>
     <row r="275" spans="1:33" ht="24" customHeight="1">
@@ -6385,61 +6045,57 @@
       </c>
     </row>
     <row r="276" spans="1:33" ht="24" customHeight="1">
-      <c r="B276" s="17" t="s">
-        <v>381</v>
-      </c>
+      <c r="B276" s="11"/>
       <c r="AA276" s="6" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="AB276" s="6" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="AC276" s="6" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="AD276" s="6" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="AE276" s="6" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="AF276" s="6" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="AG276" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="278" spans="1:33" ht="24" customHeight="1">
       <c r="A278" s="9" t="s">
-        <v>540</v>
+        <v>508</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>541</v>
+        <v>509</v>
       </c>
     </row>
     <row r="279" spans="1:33" ht="24" customHeight="1">
       <c r="A279" s="14" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B279" s="10" t="s">
-        <v>542</v>
+        <v>510</v>
       </c>
       <c r="C279" s="10" t="s">
-        <v>543</v>
+        <v>511</v>
       </c>
     </row>
     <row r="280" spans="1:33" ht="24" customHeight="1">
-      <c r="B280" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="B280" s="11"/>
     </row>
     <row r="282" spans="1:33" ht="24" customHeight="1">
       <c r="A282" s="9" t="s">
-        <v>544</v>
+        <v>512</v>
       </c>
       <c r="B282" s="9" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="283" spans="1:33" ht="24" customHeight="1">
@@ -6447,52 +6103,50 @@
         <v>38</v>
       </c>
       <c r="B283" s="10" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="C283" s="10" t="s">
-        <v>545</v>
+        <v>513</v>
       </c>
     </row>
     <row r="284" spans="1:33" ht="24" customHeight="1">
       <c r="B284" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="285" spans="1:33" ht="178" customHeight="1">
-      <c r="B285" s="11" t="s">
-        <v>350</v>
-      </c>
+      <c r="B285" s="11"/>
     </row>
     <row r="288" spans="1:33" ht="24" customHeight="1">
       <c r="A288" s="12" t="s">
-        <v>546</v>
+        <v>514</v>
       </c>
       <c r="B288" s="12" t="s">
-        <v>547</v>
+        <v>515</v>
       </c>
     </row>
     <row r="289" spans="1:32" ht="24" customHeight="1">
       <c r="B289" s="13" t="s">
-        <v>548</v>
+        <v>516</v>
       </c>
     </row>
     <row r="291" spans="1:32" ht="24" customHeight="1">
       <c r="A291" s="9" t="s">
-        <v>549</v>
+        <v>517</v>
       </c>
       <c r="B291" s="9" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
     </row>
     <row r="292" spans="1:32" ht="24" customHeight="1">
       <c r="A292" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B292" s="10" t="s">
-        <v>550</v>
+        <v>518</v>
       </c>
       <c r="C292" s="10" t="s">
-        <v>551</v>
+        <v>519</v>
       </c>
     </row>
     <row r="293" spans="1:32" ht="24" customHeight="1">
@@ -6501,34 +6155,32 @@
       </c>
     </row>
     <row r="294" spans="1:32" ht="24" customHeight="1">
-      <c r="B294" s="15" t="s">
-        <v>552</v>
-      </c>
+      <c r="B294" s="11"/>
       <c r="AA294" s="6" t="s">
-        <v>553</v>
+        <v>520</v>
       </c>
       <c r="AB294" s="6" t="s">
-        <v>552</v>
+        <v>521</v>
       </c>
       <c r="AC294" s="6" t="s">
-        <v>554</v>
+        <v>522</v>
       </c>
       <c r="AD294" s="6" t="s">
-        <v>555</v>
+        <v>523</v>
       </c>
       <c r="AE294" s="6" t="s">
-        <v>556</v>
+        <v>524</v>
       </c>
       <c r="AF294" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="296" spans="1:32" ht="24" customHeight="1">
       <c r="A296" s="9" t="s">
-        <v>557</v>
+        <v>525</v>
       </c>
       <c r="B296" s="9" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="297" spans="1:32" ht="24" customHeight="1">
@@ -6536,399 +6188,104 @@
         <v>38</v>
       </c>
       <c r="B297" s="10" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="C297" s="10" t="s">
-        <v>558</v>
+        <v>526</v>
       </c>
     </row>
     <row r="298" spans="1:32" ht="24" customHeight="1">
       <c r="B298" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="299" spans="1:32" ht="178" customHeight="1">
-      <c r="B299" s="11" t="s">
-        <v>559</v>
-      </c>
+      <c r="B299" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34 B136 B62" xr:uid="{00000000-0002-0000-0300-000000000000}">
+  <dataValidations count="27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+      <formula1>AA20:AG20</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34">
       <formula1>AA34:AG34</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B94" xr:uid="{00000000-0002-0000-0300-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B48">
+      <formula1>AA48:AG48</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62">
+      <formula1>AA62:AG62</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76">
+      <formula1>AA76:AG76</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B90">
+      <formula1>AA90:AG90</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B94">
       <formula1>AA94:AE94</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B168 B280 B190 B186" xr:uid="{00000000-0002-0000-0300-00000C000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B108">
+      <formula1>AA108:AG108</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B122">
+      <formula1>AA122:AG122</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B136">
+      <formula1>AA136:AG136</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B150">
+      <formula1>AA150:AG150</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B164">
+      <formula1>AA164:AG164</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B168">
       <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B182">
+      <formula1>AA182:AG182</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B186">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B190">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B204">
+      <formula1>AA204:AG204</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B218">
+      <formula1>AA218:AG218</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B222">
+      <formula1>AA222:AF222</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B226">
+      <formula1>AA226:AF226</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B240">
+      <formula1>AA240:AG240</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B244">
+      <formula1>AA244:AF244</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B248">
+      <formula1>AA248:AF248</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B262">
+      <formula1>AA262:AG262</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B276">
+      <formula1>AA276:AG276</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B280">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B294">
+      <formula1>AA294:AF294</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005BF0D4DDC815DE408FFEBFF28B4DF9EF" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74d0b5e9465d974fbb8d6747a4130f81">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5cc0f436-4a0d-428d-9f11-35fccd152cdb" xmlns:ns3="2f8ba3b5-845e-4150-9c2c-7614112f6ec9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cd9fcc5441e09a53187385d6a651350c" ns1:_="" ns2:_="" ns3:_="">
-    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
-    <xsd:import namespace="5cc0f436-4a0d-428d-9f11-35fccd152cdb"/>
-    <xsd:import namespace="2f8ba3b5-845e-4150-9c2c-7614112f6ec9"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
-                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:rhms" minOccurs="0"/>
-                <xsd:element ref="ns2:ccnn" minOccurs="0"/>
-                <xsd:element ref="ns2:dv3a" minOccurs="0"/>
-                <xsd:element ref="ns2:redm" minOccurs="0"/>
-                <xsd:element ref="ns2:Project_x0020_status" minOccurs="0"/>
-                <xsd:element ref="ns2:ProjectContact" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="16" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="17" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5cc0f436-4a0d-428d-9f11-35fccd152cdb" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="15" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="20" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="21" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="rhms" ma:index="22" nillable="true" ma:displayName="Hist/ RCP" ma:internalName="rhms">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="ccnn" ma:index="23" nillable="true" ma:displayName="Hist/ RCP" ma:internalName="ccnn">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="dv3a" ma:index="24" nillable="true" ma:displayName="Time period" ma:internalName="dv3a">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="redm" ma:index="25" nillable="true" ma:displayName="Variable" ma:internalName="redm">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Project_x0020_status" ma:index="26" nillable="true" ma:displayName="Project status" ma:default="Live" ma:format="Dropdown" ma:indexed="true" ma:internalName="Project_x0020_status">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="Live"/>
-          <xsd:enumeration value="Archive"/>
-          <xsd:enumeration value="Proposal"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="ProjectContact" ma:index="27" nillable="true" ma:displayName="Project Contact" ma:format="Dropdown" ma:list="UserInfo" ma:SharePointGroup="0" ma:internalName="ProjectContact">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="2f8ba3b5-845e-4150-9c2c-7614112f6ec9" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="13" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="14" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Project_x0020_status xmlns="5cc0f436-4a0d-428d-9f11-35fccd152cdb">Live</Project_x0020_status>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ProjectContact xmlns="5cc0f436-4a0d-428d-9f11-35fccd152cdb">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </ProjectContact>
-    <ccnn xmlns="5cc0f436-4a0d-428d-9f11-35fccd152cdb" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <rhms xmlns="5cc0f436-4a0d-428d-9f11-35fccd152cdb" xsi:nil="true"/>
-    <dv3a xmlns="5cc0f436-4a0d-428d-9f11-35fccd152cdb" xsi:nil="true"/>
-    <redm xmlns="5cc0f436-4a0d-428d-9f11-35fccd152cdb" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B0FFF26-0F29-4813-B462-B5B0DED1B76D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA1F97BF-292E-4088-AB9E-753F59DB8D8E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="5cc0f436-4a0d-428d-9f11-35fccd152cdb"/>
-    <ds:schemaRef ds:uri="2f8ba3b5-845e-4150-9c2c-7614112f6ec9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD26D56C-BF76-4752-A5C1-E4A157340847}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="2f8ba3b5-845e-4150-9c2c-7614112f6ec9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="5cc0f436-4a0d-428d-9f11-35fccd152cdb"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>